--- a/装修.xlsx
+++ b/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="25605" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="372">
   <si>
     <t>核心需求</t>
   </si>
@@ -270,6 +270,9 @@
     <t>地面找平</t>
   </si>
   <si>
+    <t>铲墙皮/保温层</t>
+  </si>
+  <si>
     <t>全屋</t>
   </si>
   <si>
@@ -309,6 +312,12 @@
     <t>插座/开关</t>
   </si>
   <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>前置过滤器安装</t>
+  </si>
+  <si>
     <t>玄关/走廊/储物间</t>
   </si>
   <si>
@@ -321,7 +330,10 @@
     <t>走廊灯具安装</t>
   </si>
   <si>
-    <t>地轨门安装</t>
+    <t>地轨门</t>
+  </si>
+  <si>
+    <t>扇</t>
   </si>
   <si>
     <t>客餐厅</t>
@@ -343,36 +355,45 @@
     <t>800*800广东砖</t>
   </si>
   <si>
+    <t>吊顶(双眼皮)</t>
+  </si>
+  <si>
+    <t>灯具安装(含灯槽)</t>
+  </si>
+  <si>
+    <t>书柜</t>
+  </si>
+  <si>
+    <t>投影</t>
+  </si>
+  <si>
+    <t>餐边柜</t>
+  </si>
+  <si>
+    <t>阳台</t>
+  </si>
+  <si>
+    <t>墙砖铺贴</t>
+  </si>
+  <si>
+    <t>灯具安装</t>
+  </si>
+  <si>
+    <t>阳台柜</t>
+  </si>
+  <si>
+    <t>防水工程</t>
+  </si>
+  <si>
+    <t>包管道</t>
+  </si>
+  <si>
+    <t>主卧</t>
+  </si>
+  <si>
     <t>吊顶(含灯槽)</t>
   </si>
   <si>
-    <t>灯具安装</t>
-  </si>
-  <si>
-    <t>书柜</t>
-  </si>
-  <si>
-    <t>餐边柜</t>
-  </si>
-  <si>
-    <t>阳台</t>
-  </si>
-  <si>
-    <t>墙砖铺贴</t>
-  </si>
-  <si>
-    <t>阳台柜</t>
-  </si>
-  <si>
-    <t>防水工程</t>
-  </si>
-  <si>
-    <t>包管道</t>
-  </si>
-  <si>
-    <t>主卧</t>
-  </si>
-  <si>
     <t>门安装</t>
   </si>
   <si>
@@ -388,12 +409,30 @@
     <t>贴墙砖铺贴</t>
   </si>
   <si>
+    <t>间</t>
+  </si>
+  <si>
+    <t>吊顶(铝扣板)</t>
+  </si>
+  <si>
     <t>回填</t>
   </si>
   <si>
+    <t>根</t>
+  </si>
+  <si>
     <t>洁具/柜安装</t>
   </si>
   <si>
+    <t>处</t>
+  </si>
+  <si>
+    <t>门槛石</t>
+  </si>
+  <si>
+    <t>条</t>
+  </si>
+  <si>
     <t>洗手间(马桶)</t>
   </si>
   <si>
@@ -401,6 +440,9 @@
   </si>
   <si>
     <t>吊顶与灯具</t>
+  </si>
+  <si>
+    <t>地轨门安装</t>
   </si>
   <si>
     <t>橱柜</t>
@@ -506,9 +548,6 @@
     <t>全房开关面板</t>
   </si>
   <si>
-    <t>个</t>
-  </si>
-  <si>
     <t>厨房墙砖</t>
   </si>
   <si>
@@ -781,9 +820,6 @@
   </si>
   <si>
     <t>果盘</t>
-  </si>
-  <si>
-    <t>门槛石</t>
   </si>
   <si>
     <t>窗帘</t>
@@ -2390,7 +2426,7 @@
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2984,6 +3020,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3373,202 +3412,202 @@
   <sheetData>
     <row r="1" ht="9" customHeight="1"/>
     <row r="2" ht="54" spans="2:3">
-      <c r="B2" s="206" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="207" t="s">
+      <c r="B2" s="207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="208" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="2:3">
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="209" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="C4" s="208" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="208" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="208" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="206" t="s">
+      <c r="C7" s="207" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="206" t="s">
+      <c r="C8" s="207" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="27" spans="2:3">
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="208" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="206" t="s">
+      <c r="B10" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="206" t="s">
+      <c r="C10" s="207" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="206" t="s">
+      <c r="B11" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="206" t="s">
+      <c r="C11" s="207" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="210" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="209" t="s">
+      <c r="C13" s="210" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="121.5" spans="2:3">
-      <c r="B14" s="206" t="s">
+      <c r="B14" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="207" t="s">
+      <c r="C14" s="208" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="206" t="s">
+      <c r="B15" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="206" t="s">
+      <c r="C15" s="207" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="206" t="s">
+      <c r="C16" s="207" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="206" t="s">
+      <c r="B17" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="206" t="s">
+      <c r="C17" s="207" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="206" t="s">
+      <c r="B18" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="206" t="s">
+      <c r="C18" s="207" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="206" t="s">
+      <c r="B19" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="206" t="s">
+      <c r="C19" s="207" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="206" t="s">
+      <c r="B20" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="206" t="s">
+      <c r="C20" s="207" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="206" t="s">
+      <c r="B21" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="206" t="s">
+      <c r="C21" s="207" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="206" t="s">
+      <c r="B22" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="206" t="s">
+      <c r="C22" s="207" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="206" t="s">
+      <c r="B23" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="206" t="s">
+      <c r="C23" s="207" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="206" t="s">
+      <c r="B24" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="206" t="s">
+      <c r="C24" s="207" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="206" t="s">
+      <c r="B25" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="206" t="s">
+      <c r="C25" s="207" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="206" t="s">
+      <c r="B26" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="206" t="s">
+      <c r="C26" s="207" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3582,21 +3621,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.2583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.13333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="198" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="198" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.66666666666667" style="1" customWidth="1"/>
@@ -3677,12 +3716,12 @@
       <c r="E3" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="200">
+      <c r="F3" s="202">
         <v>50</v>
       </c>
       <c r="G3" s="200"/>
       <c r="H3" s="200"/>
-      <c r="I3" s="205"/>
+      <c r="I3" s="206"/>
       <c r="J3" s="200">
         <f>(F3+G3)*D3</f>
         <v>500</v>
@@ -3711,7 +3750,7 @@
       <c r="E4" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="200">
+      <c r="F4" s="202">
         <v>200</v>
       </c>
       <c r="G4" s="200"/>
@@ -3745,18 +3784,18 @@
       <c r="E5" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="200">
+      <c r="F5" s="202">
         <v>40</v>
       </c>
       <c r="G5" s="200"/>
       <c r="H5" s="200"/>
       <c r="I5" s="200"/>
       <c r="J5" s="200">
-        <f>(F5+G5)*D5</f>
+        <f t="shared" ref="J5:J10" si="1">(F5+G5)*D5</f>
         <v>400</v>
       </c>
       <c r="K5" s="200">
-        <f>H5*D5*(1+I5)</f>
+        <f t="shared" ref="K5:K10" si="2">H5*D5*(1+I5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="200"/>
@@ -3779,18 +3818,18 @@
       <c r="E6" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="202">
         <v>5</v>
       </c>
       <c r="G6" s="200"/>
       <c r="H6" s="200"/>
       <c r="I6" s="200"/>
       <c r="J6" s="200">
-        <f t="shared" ref="J6:J12" si="1">(F6+G6)*D6</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K6" s="200">
-        <f t="shared" ref="K6:K12" si="2">H6*D6*(1+I6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="200"/>
@@ -3813,7 +3852,7 @@
       <c r="E7" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="200">
+      <c r="F7" s="202">
         <v>5</v>
       </c>
       <c r="G7" s="200"/>
@@ -3847,7 +3886,7 @@
       <c r="E8" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="200">
+      <c r="F8" s="202">
         <v>500</v>
       </c>
       <c r="G8" s="200"/>
@@ -3872,7 +3911,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="202" t="s">
+      <c r="C9" s="203" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="200">
@@ -3881,7 +3920,7 @@
       <c r="E9" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="200">
+      <c r="F9" s="202">
         <v>40</v>
       </c>
       <c r="G9" s="200"/>
@@ -3902,51 +3941,49 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="200"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
+      <c r="B10" s="200">
+        <v>8</v>
+      </c>
+      <c r="C10" s="203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="200">
+        <v>30</v>
+      </c>
+      <c r="E10" s="200" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="202">
+        <v>15</v>
+      </c>
       <c r="G10" s="200"/>
       <c r="H10" s="200"/>
       <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
+      <c r="J10" s="200">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="K10" s="200">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L10" s="200"/>
       <c r="M10" s="200"/>
       <c r="N10" s="200"/>
       <c r="O10" s="200"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="200" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="200">
-        <v>1</v>
-      </c>
-      <c r="C11" s="201" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="200">
-        <v>1</v>
-      </c>
-      <c r="E11" s="200" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="200">
-        <v>500</v>
-      </c>
+      <c r="A11" s="200"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
       <c r="G11" s="200"/>
       <c r="H11" s="200"/>
       <c r="I11" s="200"/>
-      <c r="J11" s="200">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="K11" s="200">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J11" s="200"/>
+      <c r="K11" s="200"/>
       <c r="L11" s="200"/>
       <c r="M11" s="200"/>
       <c r="N11" s="200"/>
@@ -3954,61 +3991,49 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="200"/>
-      <c r="B12" s="200">
-        <f>B11+1</f>
-        <v>2</v>
-      </c>
-      <c r="C12" s="201" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="200">
-        <v>10</v>
-      </c>
-      <c r="E12" s="200" t="s">
-        <v>60</v>
-      </c>
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="200"/>
       <c r="F12" s="200"/>
       <c r="G12" s="200"/>
       <c r="H12" s="200"/>
       <c r="I12" s="200"/>
-      <c r="J12" s="200">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="200">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="J12" s="200"/>
+      <c r="K12" s="200"/>
       <c r="L12" s="200"/>
       <c r="M12" s="200"/>
       <c r="N12" s="200"/>
       <c r="O12" s="200"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="200"/>
+      <c r="A13" s="200" t="s">
+        <v>69</v>
+      </c>
       <c r="B13" s="200">
-        <f t="shared" ref="B13:B19" si="3">B12+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="201" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="200">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E13" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="200"/>
+        <v>66</v>
+      </c>
+      <c r="F13" s="202">
+        <v>500</v>
+      </c>
       <c r="G13" s="200"/>
       <c r="H13" s="200"/>
       <c r="I13" s="200"/>
       <c r="J13" s="200">
-        <f t="shared" ref="J13:J19" si="4">(F13+G13)*D13</f>
-        <v>0</v>
+        <f>(F13+G13)*D13</f>
+        <v>500</v>
       </c>
       <c r="K13" s="200">
-        <f t="shared" ref="K13:K19" si="5">H13*D13*(1+I13)</f>
+        <f>H13*D13*(1+I13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="200"/>
@@ -4019,26 +4044,30 @@
     <row r="14" spans="1:15">
       <c r="A14" s="200"/>
       <c r="B14" s="200">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>B13+1</f>
+        <v>2</v>
       </c>
       <c r="C14" s="201" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="200"/>
+        <v>71</v>
+      </c>
+      <c r="D14" s="200">
+        <v>10</v>
+      </c>
       <c r="E14" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="200"/>
+      <c r="F14" s="202">
+        <v>10</v>
+      </c>
       <c r="G14" s="200"/>
       <c r="H14" s="200"/>
       <c r="I14" s="200"/>
       <c r="J14" s="200">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>(F14+G14)*D14</f>
+        <v>100</v>
       </c>
       <c r="K14" s="200">
-        <f t="shared" si="5"/>
+        <f>H14*D14*(1+I14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="200"/>
@@ -4049,26 +4078,30 @@
     <row r="15" spans="1:15">
       <c r="A15" s="200"/>
       <c r="B15" s="200">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C15" s="202" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="200"/>
+        <f>B14+1</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="201" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="200">
+        <v>20</v>
+      </c>
       <c r="E15" s="200" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="200"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="202">
+        <v>10</v>
+      </c>
       <c r="G15" s="200"/>
       <c r="H15" s="200"/>
       <c r="I15" s="200"/>
       <c r="J15" s="200">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>(F15+G15)*D15</f>
+        <v>200</v>
       </c>
       <c r="K15" s="200">
-        <f t="shared" si="5"/>
+        <f>H15*D15*(1+I15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="200"/>
@@ -4079,22 +4112,30 @@
     <row r="16" spans="1:15">
       <c r="A16" s="200"/>
       <c r="B16" s="200">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
+        <f>B15+1</f>
+        <v>4</v>
+      </c>
+      <c r="C16" s="201" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="200">
+        <v>100</v>
+      </c>
+      <c r="E16" s="200" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="202">
+        <v>10</v>
+      </c>
       <c r="G16" s="200"/>
       <c r="H16" s="200"/>
       <c r="I16" s="200"/>
       <c r="J16" s="200">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>(F16+G16)*D16</f>
+        <v>1000</v>
       </c>
       <c r="K16" s="200">
-        <f t="shared" si="5"/>
+        <f>H16*D16*(1+I16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="200"/>
@@ -4105,22 +4146,30 @@
     <row r="17" spans="1:15">
       <c r="A17" s="200"/>
       <c r="B17" s="200">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C17" s="202"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
+        <f>B16+1</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="203" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="200">
+        <v>30</v>
+      </c>
+      <c r="E17" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="202">
+        <v>2</v>
+      </c>
       <c r="G17" s="200"/>
       <c r="H17" s="200"/>
       <c r="I17" s="200"/>
       <c r="J17" s="200">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>(F17+G17)*D17</f>
+        <v>60</v>
       </c>
       <c r="K17" s="200">
-        <f t="shared" si="5"/>
+        <f>H17*D17*(1+I17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="200"/>
@@ -4131,10 +4180,10 @@
     <row r="18" spans="1:15">
       <c r="A18" s="200"/>
       <c r="B18" s="200">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C18" s="202"/>
+        <f>B17+1</f>
+        <v>6</v>
+      </c>
+      <c r="C18" s="203"/>
       <c r="D18" s="200"/>
       <c r="E18" s="200"/>
       <c r="F18" s="200"/>
@@ -4142,11 +4191,11 @@
       <c r="H18" s="200"/>
       <c r="I18" s="200"/>
       <c r="J18" s="200">
-        <f t="shared" si="4"/>
+        <f>(F18+G18)*D18</f>
         <v>0</v>
       </c>
       <c r="K18" s="200">
-        <f t="shared" si="5"/>
+        <f>H18*D18*(1+I18)</f>
         <v>0</v>
       </c>
       <c r="L18" s="200"/>
@@ -4157,9 +4206,10 @@
     <row r="19" spans="1:15">
       <c r="A19" s="200"/>
       <c r="B19" s="200">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
+        <f>B18+1</f>
+        <v>7</v>
+      </c>
+      <c r="C19" s="203"/>
       <c r="D19" s="200"/>
       <c r="E19" s="200"/>
       <c r="F19" s="200"/>
@@ -4167,11 +4217,11 @@
       <c r="H19" s="200"/>
       <c r="I19" s="200"/>
       <c r="J19" s="200">
-        <f t="shared" si="4"/>
+        <f>(F19+G19)*D19</f>
         <v>0</v>
       </c>
       <c r="K19" s="200">
-        <f t="shared" si="5"/>
+        <f>H19*D19*(1+I19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="200"/>
@@ -4198,27 +4248,32 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="200" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="200">
         <v>1</v>
       </c>
       <c r="C21" s="201" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1">
+        <v>80</v>
+      </c>
+      <c r="E21" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="202">
         <v>15</v>
       </c>
       <c r="G21" s="200"/>
       <c r="H21" s="200"/>
       <c r="I21" s="200"/>
       <c r="J21" s="200">
-        <f>(F21+G21)*D21</f>
-        <v>0</v>
+        <f t="shared" ref="J21:J26" si="3">(F21+G21)*D21</f>
+        <v>1200</v>
       </c>
       <c r="K21" s="200">
-        <f>H21*D21*(1+I21)</f>
+        <f t="shared" ref="K21:K26" si="4">H21*D21*(1+I21)</f>
         <v>0</v>
       </c>
       <c r="L21" s="200"/>
@@ -4229,26 +4284,30 @@
     <row r="22" spans="1:15">
       <c r="A22" s="200"/>
       <c r="B22" s="200">
-        <f t="shared" ref="B22:B25" si="6">B21+1</f>
+        <f t="shared" ref="B22:B25" si="5">B21+1</f>
         <v>2</v>
       </c>
       <c r="C22" s="201" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="200">
+        <v>78</v>
+      </c>
+      <c r="D22" s="200">
+        <v>100</v>
+      </c>
+      <c r="E22" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="202">
         <v>80</v>
       </c>
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
       <c r="I22" s="200"/>
       <c r="J22" s="200">
-        <f t="shared" ref="J22:J31" si="7">(F22+G22)*D22</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8000</v>
       </c>
       <c r="K22" s="200">
-        <f>H22*D22*(1+I22)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22" s="200"/>
@@ -4259,24 +4318,30 @@
     <row r="23" spans="1:15">
       <c r="A23" s="200"/>
       <c r="B23" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C23" s="201" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
+        <v>79</v>
+      </c>
+      <c r="D23" s="200">
+        <v>50</v>
+      </c>
+      <c r="E23" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="202">
+        <v>40</v>
+      </c>
       <c r="G23" s="200"/>
       <c r="H23" s="200"/>
       <c r="I23" s="200"/>
       <c r="J23" s="200">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2000</v>
       </c>
       <c r="K23" s="200">
-        <f t="shared" ref="K23:K31" si="8">H23*D23*(1+I23)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L23" s="200"/>
@@ -4287,24 +4352,30 @@
     <row r="24" spans="1:15">
       <c r="A24" s="200"/>
       <c r="B24" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C24" s="201" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="200"/>
-      <c r="E24" s="200"/>
-      <c r="F24" s="200"/>
+        <v>80</v>
+      </c>
+      <c r="D24" s="200">
+        <v>50</v>
+      </c>
+      <c r="E24" s="200" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="202">
+        <v>50</v>
+      </c>
       <c r="G24" s="200"/>
       <c r="H24" s="200"/>
       <c r="I24" s="200"/>
       <c r="J24" s="200">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2500</v>
       </c>
       <c r="K24" s="200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L24" s="200"/>
@@ -4315,25 +4386,33 @@
     <row r="25" spans="1:15">
       <c r="A25" s="200"/>
       <c r="B25" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C25" s="201" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
+        <v>81</v>
+      </c>
+      <c r="D25" s="200">
+        <v>60</v>
+      </c>
+      <c r="E25" s="200" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="202">
+        <v>10</v>
+      </c>
       <c r="G25" s="200"/>
-      <c r="H25" s="200"/>
+      <c r="H25" s="200">
+        <v>60</v>
+      </c>
       <c r="I25" s="200"/>
       <c r="J25" s="200">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>600</v>
       </c>
       <c r="K25" s="200">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3600</v>
       </c>
       <c r="L25" s="200"/>
       <c r="M25" s="200"/>
@@ -4342,73 +4421,78 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="200"/>
-      <c r="B26" s="200"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
+      <c r="B26" s="200">
+        <v>6</v>
+      </c>
+      <c r="C26" s="201" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="200">
+        <v>1</v>
+      </c>
+      <c r="E26" s="200" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="202">
+        <v>200</v>
+      </c>
       <c r="G26" s="200"/>
       <c r="H26" s="200"/>
       <c r="I26" s="200"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="200"/>
+      <c r="J26" s="200">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="K26" s="200">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L26" s="200"/>
       <c r="M26" s="200"/>
       <c r="N26" s="200"/>
       <c r="O26" s="200"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="203" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="200">
-        <v>1</v>
-      </c>
-      <c r="C27" s="201" t="s">
-        <v>82</v>
-      </c>
+      <c r="A27" s="200"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="201"/>
       <c r="D27" s="200"/>
       <c r="E27" s="200"/>
-      <c r="F27" s="200">
-        <v>90</v>
-      </c>
+      <c r="F27" s="200"/>
       <c r="G27" s="200"/>
       <c r="H27" s="200"/>
       <c r="I27" s="200"/>
-      <c r="J27" s="200">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="200">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="J27" s="200"/>
+      <c r="K27" s="200"/>
       <c r="L27" s="200"/>
       <c r="M27" s="200"/>
       <c r="N27" s="200"/>
       <c r="O27" s="200"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="200"/>
+      <c r="A28" s="204" t="s">
+        <v>84</v>
+      </c>
       <c r="B28" s="200">
-        <f>B27+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="201" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="200"/>
       <c r="E28" s="200"/>
-      <c r="F28" s="200"/>
+      <c r="F28" s="202">
+        <v>90</v>
+      </c>
       <c r="G28" s="200"/>
-      <c r="H28" s="200"/>
+      <c r="H28" s="202"/>
       <c r="I28" s="200"/>
       <c r="J28" s="200">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J27:J32" si="6">(F28+G28)*D28</f>
         <v>0</v>
       </c>
       <c r="K28" s="200">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K27:K32" si="7">H28*D28*(1+I28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="200"/>
@@ -4420,23 +4504,23 @@
       <c r="A29" s="200"/>
       <c r="B29" s="200">
         <f>B28+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="201" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D29" s="200"/>
       <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
+      <c r="F29" s="202"/>
       <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
+      <c r="H29" s="202"/>
       <c r="I29" s="200"/>
       <c r="J29" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="200">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="200">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L29" s="200"/>
@@ -4448,23 +4532,23 @@
       <c r="A30" s="200"/>
       <c r="B30" s="200">
         <f>B29+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="201" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D30" s="200"/>
       <c r="E30" s="200"/>
-      <c r="F30" s="200"/>
+      <c r="F30" s="202"/>
       <c r="G30" s="200"/>
-      <c r="H30" s="200"/>
+      <c r="H30" s="202"/>
       <c r="I30" s="200"/>
       <c r="J30" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="200">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="200">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L30" s="200"/>
@@ -4476,23 +4560,23 @@
       <c r="A31" s="200"/>
       <c r="B31" s="200">
         <f>B30+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="201" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D31" s="200"/>
       <c r="E31" s="200"/>
-      <c r="F31" s="200"/>
+      <c r="F31" s="202"/>
       <c r="G31" s="200"/>
-      <c r="H31" s="200"/>
+      <c r="H31" s="202"/>
       <c r="I31" s="200"/>
       <c r="J31" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="200">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="200">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L31" s="200"/>
@@ -4502,118 +4586,134 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="200"/>
-      <c r="B32" s="200"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200"/>
-      <c r="F32" s="200"/>
+      <c r="B32" s="200">
+        <f>B31+1</f>
+        <v>5</v>
+      </c>
+      <c r="C32" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="200">
+        <v>1</v>
+      </c>
+      <c r="E32" s="200" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="202"/>
       <c r="G32" s="200"/>
-      <c r="H32" s="200"/>
+      <c r="H32" s="202">
+        <v>2400</v>
+      </c>
       <c r="I32" s="200"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="200"/>
+      <c r="J32" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="200">
+        <f t="shared" si="7"/>
+        <v>2400</v>
+      </c>
       <c r="L32" s="200"/>
       <c r="M32" s="200"/>
       <c r="N32" s="200"/>
       <c r="O32" s="200"/>
     </row>
-    <row r="33" ht="66" spans="1:15">
-      <c r="A33" s="200" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="200">
+    <row r="33" spans="1:15">
+      <c r="A33" s="200"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="200"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="200"/>
+      <c r="L33" s="200"/>
+      <c r="M33" s="200"/>
+      <c r="N33" s="200"/>
+      <c r="O33" s="200"/>
+    </row>
+    <row r="34" ht="66" spans="1:15">
+      <c r="A34" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="200">
         <v>1</v>
       </c>
-      <c r="C33" s="202" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="200">
+      <c r="C34" s="203" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="200">
         <v>100</v>
       </c>
-      <c r="E33" s="200" t="s">
+      <c r="E34" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="200">
+      <c r="F34" s="200">
         <v>90</v>
       </c>
-      <c r="G33" s="200">
-        <v>0</v>
-      </c>
-      <c r="H33" s="200">
+      <c r="G34" s="200">
+        <v>0</v>
+      </c>
+      <c r="H34" s="200">
         <v>90</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I34" s="206">
         <v>0.03</v>
       </c>
-      <c r="J33" s="200">
-        <f>(F33+G33)*D33</f>
-        <v>9000</v>
-      </c>
-      <c r="K33" s="200">
-        <f>H33*D33*(1+I33)</f>
-        <v>9270</v>
-      </c>
-      <c r="L33" s="203" t="s">
-        <v>88</v>
-      </c>
-      <c r="M33" s="203" t="s">
-        <v>89</v>
-      </c>
-      <c r="N33" s="200" t="s">
-        <v>90</v>
-      </c>
-      <c r="O33" s="200"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="204"/>
-      <c r="B34" s="200">
-        <f t="shared" ref="B34:B38" si="9">B33+1</f>
-        <v>2</v>
-      </c>
-      <c r="C34" s="202" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
       <c r="J34" s="200">
         <f>(F34+G34)*D34</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="K34" s="200">
         <f>H34*D34*(1+I34)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="200"/>
-      <c r="M34" s="200"/>
-      <c r="N34" s="200"/>
+        <v>9270</v>
+      </c>
+      <c r="L34" s="204" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34" s="204" t="s">
+        <v>93</v>
+      </c>
+      <c r="N34" s="200" t="s">
+        <v>94</v>
+      </c>
       <c r="O34" s="200"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="204"/>
+      <c r="A35" s="205"/>
       <c r="B35" s="200">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="C35" s="202" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="200"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="200"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="200"/>
+        <f t="shared" ref="B35:B39" si="8">B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="203" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="200">
+        <v>100</v>
+      </c>
+      <c r="E35" s="200" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="200">
+        <v>60</v>
+      </c>
+      <c r="G35" s="200">
+        <v>0</v>
+      </c>
+      <c r="H35" s="200">
+        <v>60</v>
+      </c>
       <c r="I35" s="200"/>
       <c r="J35" s="200">
-        <f t="shared" ref="J35:J45" si="10">(F35+G35)*D35</f>
-        <v>0</v>
+        <f>(F35+G35)*D35</f>
+        <v>6000</v>
       </c>
       <c r="K35" s="200">
-        <f t="shared" ref="K35:K45" si="11">H35*D35*(1+I35)</f>
-        <v>0</v>
+        <f>H35*D35*(1+I35)</f>
+        <v>6000</v>
       </c>
       <c r="L35" s="200"/>
       <c r="M35" s="200"/>
@@ -4621,26 +4721,26 @@
       <c r="O35" s="200"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="204"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="200">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="C36" s="202" t="s">
-        <v>92</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C36" s="203" t="s">
+        <v>95</v>
       </c>
       <c r="D36" s="200"/>
       <c r="E36" s="200"/>
-      <c r="F36" s="200"/>
+      <c r="F36" s="202"/>
       <c r="G36" s="200"/>
-      <c r="H36" s="200"/>
+      <c r="H36" s="202"/>
       <c r="I36" s="200"/>
       <c r="J36" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J36:J46" si="9">(F36+G36)*D36</f>
         <v>0</v>
       </c>
       <c r="K36" s="200">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K36:K46" si="10">H36*D36*(1+I36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="200"/>
@@ -4649,26 +4749,26 @@
       <c r="O36" s="200"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="204"/>
+      <c r="A37" s="205"/>
       <c r="B37" s="200">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="C37" s="202" t="s">
-        <v>93</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C37" s="203" t="s">
+        <v>96</v>
       </c>
       <c r="D37" s="200"/>
       <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
+      <c r="F37" s="202"/>
       <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
+      <c r="H37" s="202"/>
       <c r="I37" s="200"/>
       <c r="J37" s="200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="200">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="200">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L37" s="200"/>
@@ -4677,27 +4777,33 @@
       <c r="O37" s="200"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="204"/>
+      <c r="A38" s="205"/>
       <c r="B38" s="200">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="C38" s="202" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="200"/>
-      <c r="E38" s="200"/>
-      <c r="F38" s="200"/>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="203" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="200">
+        <v>3</v>
+      </c>
+      <c r="E38" s="200" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="202"/>
       <c r="G38" s="200"/>
-      <c r="H38" s="200"/>
+      <c r="H38" s="202">
+        <v>800</v>
+      </c>
       <c r="I38" s="200"/>
       <c r="J38" s="200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="200">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="200">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="L38" s="200"/>
       <c r="M38" s="200"/>
@@ -4705,59 +4811,65 @@
       <c r="O38" s="200"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="204"/>
-      <c r="B39" s="200"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="200"/>
-      <c r="E39" s="200"/>
-      <c r="F39" s="200"/>
+      <c r="A39" s="205"/>
+      <c r="B39" s="200">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C39" s="203" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="200">
+        <v>3</v>
+      </c>
+      <c r="E39" s="200" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="202"/>
       <c r="G39" s="200"/>
-      <c r="H39" s="200"/>
+      <c r="H39" s="202">
+        <v>800</v>
+      </c>
       <c r="I39" s="200"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="200"/>
+      <c r="J39" s="200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="200">
+        <f t="shared" si="10"/>
+        <v>2400</v>
+      </c>
       <c r="L39" s="200"/>
       <c r="M39" s="200"/>
       <c r="N39" s="200"/>
       <c r="O39" s="200"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="200" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="200">
-        <v>1</v>
-      </c>
-      <c r="C40" s="202" t="s">
-        <v>87</v>
-      </c>
+      <c r="A40" s="205"/>
+      <c r="B40" s="200"/>
+      <c r="C40" s="203"/>
       <c r="D40" s="200"/>
       <c r="E40" s="200"/>
       <c r="F40" s="200"/>
       <c r="G40" s="200"/>
       <c r="H40" s="200"/>
       <c r="I40" s="200"/>
-      <c r="J40" s="200">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="200">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J40" s="200"/>
+      <c r="K40" s="200"/>
       <c r="L40" s="200"/>
       <c r="M40" s="200"/>
       <c r="N40" s="200"/>
       <c r="O40" s="200"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="204"/>
+      <c r="A41" s="200" t="s">
+        <v>100</v>
+      </c>
       <c r="B41" s="200">
-        <f t="shared" ref="B41:B43" si="12">B40+1</f>
-        <v>2</v>
-      </c>
-      <c r="C41" s="201" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="C41" s="203" t="s">
+        <v>91</v>
       </c>
       <c r="D41" s="200"/>
       <c r="E41" s="200"/>
@@ -4766,11 +4878,11 @@
       <c r="H41" s="200"/>
       <c r="I41" s="200"/>
       <c r="J41" s="200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="200">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="200">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L41" s="200"/>
@@ -4779,25 +4891,26 @@
       <c r="O41" s="200"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="200"/>
+      <c r="A42" s="205"/>
       <c r="B42" s="200">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="C42" s="202" t="s">
-        <v>92</v>
-      </c>
+        <f t="shared" ref="B42:B44" si="11">B41+1</f>
+        <v>2</v>
+      </c>
+      <c r="C42" s="201" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="200"/>
       <c r="E42" s="200"/>
       <c r="F42" s="200"/>
       <c r="G42" s="200"/>
       <c r="H42" s="200"/>
       <c r="I42" s="200"/>
       <c r="J42" s="200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="200">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="200">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L42" s="200"/>
@@ -4808,11 +4921,11 @@
     <row r="43" spans="1:15">
       <c r="A43" s="200"/>
       <c r="B43" s="200">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="C43" s="201" t="s">
-        <v>28</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="C43" s="203" t="s">
+        <v>102</v>
       </c>
       <c r="E43" s="200"/>
       <c r="F43" s="200"/>
@@ -4820,11 +4933,11 @@
       <c r="H43" s="200"/>
       <c r="I43" s="200"/>
       <c r="J43" s="200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="200">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="200">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L43" s="200"/>
@@ -4835,24 +4948,23 @@
     <row r="44" spans="1:15">
       <c r="A44" s="200"/>
       <c r="B44" s="200">
-        <f t="shared" ref="B44:B46" si="13">B43+1</f>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="C44" s="201" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="200"/>
+        <v>28</v>
+      </c>
       <c r="E44" s="200"/>
       <c r="F44" s="200"/>
       <c r="G44" s="200"/>
       <c r="H44" s="200"/>
       <c r="I44" s="200"/>
       <c r="J44" s="200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="200">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="200">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L44" s="200"/>
@@ -4863,11 +4975,11 @@
     <row r="45" spans="1:15">
       <c r="A45" s="200"/>
       <c r="B45" s="200">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" ref="B45:B47" si="12">B44+1</f>
+        <v>5</v>
       </c>
       <c r="C45" s="201" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D45" s="200"/>
       <c r="E45" s="200"/>
@@ -4876,11 +4988,11 @@
       <c r="H45" s="200"/>
       <c r="I45" s="200"/>
       <c r="J45" s="200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="200">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="200">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L45" s="200"/>
@@ -4891,11 +5003,11 @@
     <row r="46" spans="1:15">
       <c r="A46" s="200"/>
       <c r="B46" s="200">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="C46" s="201" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D46" s="200"/>
       <c r="E46" s="200"/>
@@ -4904,11 +5016,11 @@
       <c r="H46" s="200"/>
       <c r="I46" s="200"/>
       <c r="J46" s="200">
-        <f t="shared" ref="J46:J50" si="14">(F46+G46)*D46</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K46" s="200">
-        <f t="shared" ref="K46:K50" si="15">H46*D46*(1+I46)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L46" s="200"/>
@@ -4918,58 +5030,58 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="200"/>
-      <c r="B47" s="200"/>
-      <c r="C47" s="201"/>
+      <c r="B47" s="200">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C47" s="201" t="s">
+        <v>105</v>
+      </c>
       <c r="D47" s="200"/>
       <c r="E47" s="200"/>
       <c r="F47" s="200"/>
       <c r="G47" s="200"/>
       <c r="H47" s="200"/>
       <c r="I47" s="200"/>
-      <c r="J47" s="200"/>
-      <c r="K47" s="200"/>
+      <c r="J47" s="200">
+        <f t="shared" ref="J47:J51" si="13">(F47+G47)*D47</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="200">
+        <f t="shared" ref="K47:K51" si="14">H47*D47*(1+I47)</f>
+        <v>0</v>
+      </c>
       <c r="L47" s="200"/>
       <c r="M47" s="200"/>
       <c r="N47" s="200"/>
       <c r="O47" s="200"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="200" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="200">
-        <v>1</v>
-      </c>
-      <c r="C48" s="202" t="s">
-        <v>87</v>
-      </c>
+      <c r="A48" s="200"/>
+      <c r="B48" s="200"/>
+      <c r="C48" s="201"/>
       <c r="D48" s="200"/>
       <c r="E48" s="200"/>
       <c r="F48" s="200"/>
       <c r="G48" s="200"/>
       <c r="H48" s="200"/>
       <c r="I48" s="200"/>
-      <c r="J48" s="200">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="200">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+      <c r="J48" s="200"/>
+      <c r="K48" s="200"/>
       <c r="L48" s="200"/>
       <c r="M48" s="200"/>
       <c r="N48" s="200"/>
       <c r="O48" s="200"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="200"/>
+      <c r="A49" s="200" t="s">
+        <v>106</v>
+      </c>
       <c r="B49" s="200">
-        <f t="shared" ref="B49:B52" si="16">B48+1</f>
-        <v>2</v>
-      </c>
-      <c r="C49" s="202" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+      <c r="C49" s="203" t="s">
+        <v>91</v>
       </c>
       <c r="D49" s="200"/>
       <c r="E49" s="200"/>
@@ -4978,11 +5090,11 @@
       <c r="H49" s="200"/>
       <c r="I49" s="200"/>
       <c r="J49" s="200">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="200">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="200">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L49" s="200"/>
@@ -4993,11 +5105,11 @@
     <row r="50" spans="1:15">
       <c r="A50" s="200"/>
       <c r="B50" s="200">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="C50" s="202" t="s">
-        <v>91</v>
+        <f t="shared" ref="B50:B53" si="15">B49+1</f>
+        <v>2</v>
+      </c>
+      <c r="C50" s="203" t="s">
+        <v>86</v>
       </c>
       <c r="D50" s="200"/>
       <c r="E50" s="200"/>
@@ -5006,11 +5118,11 @@
       <c r="H50" s="200"/>
       <c r="I50" s="200"/>
       <c r="J50" s="200">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="200">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="200">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L50" s="200"/>
@@ -5021,11 +5133,11 @@
     <row r="51" spans="1:15">
       <c r="A51" s="200"/>
       <c r="B51" s="200">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="C51" s="202" t="s">
-        <v>92</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="C51" s="203" t="s">
+        <v>107</v>
       </c>
       <c r="D51" s="200"/>
       <c r="E51" s="200"/>
@@ -5034,11 +5146,11 @@
       <c r="H51" s="200"/>
       <c r="I51" s="200"/>
       <c r="J51" s="200">
-        <f t="shared" ref="J51:J58" si="17">(F51+G51)*D51</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K51" s="200">
-        <f t="shared" ref="K51:K58" si="18">H51*D51*(1+I51)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L51" s="200"/>
@@ -5049,11 +5161,11 @@
     <row r="52" spans="1:15">
       <c r="A52" s="200"/>
       <c r="B52" s="200">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="C52" s="202" t="s">
-        <v>101</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="C52" s="203" t="s">
+        <v>102</v>
       </c>
       <c r="D52" s="200"/>
       <c r="E52" s="200"/>
@@ -5062,11 +5174,11 @@
       <c r="H52" s="200"/>
       <c r="I52" s="200"/>
       <c r="J52" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J52:J59" si="16">(F52+G52)*D52</f>
         <v>0</v>
       </c>
       <c r="K52" s="200">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="K52:K59" si="17">H52*D52*(1+I52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="200"/>
@@ -5076,58 +5188,58 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="200"/>
-      <c r="B53" s="200"/>
-      <c r="C53" s="201"/>
+      <c r="B53" s="200">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="C53" s="203" t="s">
+        <v>108</v>
+      </c>
       <c r="D53" s="200"/>
       <c r="E53" s="200"/>
-      <c r="F53" s="200"/>
+      <c r="F53" s="202"/>
       <c r="G53" s="200"/>
-      <c r="H53" s="200"/>
+      <c r="H53" s="202"/>
       <c r="I53" s="200"/>
-      <c r="J53" s="200"/>
-      <c r="K53" s="200"/>
+      <c r="J53" s="200">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="200">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="L53" s="200"/>
       <c r="M53" s="200"/>
       <c r="N53" s="200"/>
       <c r="O53" s="200"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="200" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="200">
-        <v>1</v>
-      </c>
-      <c r="C54" s="202" t="s">
-        <v>87</v>
-      </c>
+      <c r="A54" s="200"/>
+      <c r="B54" s="200"/>
+      <c r="C54" s="201"/>
       <c r="D54" s="200"/>
       <c r="E54" s="200"/>
       <c r="F54" s="200"/>
       <c r="G54" s="200"/>
       <c r="H54" s="200"/>
       <c r="I54" s="200"/>
-      <c r="J54" s="200">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="200">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+      <c r="J54" s="200"/>
+      <c r="K54" s="200"/>
       <c r="L54" s="200"/>
       <c r="M54" s="200"/>
       <c r="N54" s="200"/>
       <c r="O54" s="200"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="200"/>
+      <c r="A55" s="200" t="s">
+        <v>109</v>
+      </c>
       <c r="B55" s="200">
-        <f t="shared" ref="B55:B58" si="19">B54+1</f>
-        <v>2</v>
-      </c>
-      <c r="C55" s="202" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+      <c r="C55" s="203" t="s">
+        <v>91</v>
       </c>
       <c r="D55" s="200"/>
       <c r="E55" s="200"/>
@@ -5136,11 +5248,11 @@
       <c r="H55" s="200"/>
       <c r="I55" s="200"/>
       <c r="J55" s="200">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="200">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="200">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L55" s="200"/>
@@ -5151,11 +5263,11 @@
     <row r="56" spans="1:15">
       <c r="A56" s="200"/>
       <c r="B56" s="200">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="C56" s="202" t="s">
-        <v>91</v>
+        <f t="shared" ref="B56:B59" si="18">B55+1</f>
+        <v>2</v>
+      </c>
+      <c r="C56" s="203" t="s">
+        <v>86</v>
       </c>
       <c r="D56" s="200"/>
       <c r="E56" s="200"/>
@@ -5164,11 +5276,11 @@
       <c r="H56" s="200"/>
       <c r="I56" s="200"/>
       <c r="J56" s="200">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="200">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="200">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L56" s="200"/>
@@ -5179,11 +5291,11 @@
     <row r="57" spans="1:15">
       <c r="A57" s="200"/>
       <c r="B57" s="200">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="C57" s="202" t="s">
-        <v>92</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="C57" s="203" t="s">
+        <v>107</v>
       </c>
       <c r="D57" s="200"/>
       <c r="E57" s="200"/>
@@ -5192,11 +5304,11 @@
       <c r="H57" s="200"/>
       <c r="I57" s="200"/>
       <c r="J57" s="200">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="200">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="200">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L57" s="200"/>
@@ -5207,11 +5319,11 @@
     <row r="58" spans="1:15">
       <c r="A58" s="200"/>
       <c r="B58" s="200">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="C58" s="202" t="s">
-        <v>101</v>
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="C58" s="203" t="s">
+        <v>102</v>
       </c>
       <c r="D58" s="200"/>
       <c r="E58" s="200"/>
@@ -5220,11 +5332,11 @@
       <c r="H58" s="200"/>
       <c r="I58" s="200"/>
       <c r="J58" s="200">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="200">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="200">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L58" s="200"/>
@@ -5234,58 +5346,58 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="200"/>
-      <c r="B59" s="200"/>
-      <c r="C59" s="201"/>
+      <c r="B59" s="200">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="C59" s="203" t="s">
+        <v>108</v>
+      </c>
       <c r="D59" s="200"/>
       <c r="E59" s="200"/>
       <c r="F59" s="200"/>
       <c r="G59" s="200"/>
       <c r="H59" s="200"/>
       <c r="I59" s="200"/>
-      <c r="J59" s="200"/>
-      <c r="K59" s="200"/>
+      <c r="J59" s="200">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="200">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="L59" s="200"/>
       <c r="M59" s="200"/>
       <c r="N59" s="200"/>
       <c r="O59" s="200"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="200" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="200">
-        <v>1</v>
-      </c>
-      <c r="C60" s="202" t="s">
-        <v>87</v>
-      </c>
+      <c r="A60" s="200"/>
+      <c r="B60" s="200"/>
+      <c r="C60" s="201"/>
       <c r="D60" s="200"/>
       <c r="E60" s="200"/>
       <c r="F60" s="200"/>
       <c r="G60" s="200"/>
       <c r="H60" s="200"/>
       <c r="I60" s="200"/>
-      <c r="J60" s="200">
-        <f t="shared" ref="J60:J64" si="20">(F60+G60)*D60</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="200">
-        <f t="shared" ref="K60:K64" si="21">H60*D60*(1+I60)</f>
-        <v>0</v>
-      </c>
+      <c r="J60" s="200"/>
+      <c r="K60" s="200"/>
       <c r="L60" s="200"/>
       <c r="M60" s="200"/>
       <c r="N60" s="200"/>
       <c r="O60" s="200"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="200"/>
+      <c r="A61" s="200" t="s">
+        <v>110</v>
+      </c>
       <c r="B61" s="200">
-        <f t="shared" ref="B61:B64" si="22">B60+1</f>
-        <v>2</v>
-      </c>
-      <c r="C61" s="202" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+      <c r="C61" s="203" t="s">
+        <v>91</v>
       </c>
       <c r="D61" s="200"/>
       <c r="E61" s="200"/>
@@ -5294,11 +5406,11 @@
       <c r="H61" s="200"/>
       <c r="I61" s="200"/>
       <c r="J61" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="J61:J65" si="19">(F61+G61)*D61</f>
         <v>0</v>
       </c>
       <c r="K61" s="200">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="K61:K65" si="20">H61*D61*(1+I61)</f>
         <v>0</v>
       </c>
       <c r="L61" s="200"/>
@@ -5309,11 +5421,11 @@
     <row r="62" spans="1:15">
       <c r="A62" s="200"/>
       <c r="B62" s="200">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="C62" s="202" t="s">
-        <v>91</v>
+        <f t="shared" ref="B62:B65" si="21">B61+1</f>
+        <v>2</v>
+      </c>
+      <c r="C62" s="203" t="s">
+        <v>86</v>
       </c>
       <c r="D62" s="200"/>
       <c r="E62" s="200"/>
@@ -5322,11 +5434,11 @@
       <c r="H62" s="200"/>
       <c r="I62" s="200"/>
       <c r="J62" s="200">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="200">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="200">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L62" s="200"/>
@@ -5337,11 +5449,11 @@
     <row r="63" spans="1:15">
       <c r="A63" s="200"/>
       <c r="B63" s="200">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="C63" s="202" t="s">
-        <v>92</v>
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="C63" s="203" t="s">
+        <v>107</v>
       </c>
       <c r="D63" s="200"/>
       <c r="E63" s="200"/>
@@ -5350,11 +5462,11 @@
       <c r="H63" s="200"/>
       <c r="I63" s="200"/>
       <c r="J63" s="200">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="200">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="200">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L63" s="200"/>
@@ -5365,11 +5477,11 @@
     <row r="64" spans="1:15">
       <c r="A64" s="200"/>
       <c r="B64" s="200">
-        <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="C64" s="202" t="s">
-        <v>101</v>
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="C64" s="203" t="s">
+        <v>102</v>
       </c>
       <c r="D64" s="200"/>
       <c r="E64" s="200"/>
@@ -5378,11 +5490,11 @@
       <c r="H64" s="200"/>
       <c r="I64" s="200"/>
       <c r="J64" s="200">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="200">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="200">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L64" s="200"/>
@@ -5392,58 +5504,58 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="200"/>
-      <c r="B65" s="200"/>
-      <c r="C65" s="201"/>
+      <c r="B65" s="200">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="C65" s="203" t="s">
+        <v>108</v>
+      </c>
       <c r="D65" s="200"/>
       <c r="E65" s="200"/>
       <c r="F65" s="200"/>
       <c r="G65" s="200"/>
       <c r="H65" s="200"/>
       <c r="I65" s="200"/>
-      <c r="J65" s="200"/>
-      <c r="K65" s="200"/>
+      <c r="J65" s="200">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="200">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="L65" s="200"/>
       <c r="M65" s="200"/>
       <c r="N65" s="200"/>
       <c r="O65" s="200"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="200" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="200">
-        <v>1</v>
-      </c>
-      <c r="C66" s="201" t="s">
-        <v>87</v>
-      </c>
+      <c r="A66" s="200"/>
+      <c r="B66" s="200"/>
+      <c r="C66" s="201"/>
       <c r="D66" s="200"/>
       <c r="E66" s="200"/>
       <c r="F66" s="200"/>
       <c r="G66" s="200"/>
       <c r="H66" s="200"/>
       <c r="I66" s="200"/>
-      <c r="J66" s="200">
-        <f t="shared" ref="J66:J70" si="23">(F66+G66)*D66</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="200">
-        <f t="shared" ref="K66:K70" si="24">H66*D66*(1+I66)</f>
-        <v>0</v>
-      </c>
+      <c r="J66" s="200"/>
+      <c r="K66" s="200"/>
       <c r="L66" s="200"/>
       <c r="M66" s="200"/>
       <c r="N66" s="200"/>
       <c r="O66" s="200"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="200"/>
+      <c r="A67" s="200" t="s">
+        <v>111</v>
+      </c>
       <c r="B67" s="200">
-        <f t="shared" ref="B67:B72" si="25">B66+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="201" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D67" s="200"/>
       <c r="E67" s="200"/>
@@ -5452,11 +5564,11 @@
       <c r="H67" s="200"/>
       <c r="I67" s="200"/>
       <c r="J67" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="J67:J71" si="22">(F67+G67)*D67</f>
         <v>0</v>
       </c>
       <c r="K67" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="K67:K71" si="23">H67*D67*(1+I67)</f>
         <v>0</v>
       </c>
       <c r="L67" s="200"/>
@@ -5467,11 +5579,11 @@
     <row r="68" spans="1:15">
       <c r="A68" s="200"/>
       <c r="B68" s="200">
-        <f t="shared" si="25"/>
-        <v>3</v>
+        <f t="shared" ref="B68:B73" si="24">B67+1</f>
+        <v>2</v>
       </c>
       <c r="C68" s="201" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D68" s="200"/>
       <c r="E68" s="200"/>
@@ -5480,11 +5592,11 @@
       <c r="H68" s="200"/>
       <c r="I68" s="200"/>
       <c r="J68" s="200">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="200">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="200">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L68" s="200"/>
@@ -5495,24 +5607,30 @@
     <row r="69" spans="1:15">
       <c r="A69" s="200"/>
       <c r="B69" s="200">
-        <f t="shared" si="25"/>
-        <v>4</v>
+        <f t="shared" si="24"/>
+        <v>3</v>
       </c>
       <c r="C69" s="201" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="200"/>
-      <c r="E69" s="200"/>
-      <c r="F69" s="200"/>
+        <v>104</v>
+      </c>
+      <c r="D69" s="200">
+        <v>1</v>
+      </c>
+      <c r="E69" s="200" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="200">
+        <v>800</v>
+      </c>
       <c r="G69" s="200"/>
       <c r="H69" s="200"/>
       <c r="I69" s="200"/>
       <c r="J69" s="200">
+        <f t="shared" si="22"/>
+        <v>800</v>
+      </c>
+      <c r="K69" s="200">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="200">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L69" s="200"/>
@@ -5523,24 +5641,30 @@
     <row r="70" spans="1:15">
       <c r="A70" s="200"/>
       <c r="B70" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="C70" s="201" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="200">
         <v>5</v>
       </c>
-      <c r="C70" s="201" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="200"/>
-      <c r="E70" s="200"/>
-      <c r="F70" s="200"/>
+      <c r="E70" s="200" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="202">
+        <v>110</v>
+      </c>
       <c r="G70" s="200"/>
       <c r="H70" s="200"/>
       <c r="I70" s="200"/>
       <c r="J70" s="200">
+        <f t="shared" si="22"/>
+        <v>550</v>
+      </c>
+      <c r="K70" s="200">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="200">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L70" s="200"/>
@@ -5551,20 +5675,32 @@
     <row r="71" spans="1:15">
       <c r="A71" s="200"/>
       <c r="B71" s="200">
-        <f t="shared" si="25"/>
-        <v>6</v>
+        <f t="shared" si="24"/>
+        <v>5</v>
       </c>
       <c r="C71" s="201" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="200"/>
-      <c r="E71" s="200"/>
-      <c r="F71" s="200"/>
+        <v>115</v>
+      </c>
+      <c r="D71" s="200">
+        <v>3</v>
+      </c>
+      <c r="E71" s="200" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="202">
+        <v>200</v>
+      </c>
       <c r="G71" s="200"/>
       <c r="H71" s="200"/>
       <c r="I71" s="200"/>
-      <c r="J71" s="200"/>
-      <c r="K71" s="200"/>
+      <c r="J71" s="200">
+        <f t="shared" si="22"/>
+        <v>600</v>
+      </c>
+      <c r="K71" s="200">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="L71" s="200"/>
       <c r="M71" s="200"/>
       <c r="N71" s="200"/>
@@ -5573,20 +5709,32 @@
     <row r="72" spans="1:15">
       <c r="A72" s="200"/>
       <c r="B72" s="200">
-        <f t="shared" si="25"/>
-        <v>7</v>
+        <f t="shared" si="24"/>
+        <v>6</v>
       </c>
       <c r="C72" s="201" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="200"/>
-      <c r="E72" s="200"/>
-      <c r="F72" s="200"/>
+        <v>105</v>
+      </c>
+      <c r="D72" s="200">
+        <v>2</v>
+      </c>
+      <c r="E72" s="200" t="s">
+        <v>116</v>
+      </c>
+      <c r="F72" s="202">
+        <v>150</v>
+      </c>
       <c r="G72" s="200"/>
       <c r="H72" s="200"/>
       <c r="I72" s="200"/>
-      <c r="J72" s="200"/>
-      <c r="K72" s="200"/>
+      <c r="J72" s="200">
+        <f>(F72+G72)*D72</f>
+        <v>300</v>
+      </c>
+      <c r="K72" s="200">
+        <f>H72*D72*(1+I72)</f>
+        <v>0</v>
+      </c>
       <c r="L72" s="200"/>
       <c r="M72" s="200"/>
       <c r="N72" s="200"/>
@@ -5594,43 +5742,64 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="200"/>
-      <c r="B73" s="200"/>
-      <c r="C73" s="201"/>
-      <c r="D73" s="200"/>
-      <c r="E73" s="200"/>
-      <c r="F73" s="200"/>
+      <c r="B73" s="200">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="C73" s="201" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="200">
+        <v>1</v>
+      </c>
+      <c r="E73" s="200" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" s="202">
+        <v>200</v>
+      </c>
       <c r="G73" s="200"/>
       <c r="H73" s="200"/>
       <c r="I73" s="200"/>
-      <c r="J73" s="200"/>
-      <c r="K73" s="200"/>
+      <c r="J73" s="200">
+        <f>(F73+G73)*D73</f>
+        <v>200</v>
+      </c>
+      <c r="K73" s="200">
+        <f>H73*D73*(1+I73)</f>
+        <v>0</v>
+      </c>
       <c r="L73" s="200"/>
       <c r="M73" s="200"/>
       <c r="N73" s="200"/>
       <c r="O73" s="200"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="200" t="s">
-        <v>108</v>
-      </c>
+      <c r="A74" s="200"/>
       <c r="B74" s="200">
+        <v>8</v>
+      </c>
+      <c r="C74" s="201" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="200">
         <v>1</v>
       </c>
-      <c r="C74" s="201" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="200"/>
-      <c r="E74" s="200"/>
-      <c r="F74" s="200"/>
+      <c r="E74" s="200" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="202">
+        <v>30</v>
+      </c>
       <c r="G74" s="200"/>
       <c r="H74" s="200"/>
       <c r="I74" s="200"/>
       <c r="J74" s="200">
-        <f t="shared" ref="J74:J78" si="26">(F74+G74)*D74</f>
-        <v>0</v>
+        <f>(F74+G74)*D74</f>
+        <v>30</v>
       </c>
       <c r="K74" s="200">
-        <f t="shared" ref="K74:K78" si="27">H74*D74*(1+I74)</f>
+        <f>H74*D74*(1+I74)</f>
         <v>0</v>
       </c>
       <c r="L74" s="200"/>
@@ -5640,40 +5809,30 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="200"/>
-      <c r="B75" s="200">
-        <f t="shared" ref="B73:B80" si="28">B74+1</f>
-        <v>2</v>
-      </c>
-      <c r="C75" s="201" t="s">
-        <v>105</v>
-      </c>
+      <c r="B75" s="200"/>
+      <c r="C75" s="201"/>
       <c r="D75" s="200"/>
       <c r="E75" s="200"/>
       <c r="F75" s="200"/>
       <c r="G75" s="200"/>
       <c r="H75" s="200"/>
       <c r="I75" s="200"/>
-      <c r="J75" s="200">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="200">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="J75" s="200"/>
+      <c r="K75" s="200"/>
       <c r="L75" s="200"/>
       <c r="M75" s="200"/>
       <c r="N75" s="200"/>
       <c r="O75" s="200"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="200"/>
+      <c r="A76" s="200" t="s">
+        <v>121</v>
+      </c>
       <c r="B76" s="200">
-        <f t="shared" si="28"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76" s="201" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D76" s="200"/>
       <c r="E76" s="200"/>
@@ -5682,11 +5841,11 @@
       <c r="H76" s="200"/>
       <c r="I76" s="200"/>
       <c r="J76" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="J76:J80" si="25">(F76+G76)*D76</f>
         <v>0</v>
       </c>
       <c r="K76" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="K76:K80" si="26">H76*D76*(1+I76)</f>
         <v>0</v>
       </c>
       <c r="L76" s="200"/>
@@ -5697,11 +5856,11 @@
     <row r="77" spans="1:15">
       <c r="A77" s="200"/>
       <c r="B77" s="200">
-        <f t="shared" si="28"/>
-        <v>4</v>
+        <f t="shared" ref="B75:B82" si="27">B76+1</f>
+        <v>2</v>
       </c>
       <c r="C77" s="201" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D77" s="200"/>
       <c r="E77" s="200"/>
@@ -5710,11 +5869,11 @@
       <c r="H77" s="200"/>
       <c r="I77" s="200"/>
       <c r="J77" s="200">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="200">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="200">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L77" s="200"/>
@@ -5725,11 +5884,11 @@
     <row r="78" spans="1:15">
       <c r="A78" s="200"/>
       <c r="B78" s="200">
-        <f t="shared" si="28"/>
-        <v>5</v>
+        <f t="shared" si="27"/>
+        <v>3</v>
       </c>
       <c r="C78" s="201" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D78" s="200"/>
       <c r="E78" s="200"/>
@@ -5738,11 +5897,11 @@
       <c r="H78" s="200"/>
       <c r="I78" s="200"/>
       <c r="J78" s="200">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="200">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="200">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L78" s="200"/>
@@ -5753,11 +5912,11 @@
     <row r="79" spans="1:15">
       <c r="A79" s="200"/>
       <c r="B79" s="200">
-        <f t="shared" si="28"/>
-        <v>6</v>
+        <f t="shared" si="27"/>
+        <v>4</v>
       </c>
       <c r="C79" s="201" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D79" s="200"/>
       <c r="E79" s="200"/>
@@ -5766,11 +5925,11 @@
       <c r="H79" s="200"/>
       <c r="I79" s="200"/>
       <c r="J79" s="200">
-        <f t="shared" ref="J79:J88" si="29">(F79+G79)*D79</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K79" s="200">
-        <f t="shared" ref="K79:K88" si="30">H79*D79*(1+I79)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L79" s="200"/>
@@ -5781,11 +5940,11 @@
     <row r="80" spans="1:15">
       <c r="A80" s="200"/>
       <c r="B80" s="200">
-        <f t="shared" si="28"/>
-        <v>7</v>
+        <f t="shared" si="27"/>
+        <v>5</v>
       </c>
       <c r="C80" s="201" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D80" s="200"/>
       <c r="E80" s="200"/>
@@ -5794,11 +5953,11 @@
       <c r="H80" s="200"/>
       <c r="I80" s="200"/>
       <c r="J80" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K80" s="200">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L80" s="200"/>
@@ -5808,43 +5967,53 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="200"/>
-      <c r="B81" s="200"/>
-      <c r="C81" s="201"/>
+      <c r="B81" s="200">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="C81" s="201" t="s">
+        <v>105</v>
+      </c>
       <c r="D81" s="200"/>
       <c r="E81" s="200"/>
       <c r="F81" s="200"/>
       <c r="G81" s="200"/>
       <c r="H81" s="200"/>
       <c r="I81" s="200"/>
-      <c r="J81" s="200"/>
-      <c r="K81" s="200"/>
+      <c r="J81" s="200">
+        <f t="shared" ref="J81:J90" si="28">(F81+G81)*D81</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="200">
+        <f t="shared" ref="K81:K90" si="29">H81*D81*(1+I81)</f>
+        <v>0</v>
+      </c>
       <c r="L81" s="200"/>
       <c r="M81" s="200"/>
       <c r="N81" s="200"/>
       <c r="O81" s="200"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="200" t="s">
-        <v>109</v>
-      </c>
+      <c r="A82" s="200"/>
       <c r="B82" s="200">
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>7</v>
       </c>
       <c r="C82" s="201" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D82" s="200"/>
       <c r="E82" s="200"/>
-      <c r="F82" s="200"/>
+      <c r="F82" s="202"/>
       <c r="G82" s="200"/>
-      <c r="H82" s="200"/>
+      <c r="H82" s="202"/>
       <c r="I82" s="200"/>
       <c r="J82" s="200">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="200">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="200">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L82" s="200"/>
@@ -5854,40 +6023,30 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="200"/>
-      <c r="B83" s="200">
-        <f t="shared" ref="B83:B85" si="31">B82+1</f>
-        <v>2</v>
-      </c>
-      <c r="C83" s="201" t="s">
-        <v>105</v>
-      </c>
+      <c r="B83" s="200"/>
+      <c r="C83" s="201"/>
       <c r="D83" s="200"/>
       <c r="E83" s="200"/>
       <c r="F83" s="200"/>
       <c r="G83" s="200"/>
       <c r="H83" s="200"/>
       <c r="I83" s="200"/>
-      <c r="J83" s="200">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="200">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="J83" s="200"/>
+      <c r="K83" s="200"/>
       <c r="L83" s="200"/>
       <c r="M83" s="200"/>
       <c r="N83" s="200"/>
       <c r="O83" s="200"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="200"/>
+      <c r="A84" s="200" t="s">
+        <v>122</v>
+      </c>
       <c r="B84" s="200">
-        <f t="shared" si="31"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84" s="201" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D84" s="200"/>
       <c r="E84" s="200"/>
@@ -5896,11 +6055,11 @@
       <c r="H84" s="200"/>
       <c r="I84" s="200"/>
       <c r="J84" s="200">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="200">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="200">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L84" s="200"/>
@@ -5911,11 +6070,11 @@
     <row r="85" spans="1:15">
       <c r="A85" s="200"/>
       <c r="B85" s="200">
-        <f t="shared" si="31"/>
-        <v>4</v>
+        <f t="shared" ref="B85:B87" si="30">B84+1</f>
+        <v>2</v>
       </c>
       <c r="C85" s="201" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D85" s="200"/>
       <c r="E85" s="200"/>
@@ -5924,11 +6083,11 @@
       <c r="H85" s="200"/>
       <c r="I85" s="200"/>
       <c r="J85" s="200">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="200">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="200">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L85" s="200"/>
@@ -5939,10 +6098,11 @@
     <row r="86" spans="1:15">
       <c r="A86" s="200"/>
       <c r="B86" s="200">
-        <v>5</v>
+        <f t="shared" si="30"/>
+        <v>3</v>
       </c>
       <c r="C86" s="201" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D86" s="200"/>
       <c r="E86" s="200"/>
@@ -5951,11 +6111,11 @@
       <c r="H86" s="200"/>
       <c r="I86" s="200"/>
       <c r="J86" s="200">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="200">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="200">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L86" s="200"/>
@@ -5966,11 +6126,11 @@
     <row r="87" spans="1:15">
       <c r="A87" s="200"/>
       <c r="B87" s="200">
-        <f>B86+1</f>
-        <v>6</v>
+        <f t="shared" si="30"/>
+        <v>4</v>
       </c>
       <c r="C87" s="201" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D87" s="200"/>
       <c r="E87" s="200"/>
@@ -5979,11 +6139,11 @@
       <c r="H87" s="200"/>
       <c r="I87" s="200"/>
       <c r="J87" s="200">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="200">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="200">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L87" s="200"/>
@@ -5994,11 +6154,10 @@
     <row r="88" spans="1:15">
       <c r="A88" s="200"/>
       <c r="B88" s="200">
-        <f>B87+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" s="201" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D88" s="200"/>
       <c r="E88" s="200"/>
@@ -6007,11 +6166,11 @@
       <c r="H88" s="200"/>
       <c r="I88" s="200"/>
       <c r="J88" s="200">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="200">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="200">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L88" s="200"/>
@@ -6023,10 +6182,10 @@
       <c r="A89" s="200"/>
       <c r="B89" s="200">
         <f>B88+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" s="201" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D89" s="200"/>
       <c r="E89" s="200"/>
@@ -6035,11 +6194,11 @@
       <c r="H89" s="200"/>
       <c r="I89" s="200"/>
       <c r="J89" s="200">
-        <f t="shared" ref="J89:J92" si="32">(F89+G89)*D89</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K89" s="200">
-        <f t="shared" ref="K89:K92" si="33">H89*D89*(1+I89)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L89" s="200"/>
@@ -6049,49 +6208,53 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="200"/>
-      <c r="B90" s="200"/>
-      <c r="C90" s="201"/>
+      <c r="B90" s="200">
+        <f>B89+1</f>
+        <v>7</v>
+      </c>
+      <c r="C90" s="201" t="s">
+        <v>126</v>
+      </c>
       <c r="D90" s="200"/>
       <c r="E90" s="200"/>
       <c r="F90" s="200"/>
       <c r="G90" s="200"/>
       <c r="H90" s="200"/>
       <c r="I90" s="200"/>
-      <c r="J90" s="200"/>
-      <c r="K90" s="200"/>
+      <c r="J90" s="200">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="200">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="L90" s="200"/>
       <c r="M90" s="200"/>
       <c r="N90" s="200"/>
       <c r="O90" s="200"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="200" t="s">
-        <v>113</v>
-      </c>
+      <c r="A91" s="200"/>
       <c r="B91" s="200">
-        <v>1</v>
+        <f>B90+1</f>
+        <v>8</v>
       </c>
       <c r="C91" s="201" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" s="200">
-        <v>123</v>
-      </c>
-      <c r="E91" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="F91" s="200">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D91" s="200"/>
+      <c r="E91" s="200"/>
+      <c r="F91" s="200"/>
       <c r="G91" s="200"/>
       <c r="H91" s="200"/>
       <c r="I91" s="200"/>
       <c r="J91" s="200">
-        <f t="shared" si="32"/>
-        <v>9225</v>
+        <f t="shared" ref="J91:J94" si="31">(F91+G91)*D91</f>
+        <v>0</v>
       </c>
       <c r="K91" s="200">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="K91:K94" si="32">H91*D91*(1+I91)</f>
         <v>0</v>
       </c>
       <c r="L91" s="200"/>
@@ -6101,57 +6264,49 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="200"/>
-      <c r="B92" s="200">
-        <f>B91+1</f>
-        <v>2</v>
-      </c>
-      <c r="C92" s="201" t="s">
-        <v>115</v>
-      </c>
-      <c r="D92" s="200">
-        <v>1</v>
-      </c>
-      <c r="E92" s="200" t="s">
-        <v>66</v>
-      </c>
+      <c r="B92" s="200"/>
+      <c r="C92" s="201"/>
+      <c r="D92" s="200"/>
+      <c r="E92" s="200"/>
       <c r="F92" s="200"/>
       <c r="G92" s="200"/>
       <c r="H92" s="200"/>
       <c r="I92" s="200"/>
-      <c r="J92" s="200">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="200">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
+      <c r="J92" s="200"/>
+      <c r="K92" s="200"/>
       <c r="L92" s="200"/>
       <c r="M92" s="200"/>
       <c r="N92" s="200"/>
       <c r="O92" s="200"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="200"/>
+      <c r="A93" s="200" t="s">
+        <v>127</v>
+      </c>
       <c r="B93" s="200">
-        <f>B92+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" s="201" t="s">
-        <v>116</v>
-      </c>
-      <c r="D93" s="200"/>
-      <c r="E93" s="200"/>
-      <c r="F93" s="200"/>
+        <v>128</v>
+      </c>
+      <c r="D93" s="200">
+        <v>123</v>
+      </c>
+      <c r="E93" s="200" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" s="202">
+        <v>75</v>
+      </c>
       <c r="G93" s="200"/>
       <c r="H93" s="200"/>
       <c r="I93" s="200"/>
       <c r="J93" s="200">
-        <f t="shared" ref="J93:J96" si="34">(F93+G93)*D93</f>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>9225</v>
       </c>
       <c r="K93" s="200">
-        <f t="shared" ref="K93:K96" si="35">H93*D93*(1+I93)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L93" s="200"/>
@@ -6163,23 +6318,27 @@
       <c r="A94" s="200"/>
       <c r="B94" s="200">
         <f>B93+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="201" t="s">
-        <v>117</v>
-      </c>
-      <c r="D94" s="200"/>
-      <c r="E94" s="200"/>
-      <c r="F94" s="200"/>
+        <v>129</v>
+      </c>
+      <c r="D94" s="200">
+        <v>1</v>
+      </c>
+      <c r="E94" s="200" t="s">
+        <v>66</v>
+      </c>
+      <c r="F94" s="202"/>
       <c r="G94" s="200"/>
       <c r="H94" s="200"/>
       <c r="I94" s="200"/>
       <c r="J94" s="200">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K94" s="200">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L94" s="200"/>
@@ -6187,25 +6346,81 @@
       <c r="N94" s="200"/>
       <c r="O94" s="200"/>
     </row>
-    <row r="96" spans="3:11">
+    <row r="95" spans="1:15">
+      <c r="A95" s="200"/>
+      <c r="B95" s="200">
+        <f>B94+1</f>
+        <v>3</v>
+      </c>
+      <c r="C95" s="201" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="200"/>
+      <c r="E95" s="200"/>
+      <c r="F95" s="202"/>
+      <c r="G95" s="200"/>
+      <c r="H95" s="200"/>
+      <c r="I95" s="200"/>
+      <c r="J95" s="200">
+        <f t="shared" ref="J95:J98" si="33">(F95+G95)*D95</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="200">
+        <f t="shared" ref="K95:K98" si="34">H95*D95*(1+I95)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="200"/>
+      <c r="M95" s="200"/>
+      <c r="N95" s="200"/>
+      <c r="O95" s="200"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="200"/>
+      <c r="B96" s="200">
+        <f>B95+1</f>
+        <v>4</v>
+      </c>
       <c r="C96" s="201" t="s">
-        <v>118</v>
-      </c>
-      <c r="D96" s="1">
+        <v>131</v>
+      </c>
+      <c r="D96" s="200"/>
+      <c r="E96" s="200"/>
+      <c r="F96" s="202"/>
+      <c r="G96" s="200"/>
+      <c r="H96" s="200"/>
+      <c r="I96" s="200"/>
+      <c r="J96" s="200">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="200">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="200"/>
+      <c r="M96" s="200"/>
+      <c r="N96" s="200"/>
+      <c r="O96" s="200"/>
+    </row>
+    <row r="98" spans="3:11">
+      <c r="C98" s="201" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="1">
         <v>13.2</v>
       </c>
-      <c r="E96" s="200" t="s">
+      <c r="E98" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H98" s="1">
         <v>700</v>
       </c>
-      <c r="J96" s="200">
+      <c r="J98" s="200">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="200">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="200">
-        <f t="shared" si="35"/>
         <v>9240</v>
       </c>
     </row>
@@ -6224,7 +6439,7 @@
   <sheetPr/>
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22:M22"/>
     </sheetView>
   </sheetViews>
@@ -6248,7 +6463,7 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="14" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -6278,7 +6493,7 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="S2" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="17.1" customHeight="1" spans="1:19">
@@ -6296,7 +6511,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="S3" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" ht="15" customHeight="1" spans="1:19">
@@ -6314,12 +6529,12 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="S4" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="42" customHeight="1" spans="1:19">
       <c r="A5" s="20" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -6334,12 +6549,12 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="S5" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
       <c r="A6" s="23" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
@@ -6354,7 +6569,7 @@
       <c r="L6" s="69"/>
       <c r="M6" s="69"/>
       <c r="S6" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
@@ -6362,41 +6577,41 @@
         <v>45</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L7" s="72" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M7" s="73"/>
       <c r="S7" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6404,10 +6619,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D8" s="35">
         <v>1</v>
@@ -6436,7 +6651,7 @@
       <c r="L8" s="77"/>
       <c r="M8" s="78"/>
       <c r="S8" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6444,10 +6659,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -6466,7 +6681,7 @@
       <c r="L9" s="77"/>
       <c r="M9" s="78"/>
       <c r="S9" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6474,10 +6689,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D10" s="35">
         <v>20</v>
@@ -6500,7 +6715,7 @@
       <c r="L10" s="77"/>
       <c r="M10" s="78"/>
       <c r="S10" s="5" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6508,10 +6723,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -6530,7 +6745,7 @@
       <c r="L11" s="77"/>
       <c r="M11" s="78"/>
       <c r="S11" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6538,10 +6753,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
@@ -6560,7 +6775,7 @@
       <c r="L12" s="77"/>
       <c r="M12" s="78"/>
       <c r="S12" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6568,10 +6783,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="36"/>
@@ -6590,7 +6805,7 @@
       <c r="L13" s="81"/>
       <c r="M13" s="82"/>
       <c r="S13" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6598,10 +6813,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="36"/>
@@ -6620,7 +6835,7 @@
       <c r="L14" s="81"/>
       <c r="M14" s="82"/>
       <c r="S14" s="5" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6628,10 +6843,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
@@ -6651,7 +6866,7 @@
       <c r="M15" s="78"/>
       <c r="P15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6659,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>158</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>145</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
@@ -6681,7 +6896,7 @@
       <c r="L16" s="77"/>
       <c r="M16" s="78"/>
       <c r="S16" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6689,10 +6904,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D17" s="35">
         <v>9</v>
@@ -6709,17 +6924,17 @@
       <c r="J17" s="75"/>
       <c r="K17" s="76"/>
       <c r="L17" s="77" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M17" s="78"/>
       <c r="S17" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
       <c r="A18" s="43"/>
       <c r="B18" s="44" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="42"/>
@@ -6742,12 +6957,12 @@
       <c r="L18" s="85"/>
       <c r="M18" s="86"/>
       <c r="S18" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
       <c r="A19" s="23" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
@@ -6763,7 +6978,7 @@
       <c r="M19" s="87"/>
       <c r="P19" s="1"/>
       <c r="S19" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
@@ -6771,41 +6986,41 @@
         <v>45</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L20" s="72" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M20" s="73"/>
       <c r="S20" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
@@ -6813,10 +7028,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D21" s="50">
         <v>1</v>
@@ -6846,10 +7061,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D22" s="50">
         <v>1</v>
@@ -6878,10 +7093,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
@@ -6905,10 +7120,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D24" s="50">
         <v>2</v>
@@ -6929,7 +7144,7 @@
       </c>
       <c r="K24" s="90"/>
       <c r="L24" s="91" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M24" s="92"/>
     </row>
@@ -6938,10 +7153,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D25" s="52">
         <v>1</v>
@@ -6969,10 +7184,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D26" s="52">
         <v>1</v>
@@ -7000,10 +7215,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D27" s="52">
         <v>1</v>
@@ -7031,7 +7246,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C28" s="54"/>
       <c r="D28" s="52"/>
@@ -7054,7 +7269,7 @@
     <row r="29" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A29" s="55"/>
       <c r="B29" s="56" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="57"/>
@@ -7079,7 +7294,7 @@
     </row>
     <row r="30" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:17">
       <c r="A30" s="23" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -7094,7 +7309,7 @@
       <c r="L30" s="87"/>
       <c r="M30" s="87"/>
       <c r="Q30" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:18">
@@ -7102,44 +7317,44 @@
         <v>45</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J31" s="70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L31" s="72" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M31" s="73"/>
       <c r="Q31" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:18">
@@ -7147,10 +7362,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D32" s="59">
         <v>1</v>
@@ -7173,14 +7388,14 @@
       </c>
       <c r="K32" s="47"/>
       <c r="L32" s="94" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="M32" s="95"/>
       <c r="Q32" s="5" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:18">
@@ -7188,10 +7403,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D33" s="59"/>
       <c r="E33" s="51"/>
@@ -7210,10 +7425,10 @@
       <c r="L33" s="94"/>
       <c r="M33" s="95"/>
       <c r="Q33" s="5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:18">
@@ -7221,10 +7436,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D34" s="50">
         <v>2</v>
@@ -7247,10 +7462,10 @@
       <c r="L34" s="88"/>
       <c r="M34" s="89"/>
       <c r="Q34" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:17">
@@ -7258,10 +7473,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
@@ -7288,10 +7503,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D36" s="50">
         <v>2</v>
@@ -7314,7 +7529,7 @@
       </c>
       <c r="K36" s="83"/>
       <c r="L36" s="96" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="M36" s="97"/>
     </row>
@@ -7323,10 +7538,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D37" s="50">
         <v>1</v>
@@ -7354,10 +7569,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D38" s="50">
         <v>1</v>
@@ -7385,10 +7600,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="53"/>
@@ -7412,10 +7627,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D40" s="52"/>
       <c r="E40" s="53"/>
@@ -7439,10 +7654,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="53"/>
@@ -7466,10 +7681,10 @@
         <v>11</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D42" s="50">
         <v>2</v>
@@ -7497,7 +7712,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C43" s="61"/>
       <c r="D43" s="50"/>
@@ -7520,7 +7735,7 @@
     <row r="44" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A44" s="62"/>
       <c r="B44" s="56" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="57"/>
@@ -7545,7 +7760,7 @@
     </row>
     <row r="45" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A45" s="23" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -7565,37 +7780,37 @@
         <v>45</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J46" s="70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K46" s="71" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L46" s="72" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M46" s="73"/>
     </row>
@@ -7604,10 +7819,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="51"/>
@@ -7631,10 +7846,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D48" s="50">
         <v>2</v>
@@ -7662,10 +7877,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D49" s="50"/>
       <c r="E49" s="51"/>
@@ -7689,10 +7904,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D50" s="50">
         <v>1</v>
@@ -7720,10 +7935,10 @@
         <v>5</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D51" s="50">
         <v>2</v>
@@ -7751,10 +7966,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D52" s="50"/>
       <c r="E52" s="51"/>
@@ -7778,10 +7993,10 @@
         <v>7</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D53" s="50"/>
       <c r="E53" s="51"/>
@@ -7805,10 +8020,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="51"/>
@@ -7832,10 +8047,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D55" s="50">
         <v>1</v>
@@ -7866,7 +8081,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D56" s="50">
         <v>1</v>
@@ -7896,7 +8111,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C57" s="54"/>
       <c r="D57" s="52">
@@ -7918,14 +8133,14 @@
       </c>
       <c r="K57" s="83"/>
       <c r="L57" s="101" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="M57" s="102"/>
     </row>
     <row r="58" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A58" s="63"/>
       <c r="B58" s="56" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C58" s="61"/>
       <c r="D58" s="52"/>
@@ -7950,7 +8165,7 @@
     </row>
     <row r="59" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A59" s="23" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
@@ -7970,37 +8185,37 @@
         <v>45</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J60" s="70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K60" s="71" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L60" s="72" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M60" s="73"/>
     </row>
@@ -8009,10 +8224,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D61" s="50">
         <v>1</v>
@@ -8040,10 +8255,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D62" s="50">
         <v>1</v>
@@ -8071,10 +8286,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D63" s="50">
         <v>3</v>
@@ -8102,10 +8317,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D64" s="50">
         <v>1</v>
@@ -8133,10 +8348,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D65" s="50">
         <v>3</v>
@@ -8164,10 +8379,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D66" s="50"/>
       <c r="E66" s="51"/>
@@ -8191,10 +8406,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="60" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D67" s="50"/>
       <c r="E67" s="51"/>
@@ -8218,10 +8433,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D68" s="50">
         <v>30</v>
@@ -8249,7 +8464,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C69" s="48"/>
       <c r="D69" s="50"/>
@@ -8272,7 +8487,7 @@
     <row r="70" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A70" s="43"/>
       <c r="B70" s="44" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="42"/>
@@ -8294,7 +8509,7 @@
     </row>
     <row r="71" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A71" s="103" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B71" s="104"/>
       <c r="C71" s="104"/>
@@ -8314,37 +8529,37 @@
         <v>45</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H72" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I72" s="32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J72" s="70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K72" s="71" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L72" s="72" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M72" s="73"/>
     </row>
@@ -8353,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D73" s="42">
         <v>6</v>
@@ -8384,10 +8599,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D74" s="42"/>
       <c r="E74" s="36"/>
@@ -8411,10 +8626,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="36"/>
@@ -8438,10 +8653,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D76" s="42">
         <v>6</v>
@@ -8469,10 +8684,10 @@
         <v>5</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D77" s="42"/>
       <c r="E77" s="36"/>
@@ -8496,10 +8711,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D78" s="42">
         <v>1</v>
@@ -8527,10 +8742,10 @@
         <v>7</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="36"/>
@@ -8554,10 +8769,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="36"/>
@@ -8581,10 +8796,10 @@
         <v>9</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="36"/>
@@ -8608,10 +8823,10 @@
         <v>10</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D82" s="42">
         <v>4</v>
@@ -8639,7 +8854,7 @@
         <v>11</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>66</v>
@@ -8670,7 +8885,7 @@
         <v>12</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C84" s="33">
         <v>1</v>
@@ -8696,14 +8911,14 @@
       </c>
       <c r="K84" s="83"/>
       <c r="L84" s="96" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="M84" s="97"/>
     </row>
     <row r="85" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A85" s="43"/>
       <c r="B85" s="44" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="42"/>
@@ -8728,7 +8943,7 @@
     </row>
     <row r="86" s="5" customFormat="1" ht="30.95" customHeight="1" spans="1:13">
       <c r="A86" s="108" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B86" s="108"/>
       <c r="C86" s="109"/>
@@ -8750,13 +8965,13 @@
       <c r="D87" s="113"/>
       <c r="E87" s="115"/>
       <c r="F87" s="116" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G87" s="117"/>
       <c r="H87" s="117"/>
       <c r="I87" s="117"/>
       <c r="J87" s="143" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K87" s="117"/>
       <c r="L87" s="117"/>
@@ -8788,7 +9003,7 @@
     </row>
     <row r="89" s="5" customFormat="1" ht="51.95" customHeight="1" spans="1:12">
       <c r="A89" s="124" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B89" s="125"/>
       <c r="C89" s="125"/>
@@ -8807,37 +9022,37 @@
         <v>45</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H90" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J90" s="70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K90" s="71" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L90" s="149" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M90" s="149"/>
     </row>
@@ -8846,10 +9061,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D91" s="59">
         <v>1</v>
@@ -8877,10 +9092,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D92" s="59">
         <v>1</v>
@@ -8908,10 +9123,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D93" s="59">
         <v>1</v>
@@ -8939,10 +9154,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="60" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D94" s="50">
         <v>1</v>
@@ -8970,10 +9185,10 @@
         <v>5</v>
       </c>
       <c r="B95" s="60" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D95" s="50"/>
       <c r="E95" s="51"/>
@@ -8997,10 +9212,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="60" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D96" s="50"/>
       <c r="E96" s="51"/>
@@ -9024,10 +9239,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="60" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D97" s="50">
         <v>1</v>
@@ -9055,10 +9270,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D98" s="50"/>
       <c r="E98" s="51"/>
@@ -9082,10 +9297,10 @@
         <v>9</v>
       </c>
       <c r="B99" s="60" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D99" s="50">
         <v>2</v>
@@ -9113,10 +9328,10 @@
         <v>10</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D100" s="50">
         <v>1</v>
@@ -9144,10 +9359,10 @@
         <v>11</v>
       </c>
       <c r="B101" s="60" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D101" s="50"/>
       <c r="E101" s="51"/>
@@ -9171,10 +9386,10 @@
         <v>12</v>
       </c>
       <c r="B102" s="60" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D102" s="50">
         <v>2</v>
@@ -9202,10 +9417,10 @@
         <v>13</v>
       </c>
       <c r="B103" s="60" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D103" s="50">
         <v>2</v>
@@ -9233,10 +9448,10 @@
         <v>14</v>
       </c>
       <c r="B104" s="60" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D104" s="50"/>
       <c r="E104" s="51"/>
@@ -9260,10 +9475,10 @@
         <v>15</v>
       </c>
       <c r="B105" s="60" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D105" s="50">
         <v>1</v>
@@ -9291,10 +9506,10 @@
         <v>16</v>
       </c>
       <c r="B106" s="60" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D106" s="50"/>
       <c r="E106" s="51"/>
@@ -9318,10 +9533,10 @@
         <v>17</v>
       </c>
       <c r="B107" s="60" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D107" s="50">
         <v>1</v>
@@ -9349,10 +9564,10 @@
         <v>18</v>
       </c>
       <c r="B108" s="60" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D108" s="50">
         <v>1</v>
@@ -9380,10 +9595,10 @@
         <v>19</v>
       </c>
       <c r="B109" s="60" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D109" s="50">
         <v>3</v>
@@ -9411,10 +9626,10 @@
         <v>20</v>
       </c>
       <c r="B110" s="60" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110" s="51"/>
@@ -9438,7 +9653,7 @@
         <v>21</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C111" s="129"/>
       <c r="D111" s="52"/>
@@ -9461,7 +9676,7 @@
     <row r="112" s="5" customFormat="1" ht="27.95" customHeight="1" spans="1:13">
       <c r="A112" s="62"/>
       <c r="B112" s="130" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="55"/>
@@ -9486,7 +9701,7 @@
     </row>
     <row r="113" s="5" customFormat="1" ht="51.95" customHeight="1" spans="1:13">
       <c r="A113" s="133" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B113" s="133"/>
       <c r="C113" s="133"/>
@@ -9503,7 +9718,7 @@
     </row>
     <row r="114" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A114" s="103" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B114" s="104"/>
       <c r="C114" s="104"/>
@@ -9523,37 +9738,37 @@
         <v>45</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C115" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H115" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I115" s="32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J115" s="70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K115" s="71" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L115" s="149" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M115" s="149"/>
     </row>
@@ -9562,10 +9777,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C116" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D116" s="59">
         <v>1</v>
@@ -9595,10 +9810,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D117" s="59"/>
       <c r="E117" s="51"/>
@@ -9622,10 +9837,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C118" s="43" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D118" s="59"/>
       <c r="E118" s="51"/>
@@ -9649,10 +9864,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D119" s="59">
         <v>1</v>
@@ -9680,10 +9895,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D120" s="59"/>
       <c r="E120" s="51"/>
@@ -9707,10 +9922,10 @@
         <v>6</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D121" s="59"/>
       <c r="E121" s="51"/>
@@ -9734,10 +9949,10 @@
         <v>7</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C122" s="43" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D122" s="59"/>
       <c r="E122" s="51"/>
@@ -9761,10 +9976,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D123" s="59"/>
       <c r="E123" s="51"/>
@@ -9788,10 +10003,10 @@
         <v>9</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D124" s="59">
         <v>1</v>
@@ -9819,10 +10034,10 @@
         <v>10</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D125" s="59"/>
       <c r="E125" s="51"/>
@@ -9846,10 +10061,10 @@
         <v>11</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D126" s="59"/>
       <c r="E126" s="51"/>
@@ -9873,10 +10088,10 @@
         <v>12</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D127" s="59">
         <v>1</v>
@@ -9904,10 +10119,10 @@
         <v>13</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D128" s="59"/>
       <c r="E128" s="51"/>
@@ -9931,10 +10146,10 @@
         <v>14</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D129" s="59"/>
       <c r="E129" s="51"/>
@@ -9958,7 +10173,7 @@
         <v>15</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C130" s="43"/>
       <c r="D130" s="59"/>
@@ -9981,7 +10196,7 @@
     <row r="131" s="5" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A131" s="137"/>
       <c r="B131" s="158" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C131" s="43"/>
       <c r="D131" s="59"/>
@@ -10006,7 +10221,7 @@
     </row>
     <row r="132" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A132" s="160" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B132" s="161"/>
       <c r="C132" s="161"/>
@@ -10026,37 +10241,37 @@
         <v>45</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C133" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E133" s="30" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G133" s="32" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H133" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I133" s="32" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="J133" s="70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K133" s="71" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L133" s="149" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M133" s="149"/>
     </row>
@@ -10065,10 +10280,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="163" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C134" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D134" s="165">
         <v>2</v>
@@ -10096,10 +10311,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="163" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C135" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D135" s="165">
         <v>1</v>
@@ -10127,10 +10342,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="163" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C136" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D136" s="165">
         <v>1</v>
@@ -10158,10 +10373,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="163" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C137" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D137" s="165">
         <v>2</v>
@@ -10184,7 +10399,7 @@
       </c>
       <c r="K137" s="183"/>
       <c r="L137" s="183" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M137" s="183"/>
     </row>
@@ -10193,10 +10408,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="163" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C138" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D138" s="165"/>
       <c r="E138" s="166"/>
@@ -10220,10 +10435,10 @@
         <v>6</v>
       </c>
       <c r="B139" s="163" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C139" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D139" s="165">
         <v>1</v>
@@ -10251,10 +10466,10 @@
         <v>7</v>
       </c>
       <c r="B140" s="163" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C140" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D140" s="165"/>
       <c r="E140" s="166"/>
@@ -10278,10 +10493,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="163" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C141" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D141" s="165"/>
       <c r="E141" s="166"/>
@@ -10305,10 +10520,10 @@
         <v>9</v>
       </c>
       <c r="B142" s="163" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C142" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D142" s="165">
         <v>1</v>
@@ -10336,10 +10551,10 @@
         <v>10</v>
       </c>
       <c r="B143" s="163" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C143" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D143" s="165"/>
       <c r="E143" s="166"/>
@@ -10363,10 +10578,10 @@
         <v>11</v>
       </c>
       <c r="B144" s="163" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C144" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D144" s="165"/>
       <c r="E144" s="166"/>
@@ -10390,10 +10605,10 @@
         <v>12</v>
       </c>
       <c r="B145" s="163" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C145" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D145" s="165">
         <v>1</v>
@@ -10421,10 +10636,10 @@
         <v>13</v>
       </c>
       <c r="B146" s="163" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C146" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D146" s="165"/>
       <c r="E146" s="166"/>
@@ -10448,10 +10663,10 @@
         <v>14</v>
       </c>
       <c r="B147" s="163" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C147" s="164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D147" s="165"/>
       <c r="E147" s="166"/>
@@ -10475,7 +10690,7 @@
         <v>15</v>
       </c>
       <c r="B148" s="163" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C148" s="164"/>
       <c r="D148" s="165"/>
@@ -10498,7 +10713,7 @@
     <row r="149" s="5" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A149" s="137"/>
       <c r="B149" s="158" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C149" s="43"/>
       <c r="D149" s="59"/>
@@ -10523,7 +10738,7 @@
     </row>
     <row r="150" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A150" s="160" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B150" s="161"/>
       <c r="C150" s="161"/>
@@ -10543,37 +10758,37 @@
         <v>45</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C151" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E151" s="30" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I151" s="32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J151" s="70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K151" s="71" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L151" s="72" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M151" s="73"/>
     </row>
@@ -10582,10 +10797,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="60" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C152" s="168" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D152" s="50"/>
       <c r="E152" s="51"/>
@@ -10609,10 +10824,10 @@
         <v>2</v>
       </c>
       <c r="B153" s="170" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C153" s="168" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D153" s="171"/>
       <c r="E153" s="172"/>
@@ -10636,10 +10851,10 @@
         <v>3</v>
       </c>
       <c r="B154" s="163" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C154" s="168" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D154" s="165">
         <v>1</v>
@@ -10667,10 +10882,10 @@
         <v>4</v>
       </c>
       <c r="B155" s="163" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C155" s="168" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D155" s="165">
         <v>1</v>
@@ -10698,10 +10913,10 @@
         <v>5</v>
       </c>
       <c r="B156" s="163" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C156" s="168" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D156" s="165"/>
       <c r="E156" s="166"/>
@@ -10725,10 +10940,10 @@
         <v>6</v>
       </c>
       <c r="B157" s="163" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C157" s="168" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D157" s="165"/>
       <c r="E157" s="166"/>
@@ -10750,7 +10965,7 @@
     <row r="158" s="5" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A158" s="137"/>
       <c r="B158" s="158" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C158" s="43"/>
       <c r="D158" s="59"/>
@@ -10773,7 +10988,7 @@
     <row r="159" s="5" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A159" s="55"/>
       <c r="B159" s="174" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C159" s="55"/>
       <c r="D159" s="55"/>
@@ -10798,7 +11013,7 @@
     </row>
     <row r="160" s="5" customFormat="1" ht="37" customHeight="1" spans="1:13">
       <c r="A160" s="175" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B160" s="176"/>
       <c r="C160" s="177"/>
@@ -10991,8 +11206,8 @@
   <sheetPr/>
   <dimension ref="C4:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -11008,26 +11223,26 @@
   <sheetData>
     <row r="4" spans="4:6">
       <c r="D4" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E4" s="1">
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="1" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E7" s="2">
         <v>80</v>
@@ -11035,7 +11250,7 @@
     </row>
     <row r="8" spans="4:5">
       <c r="D8" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E8" s="2">
         <v>100</v>
@@ -11043,10 +11258,10 @@
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E11" s="2">
         <v>500</v>
@@ -11054,15 +11269,15 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="E13" s="2">
         <v>800</v>
@@ -11073,7 +11288,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F14" s="1">
         <v>10000</v>
@@ -11081,7 +11296,7 @@
     </row>
     <row r="16" ht="33" spans="3:6">
       <c r="C16" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -11096,7 +11311,7 @@
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="4" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="E17" s="2">
         <v>200</v>
@@ -11108,18 +11323,18 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E20" s="2">
         <v>2000</v>
@@ -11127,18 +11342,18 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E23" s="2">
         <v>80</v>
@@ -11146,7 +11361,7 @@
     </row>
     <row r="24" spans="4:5">
       <c r="D24" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="E24" s="2">
         <v>200</v>
@@ -11154,21 +11369,21 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="1" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E28" s="2">
         <v>50</v>
@@ -11176,7 +11391,7 @@
     </row>
     <row r="29" spans="4:5">
       <c r="D29" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E29" s="2">
         <v>150</v>
@@ -11184,10 +11399,10 @@
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E31" s="2">
         <v>150</v>
@@ -11199,26 +11414,26 @@
     </row>
     <row r="32" spans="4:5">
       <c r="D32" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E36" s="1">
         <v>1000</v>
@@ -11226,10 +11441,10 @@
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="E37" s="1">
         <v>800</v>
@@ -11237,10 +11452,10 @@
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="E38" s="1">
         <v>700</v>
@@ -11248,10 +11463,10 @@
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E39" s="1">
         <v>500</v>
@@ -11263,15 +11478,15 @@
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E42" s="2">
         <v>100</v>
@@ -11279,7 +11494,7 @@
     </row>
     <row r="43" spans="4:5">
       <c r="D43" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E43" s="2">
         <v>100</v>
@@ -11287,18 +11502,18 @@
     </row>
     <row r="44" spans="4:5">
       <c r="D44" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="E46" s="2">
         <v>300</v>
@@ -11310,7 +11525,7 @@
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="1" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E47" s="2">
         <v>700</v>
@@ -11318,10 +11533,10 @@
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E49" s="2">
         <v>300</v>
@@ -11333,10 +11548,10 @@
     </row>
     <row r="50" spans="3:5">
       <c r="C50" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="E50" s="2">
         <v>600</v>
@@ -11344,13 +11559,13 @@
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F52" s="1">
         <v>2500</v>
@@ -11358,13 +11573,13 @@
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="1" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F54" s="1">
         <v>15000</v>
@@ -11378,10 +11593,10 @@
     </row>
     <row r="58" spans="3:6">
       <c r="C58" s="1" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E58" s="2">
         <v>300</v>
@@ -11393,7 +11608,7 @@
     </row>
     <row r="59" spans="4:5">
       <c r="D59" s="1" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="E59" s="2">
         <v>500</v>
@@ -11401,10 +11616,10 @@
     </row>
     <row r="60" spans="4:5">
       <c r="D60" s="1" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/装修.xlsx
+++ b/装修.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="12060" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="2" r:id="rId1"/>
     <sheet name="报价单" sheetId="1" r:id="rId2"/>
     <sheet name="主材" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="价格参考" sheetId="5" r:id="rId4"/>
+    <sheet name="收纳" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="460">
   <si>
     <t>核心需求</t>
   </si>
@@ -1220,6 +1221,270 @@
   </si>
   <si>
     <t>无上限</t>
+  </si>
+  <si>
+    <t>监控？</t>
+  </si>
+  <si>
+    <t>季节性？</t>
+  </si>
+  <si>
+    <t>储物间</t>
+  </si>
+  <si>
+    <t>货架</t>
+  </si>
+  <si>
+    <t>雨伞(雨伞架)</t>
+  </si>
+  <si>
+    <t>礼品袋</t>
+  </si>
+  <si>
+    <t>工具箱</t>
+  </si>
+  <si>
+    <t>日用品囤货</t>
+  </si>
+  <si>
+    <t>踢脚线取暖器</t>
+  </si>
+  <si>
+    <t>胶带</t>
+  </si>
+  <si>
+    <t>玄关</t>
+  </si>
+  <si>
+    <t>鞋柜开放</t>
+  </si>
+  <si>
+    <t>小包湿巾</t>
+  </si>
+  <si>
+    <t>小包纸巾</t>
+  </si>
+  <si>
+    <t>钥匙</t>
+  </si>
+  <si>
+    <t>手提包</t>
+  </si>
+  <si>
+    <t>防蚊</t>
+  </si>
+  <si>
+    <t>快递剪刀</t>
+  </si>
+  <si>
+    <t>鞋柜抽屉</t>
+  </si>
+  <si>
+    <t>口罩</t>
+  </si>
+  <si>
+    <t>购物袋</t>
+  </si>
+  <si>
+    <t>鞋柜底部</t>
+  </si>
+  <si>
+    <t>当季鞋*4</t>
+  </si>
+  <si>
+    <t>凉拖鞋*2</t>
+  </si>
+  <si>
+    <t>棉拖鞋(冬)*3</t>
+  </si>
+  <si>
+    <t>鞋柜内部</t>
+  </si>
+  <si>
+    <t>换季鞋*20</t>
+  </si>
+  <si>
+    <t>客拖鞋*3</t>
+  </si>
+  <si>
+    <t>客厅</t>
+  </si>
+  <si>
+    <t>书柜开放区</t>
+  </si>
+  <si>
+    <t>书</t>
+  </si>
+  <si>
+    <t>路由器</t>
+  </si>
+  <si>
+    <t>灭蚊灯</t>
+  </si>
+  <si>
+    <t>书柜抽屉</t>
+  </si>
+  <si>
+    <t>零食</t>
+  </si>
+  <si>
+    <t>药品</t>
+  </si>
+  <si>
+    <t>手电筒</t>
+  </si>
+  <si>
+    <t>移动硬盘</t>
+  </si>
+  <si>
+    <t>书柜内部</t>
+  </si>
+  <si>
+    <t>相册</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>桌游</t>
+  </si>
+  <si>
+    <t>书桌</t>
+  </si>
+  <si>
+    <t>笔记本</t>
+  </si>
+  <si>
+    <t>显示器</t>
+  </si>
+  <si>
+    <t>键盘&amp;鼠标</t>
+  </si>
+  <si>
+    <t>儿童玩具</t>
+  </si>
+  <si>
+    <t>电视柜台面</t>
+  </si>
+  <si>
+    <t>游戏机</t>
+  </si>
+  <si>
+    <t>餐厅</t>
+  </si>
+  <si>
+    <t>餐桌</t>
+  </si>
+  <si>
+    <t>少量水果</t>
+  </si>
+  <si>
+    <t>纸巾</t>
+  </si>
+  <si>
+    <t>湿巾</t>
+  </si>
+  <si>
+    <t>电热水壶</t>
+  </si>
+  <si>
+    <t>牙签</t>
+  </si>
+  <si>
+    <t>餐边柜(台面)</t>
+  </si>
+  <si>
+    <t>米桶</t>
+  </si>
+  <si>
+    <t>电饭煲</t>
+  </si>
+  <si>
+    <t>直饮机</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>地柜</t>
+  </si>
+  <si>
+    <t>塑料袋</t>
+  </si>
+  <si>
+    <t>台面</t>
+  </si>
+  <si>
+    <t>洗衣机柜</t>
+  </si>
+  <si>
+    <t>洗衣液</t>
+  </si>
+  <si>
+    <t>扫把</t>
+  </si>
+  <si>
+    <t>可叠放凳子</t>
+  </si>
+  <si>
+    <t>盆</t>
+  </si>
+  <si>
+    <t>蹲卫</t>
+  </si>
+  <si>
+    <t>镜柜</t>
+  </si>
+  <si>
+    <t>拖把</t>
+  </si>
+  <si>
+    <t>洗手池台面</t>
+  </si>
+  <si>
+    <t>牙刷</t>
+  </si>
+  <si>
+    <t>漱口杯</t>
+  </si>
+  <si>
+    <t>脏衣篮</t>
+  </si>
+  <si>
+    <t>置物架</t>
+  </si>
+  <si>
+    <t>洗发水</t>
+  </si>
+  <si>
+    <t>沐浴露</t>
+  </si>
+  <si>
+    <t>坐卫</t>
+  </si>
+  <si>
+    <t>壁龛台面</t>
+  </si>
+  <si>
+    <t>化妆桌</t>
+  </si>
+  <si>
+    <t>被子</t>
+  </si>
+  <si>
+    <t>床单</t>
+  </si>
+  <si>
+    <t>挂衣架</t>
+  </si>
+  <si>
+    <t>露营用品</t>
+  </si>
+  <si>
+    <t>行李箱*2</t>
+  </si>
+  <si>
+    <t>风扇</t>
   </si>
 </sst>
 </file>
@@ -3623,7 +3888,7 @@
   <sheetPr/>
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4029,11 +4294,11 @@
       <c r="H13" s="200"/>
       <c r="I13" s="200"/>
       <c r="J13" s="200">
-        <f>(F13+G13)*D13</f>
+        <f t="shared" ref="J13:J19" si="3">(F13+G13)*D13</f>
         <v>500</v>
       </c>
       <c r="K13" s="200">
-        <f>H13*D13*(1+I13)</f>
+        <f t="shared" ref="K13:K19" si="4">H13*D13*(1+I13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="200"/>
@@ -4044,7 +4309,7 @@
     <row r="14" spans="1:15">
       <c r="A14" s="200"/>
       <c r="B14" s="200">
-        <f>B13+1</f>
+        <f t="shared" ref="B14:B19" si="5">B13+1</f>
         <v>2</v>
       </c>
       <c r="C14" s="201" t="s">
@@ -4063,11 +4328,11 @@
       <c r="H14" s="200"/>
       <c r="I14" s="200"/>
       <c r="J14" s="200">
-        <f>(F14+G14)*D14</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K14" s="200">
-        <f>H14*D14*(1+I14)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L14" s="200"/>
@@ -4078,7 +4343,7 @@
     <row r="15" spans="1:15">
       <c r="A15" s="200"/>
       <c r="B15" s="200">
-        <f>B14+1</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C15" s="201" t="s">
@@ -4097,11 +4362,11 @@
       <c r="H15" s="200"/>
       <c r="I15" s="200"/>
       <c r="J15" s="200">
-        <f>(F15+G15)*D15</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K15" s="200">
-        <f>H15*D15*(1+I15)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L15" s="200"/>
@@ -4112,7 +4377,7 @@
     <row r="16" spans="1:15">
       <c r="A16" s="200"/>
       <c r="B16" s="200">
-        <f>B15+1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C16" s="201" t="s">
@@ -4131,11 +4396,11 @@
       <c r="H16" s="200"/>
       <c r="I16" s="200"/>
       <c r="J16" s="200">
-        <f>(F16+G16)*D16</f>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="K16" s="200">
-        <f>H16*D16*(1+I16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16" s="200"/>
@@ -4146,7 +4411,7 @@
     <row r="17" spans="1:15">
       <c r="A17" s="200"/>
       <c r="B17" s="200">
-        <f>B16+1</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C17" s="203" t="s">
@@ -4165,11 +4430,11 @@
       <c r="H17" s="200"/>
       <c r="I17" s="200"/>
       <c r="J17" s="200">
-        <f>(F17+G17)*D17</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="200">
-        <f>H17*D17*(1+I17)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17" s="200"/>
@@ -4180,7 +4445,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="200"/>
       <c r="B18" s="200">
-        <f>B17+1</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C18" s="203"/>
@@ -4191,11 +4456,11 @@
       <c r="H18" s="200"/>
       <c r="I18" s="200"/>
       <c r="J18" s="200">
-        <f>(F18+G18)*D18</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K18" s="200">
-        <f>H18*D18*(1+I18)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L18" s="200"/>
@@ -4206,7 +4471,7 @@
     <row r="19" spans="1:15">
       <c r="A19" s="200"/>
       <c r="B19" s="200">
-        <f>B18+1</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C19" s="203"/>
@@ -4217,11 +4482,11 @@
       <c r="H19" s="200"/>
       <c r="I19" s="200"/>
       <c r="J19" s="200">
-        <f>(F19+G19)*D19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="200">
-        <f>H19*D19*(1+I19)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L19" s="200"/>
@@ -4269,11 +4534,11 @@
       <c r="H21" s="200"/>
       <c r="I21" s="200"/>
       <c r="J21" s="200">
-        <f t="shared" ref="J21:J26" si="3">(F21+G21)*D21</f>
+        <f t="shared" ref="J21:J26" si="6">(F21+G21)*D21</f>
         <v>1200</v>
       </c>
       <c r="K21" s="200">
-        <f t="shared" ref="K21:K26" si="4">H21*D21*(1+I21)</f>
+        <f t="shared" ref="K21:K26" si="7">H21*D21*(1+I21)</f>
         <v>0</v>
       </c>
       <c r="L21" s="200"/>
@@ -4284,7 +4549,7 @@
     <row r="22" spans="1:15">
       <c r="A22" s="200"/>
       <c r="B22" s="200">
-        <f t="shared" ref="B22:B25" si="5">B21+1</f>
+        <f t="shared" ref="B22:B25" si="8">B21+1</f>
         <v>2</v>
       </c>
       <c r="C22" s="201" t="s">
@@ -4303,11 +4568,11 @@
       <c r="H22" s="200"/>
       <c r="I22" s="200"/>
       <c r="J22" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8000</v>
       </c>
       <c r="K22" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L22" s="200"/>
@@ -4318,7 +4583,7 @@
     <row r="23" spans="1:15">
       <c r="A23" s="200"/>
       <c r="B23" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C23" s="201" t="s">
@@ -4337,11 +4602,11 @@
       <c r="H23" s="200"/>
       <c r="I23" s="200"/>
       <c r="J23" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="K23" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L23" s="200"/>
@@ -4352,7 +4617,7 @@
     <row r="24" spans="1:15">
       <c r="A24" s="200"/>
       <c r="B24" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C24" s="201" t="s">
@@ -4371,11 +4636,11 @@
       <c r="H24" s="200"/>
       <c r="I24" s="200"/>
       <c r="J24" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="K24" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L24" s="200"/>
@@ -4386,7 +4651,7 @@
     <row r="25" spans="1:15">
       <c r="A25" s="200"/>
       <c r="B25" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C25" s="201" t="s">
@@ -4407,11 +4672,11 @@
       </c>
       <c r="I25" s="200"/>
       <c r="J25" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="K25" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3600</v>
       </c>
       <c r="L25" s="200"/>
@@ -4440,11 +4705,11 @@
       <c r="H26" s="200"/>
       <c r="I26" s="200"/>
       <c r="J26" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="K26" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L26" s="200"/>
@@ -4488,11 +4753,11 @@
       <c r="H28" s="202"/>
       <c r="I28" s="200"/>
       <c r="J28" s="200">
-        <f t="shared" ref="J27:J32" si="6">(F28+G28)*D28</f>
+        <f t="shared" ref="J27:J32" si="9">(F28+G28)*D28</f>
         <v>0</v>
       </c>
       <c r="K28" s="200">
-        <f t="shared" ref="K27:K32" si="7">H28*D28*(1+I28)</f>
+        <f t="shared" ref="K27:K32" si="10">H28*D28*(1+I28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="200"/>
@@ -4516,11 +4781,11 @@
       <c r="H29" s="202"/>
       <c r="I29" s="200"/>
       <c r="J29" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K29" s="200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L29" s="200"/>
@@ -4544,11 +4809,11 @@
       <c r="H30" s="202"/>
       <c r="I30" s="200"/>
       <c r="J30" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K30" s="200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L30" s="200"/>
@@ -4572,11 +4837,11 @@
       <c r="H31" s="202"/>
       <c r="I31" s="200"/>
       <c r="J31" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K31" s="200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L31" s="200"/>
@@ -4606,11 +4871,11 @@
       </c>
       <c r="I32" s="200"/>
       <c r="J32" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K32" s="200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2400</v>
       </c>
       <c r="L32" s="200"/>
@@ -4685,7 +4950,7 @@
     <row r="35" spans="1:15">
       <c r="A35" s="205"/>
       <c r="B35" s="200">
-        <f t="shared" ref="B35:B39" si="8">B34+1</f>
+        <f t="shared" ref="B35:B39" si="11">B34+1</f>
         <v>2</v>
       </c>
       <c r="C35" s="203" t="s">
@@ -4723,7 +4988,7 @@
     <row r="36" spans="1:15">
       <c r="A36" s="205"/>
       <c r="B36" s="200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C36" s="203" t="s">
@@ -4736,11 +5001,11 @@
       <c r="H36" s="202"/>
       <c r="I36" s="200"/>
       <c r="J36" s="200">
-        <f t="shared" ref="J36:J46" si="9">(F36+G36)*D36</f>
+        <f t="shared" ref="J36:J46" si="12">(F36+G36)*D36</f>
         <v>0</v>
       </c>
       <c r="K36" s="200">
-        <f t="shared" ref="K36:K46" si="10">H36*D36*(1+I36)</f>
+        <f t="shared" ref="K36:K46" si="13">H36*D36*(1+I36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="200"/>
@@ -4751,7 +5016,7 @@
     <row r="37" spans="1:15">
       <c r="A37" s="205"/>
       <c r="B37" s="200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C37" s="203" t="s">
@@ -4764,11 +5029,11 @@
       <c r="H37" s="202"/>
       <c r="I37" s="200"/>
       <c r="J37" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K37" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L37" s="200"/>
@@ -4779,7 +5044,7 @@
     <row r="38" spans="1:15">
       <c r="A38" s="205"/>
       <c r="B38" s="200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C38" s="203" t="s">
@@ -4798,11 +5063,11 @@
       </c>
       <c r="I38" s="200"/>
       <c r="J38" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K38" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2400</v>
       </c>
       <c r="L38" s="200"/>
@@ -4813,7 +5078,7 @@
     <row r="39" spans="1:15">
       <c r="A39" s="205"/>
       <c r="B39" s="200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C39" s="203" t="s">
@@ -4832,11 +5097,11 @@
       </c>
       <c r="I39" s="200"/>
       <c r="J39" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K39" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2400</v>
       </c>
       <c r="L39" s="200"/>
@@ -4878,11 +5143,11 @@
       <c r="H41" s="200"/>
       <c r="I41" s="200"/>
       <c r="J41" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K41" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L41" s="200"/>
@@ -4893,7 +5158,7 @@
     <row r="42" spans="1:15">
       <c r="A42" s="205"/>
       <c r="B42" s="200">
-        <f t="shared" ref="B42:B44" si="11">B41+1</f>
+        <f t="shared" ref="B42:B44" si="14">B41+1</f>
         <v>2</v>
       </c>
       <c r="C42" s="201" t="s">
@@ -4906,11 +5171,11 @@
       <c r="H42" s="200"/>
       <c r="I42" s="200"/>
       <c r="J42" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K42" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L42" s="200"/>
@@ -4921,7 +5186,7 @@
     <row r="43" spans="1:15">
       <c r="A43" s="200"/>
       <c r="B43" s="200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="C43" s="203" t="s">
@@ -4933,11 +5198,11 @@
       <c r="H43" s="200"/>
       <c r="I43" s="200"/>
       <c r="J43" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K43" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L43" s="200"/>
@@ -4948,7 +5213,7 @@
     <row r="44" spans="1:15">
       <c r="A44" s="200"/>
       <c r="B44" s="200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="C44" s="201" t="s">
@@ -4960,11 +5225,11 @@
       <c r="H44" s="200"/>
       <c r="I44" s="200"/>
       <c r="J44" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K44" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L44" s="200"/>
@@ -4975,7 +5240,7 @@
     <row r="45" spans="1:15">
       <c r="A45" s="200"/>
       <c r="B45" s="200">
-        <f t="shared" ref="B45:B47" si="12">B44+1</f>
+        <f t="shared" ref="B45:B47" si="15">B44+1</f>
         <v>5</v>
       </c>
       <c r="C45" s="201" t="s">
@@ -4988,11 +5253,11 @@
       <c r="H45" s="200"/>
       <c r="I45" s="200"/>
       <c r="J45" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K45" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L45" s="200"/>
@@ -5003,7 +5268,7 @@
     <row r="46" spans="1:15">
       <c r="A46" s="200"/>
       <c r="B46" s="200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C46" s="201" t="s">
@@ -5016,11 +5281,11 @@
       <c r="H46" s="200"/>
       <c r="I46" s="200"/>
       <c r="J46" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K46" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L46" s="200"/>
@@ -5031,7 +5296,7 @@
     <row r="47" spans="1:15">
       <c r="A47" s="200"/>
       <c r="B47" s="200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="C47" s="201" t="s">
@@ -5044,11 +5309,11 @@
       <c r="H47" s="200"/>
       <c r="I47" s="200"/>
       <c r="J47" s="200">
-        <f t="shared" ref="J47:J51" si="13">(F47+G47)*D47</f>
+        <f t="shared" ref="J47:J51" si="16">(F47+G47)*D47</f>
         <v>0</v>
       </c>
       <c r="K47" s="200">
-        <f t="shared" ref="K47:K51" si="14">H47*D47*(1+I47)</f>
+        <f t="shared" ref="K47:K51" si="17">H47*D47*(1+I47)</f>
         <v>0</v>
       </c>
       <c r="L47" s="200"/>
@@ -5090,11 +5355,11 @@
       <c r="H49" s="200"/>
       <c r="I49" s="200"/>
       <c r="J49" s="200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K49" s="200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L49" s="200"/>
@@ -5105,7 +5370,7 @@
     <row r="50" spans="1:15">
       <c r="A50" s="200"/>
       <c r="B50" s="200">
-        <f t="shared" ref="B50:B53" si="15">B49+1</f>
+        <f t="shared" ref="B50:B53" si="18">B49+1</f>
         <v>2</v>
       </c>
       <c r="C50" s="203" t="s">
@@ -5118,11 +5383,11 @@
       <c r="H50" s="200"/>
       <c r="I50" s="200"/>
       <c r="J50" s="200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K50" s="200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L50" s="200"/>
@@ -5133,7 +5398,7 @@
     <row r="51" spans="1:15">
       <c r="A51" s="200"/>
       <c r="B51" s="200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="C51" s="203" t="s">
@@ -5146,11 +5411,11 @@
       <c r="H51" s="200"/>
       <c r="I51" s="200"/>
       <c r="J51" s="200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K51" s="200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L51" s="200"/>
@@ -5161,7 +5426,7 @@
     <row r="52" spans="1:15">
       <c r="A52" s="200"/>
       <c r="B52" s="200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C52" s="203" t="s">
@@ -5174,11 +5439,11 @@
       <c r="H52" s="200"/>
       <c r="I52" s="200"/>
       <c r="J52" s="200">
-        <f t="shared" ref="J52:J59" si="16">(F52+G52)*D52</f>
+        <f t="shared" ref="J52:J59" si="19">(F52+G52)*D52</f>
         <v>0</v>
       </c>
       <c r="K52" s="200">
-        <f t="shared" ref="K52:K59" si="17">H52*D52*(1+I52)</f>
+        <f t="shared" ref="K52:K59" si="20">H52*D52*(1+I52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="200"/>
@@ -5189,7 +5454,7 @@
     <row r="53" spans="1:15">
       <c r="A53" s="200"/>
       <c r="B53" s="200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C53" s="203" t="s">
@@ -5202,11 +5467,11 @@
       <c r="H53" s="202"/>
       <c r="I53" s="200"/>
       <c r="J53" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K53" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L53" s="200"/>
@@ -5248,11 +5513,11 @@
       <c r="H55" s="200"/>
       <c r="I55" s="200"/>
       <c r="J55" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K55" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L55" s="200"/>
@@ -5263,7 +5528,7 @@
     <row r="56" spans="1:15">
       <c r="A56" s="200"/>
       <c r="B56" s="200">
-        <f t="shared" ref="B56:B59" si="18">B55+1</f>
+        <f t="shared" ref="B56:B59" si="21">B55+1</f>
         <v>2</v>
       </c>
       <c r="C56" s="203" t="s">
@@ -5276,11 +5541,11 @@
       <c r="H56" s="200"/>
       <c r="I56" s="200"/>
       <c r="J56" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K56" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L56" s="200"/>
@@ -5291,7 +5556,7 @@
     <row r="57" spans="1:15">
       <c r="A57" s="200"/>
       <c r="B57" s="200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="C57" s="203" t="s">
@@ -5304,11 +5569,11 @@
       <c r="H57" s="200"/>
       <c r="I57" s="200"/>
       <c r="J57" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K57" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L57" s="200"/>
@@ -5319,7 +5584,7 @@
     <row r="58" spans="1:15">
       <c r="A58" s="200"/>
       <c r="B58" s="200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C58" s="203" t="s">
@@ -5332,11 +5597,11 @@
       <c r="H58" s="200"/>
       <c r="I58" s="200"/>
       <c r="J58" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K58" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L58" s="200"/>
@@ -5347,7 +5612,7 @@
     <row r="59" spans="1:15">
       <c r="A59" s="200"/>
       <c r="B59" s="200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="C59" s="203" t="s">
@@ -5360,11 +5625,11 @@
       <c r="H59" s="200"/>
       <c r="I59" s="200"/>
       <c r="J59" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K59" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L59" s="200"/>
@@ -5406,11 +5671,11 @@
       <c r="H61" s="200"/>
       <c r="I61" s="200"/>
       <c r="J61" s="200">
-        <f t="shared" ref="J61:J65" si="19">(F61+G61)*D61</f>
+        <f t="shared" ref="J61:J65" si="22">(F61+G61)*D61</f>
         <v>0</v>
       </c>
       <c r="K61" s="200">
-        <f t="shared" ref="K61:K65" si="20">H61*D61*(1+I61)</f>
+        <f t="shared" ref="K61:K65" si="23">H61*D61*(1+I61)</f>
         <v>0</v>
       </c>
       <c r="L61" s="200"/>
@@ -5421,7 +5686,7 @@
     <row r="62" spans="1:15">
       <c r="A62" s="200"/>
       <c r="B62" s="200">
-        <f t="shared" ref="B62:B65" si="21">B61+1</f>
+        <f t="shared" ref="B62:B65" si="24">B61+1</f>
         <v>2</v>
       </c>
       <c r="C62" s="203" t="s">
@@ -5434,11 +5699,11 @@
       <c r="H62" s="200"/>
       <c r="I62" s="200"/>
       <c r="J62" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K62" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L62" s="200"/>
@@ -5449,7 +5714,7 @@
     <row r="63" spans="1:15">
       <c r="A63" s="200"/>
       <c r="B63" s="200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="C63" s="203" t="s">
@@ -5462,11 +5727,11 @@
       <c r="H63" s="200"/>
       <c r="I63" s="200"/>
       <c r="J63" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K63" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L63" s="200"/>
@@ -5477,7 +5742,7 @@
     <row r="64" spans="1:15">
       <c r="A64" s="200"/>
       <c r="B64" s="200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="C64" s="203" t="s">
@@ -5490,11 +5755,11 @@
       <c r="H64" s="200"/>
       <c r="I64" s="200"/>
       <c r="J64" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K64" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L64" s="200"/>
@@ -5505,7 +5770,7 @@
     <row r="65" spans="1:15">
       <c r="A65" s="200"/>
       <c r="B65" s="200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="C65" s="203" t="s">
@@ -5518,11 +5783,11 @@
       <c r="H65" s="200"/>
       <c r="I65" s="200"/>
       <c r="J65" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K65" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L65" s="200"/>
@@ -5564,11 +5829,11 @@
       <c r="H67" s="200"/>
       <c r="I67" s="200"/>
       <c r="J67" s="200">
-        <f t="shared" ref="J67:J71" si="22">(F67+G67)*D67</f>
+        <f t="shared" ref="J67:J74" si="25">(F67+G67)*D67</f>
         <v>0</v>
       </c>
       <c r="K67" s="200">
-        <f t="shared" ref="K67:K71" si="23">H67*D67*(1+I67)</f>
+        <f t="shared" ref="K67:K74" si="26">H67*D67*(1+I67)</f>
         <v>0</v>
       </c>
       <c r="L67" s="200"/>
@@ -5579,7 +5844,7 @@
     <row r="68" spans="1:15">
       <c r="A68" s="200"/>
       <c r="B68" s="200">
-        <f t="shared" ref="B68:B73" si="24">B67+1</f>
+        <f t="shared" ref="B68:B73" si="27">B67+1</f>
         <v>2</v>
       </c>
       <c r="C68" s="201" t="s">
@@ -5592,11 +5857,11 @@
       <c r="H68" s="200"/>
       <c r="I68" s="200"/>
       <c r="J68" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K68" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L68" s="200"/>
@@ -5607,7 +5872,7 @@
     <row r="69" spans="1:15">
       <c r="A69" s="200"/>
       <c r="B69" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="C69" s="201" t="s">
@@ -5626,11 +5891,11 @@
       <c r="H69" s="200"/>
       <c r="I69" s="200"/>
       <c r="J69" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>800</v>
       </c>
       <c r="K69" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L69" s="200"/>
@@ -5641,7 +5906,7 @@
     <row r="70" spans="1:15">
       <c r="A70" s="200"/>
       <c r="B70" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="C70" s="201" t="s">
@@ -5660,11 +5925,11 @@
       <c r="H70" s="200"/>
       <c r="I70" s="200"/>
       <c r="J70" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>550</v>
       </c>
       <c r="K70" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L70" s="200"/>
@@ -5675,7 +5940,7 @@
     <row r="71" spans="1:15">
       <c r="A71" s="200"/>
       <c r="B71" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="C71" s="201" t="s">
@@ -5694,11 +5959,11 @@
       <c r="H71" s="200"/>
       <c r="I71" s="200"/>
       <c r="J71" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>600</v>
       </c>
       <c r="K71" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L71" s="200"/>
@@ -5709,7 +5974,7 @@
     <row r="72" spans="1:15">
       <c r="A72" s="200"/>
       <c r="B72" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="C72" s="201" t="s">
@@ -5728,11 +5993,11 @@
       <c r="H72" s="200"/>
       <c r="I72" s="200"/>
       <c r="J72" s="200">
-        <f>(F72+G72)*D72</f>
+        <f t="shared" si="25"/>
         <v>300</v>
       </c>
       <c r="K72" s="200">
-        <f>H72*D72*(1+I72)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L72" s="200"/>
@@ -5743,7 +6008,7 @@
     <row r="73" spans="1:15">
       <c r="A73" s="200"/>
       <c r="B73" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="C73" s="201" t="s">
@@ -5762,11 +6027,11 @@
       <c r="H73" s="200"/>
       <c r="I73" s="200"/>
       <c r="J73" s="200">
-        <f>(F73+G73)*D73</f>
+        <f t="shared" si="25"/>
         <v>200</v>
       </c>
       <c r="K73" s="200">
-        <f>H73*D73*(1+I73)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L73" s="200"/>
@@ -5795,11 +6060,11 @@
       <c r="H74" s="200"/>
       <c r="I74" s="200"/>
       <c r="J74" s="200">
-        <f>(F74+G74)*D74</f>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="K74" s="200">
-        <f>H74*D74*(1+I74)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L74" s="200"/>
@@ -5841,11 +6106,11 @@
       <c r="H76" s="200"/>
       <c r="I76" s="200"/>
       <c r="J76" s="200">
-        <f t="shared" ref="J76:J80" si="25">(F76+G76)*D76</f>
+        <f t="shared" ref="J76:J80" si="28">(F76+G76)*D76</f>
         <v>0</v>
       </c>
       <c r="K76" s="200">
-        <f t="shared" ref="K76:K80" si="26">H76*D76*(1+I76)</f>
+        <f t="shared" ref="K76:K80" si="29">H76*D76*(1+I76)</f>
         <v>0</v>
       </c>
       <c r="L76" s="200"/>
@@ -5856,7 +6121,7 @@
     <row r="77" spans="1:15">
       <c r="A77" s="200"/>
       <c r="B77" s="200">
-        <f t="shared" ref="B75:B82" si="27">B76+1</f>
+        <f t="shared" ref="B75:B82" si="30">B76+1</f>
         <v>2</v>
       </c>
       <c r="C77" s="201" t="s">
@@ -5869,11 +6134,11 @@
       <c r="H77" s="200"/>
       <c r="I77" s="200"/>
       <c r="J77" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K77" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L77" s="200"/>
@@ -5884,7 +6149,7 @@
     <row r="78" spans="1:15">
       <c r="A78" s="200"/>
       <c r="B78" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="C78" s="201" t="s">
@@ -5897,11 +6162,11 @@
       <c r="H78" s="200"/>
       <c r="I78" s="200"/>
       <c r="J78" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K78" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L78" s="200"/>
@@ -5912,7 +6177,7 @@
     <row r="79" spans="1:15">
       <c r="A79" s="200"/>
       <c r="B79" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="C79" s="201" t="s">
@@ -5925,11 +6190,11 @@
       <c r="H79" s="200"/>
       <c r="I79" s="200"/>
       <c r="J79" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K79" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L79" s="200"/>
@@ -5940,7 +6205,7 @@
     <row r="80" spans="1:15">
       <c r="A80" s="200"/>
       <c r="B80" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="C80" s="201" t="s">
@@ -5953,11 +6218,11 @@
       <c r="H80" s="200"/>
       <c r="I80" s="200"/>
       <c r="J80" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K80" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L80" s="200"/>
@@ -5968,7 +6233,7 @@
     <row r="81" spans="1:15">
       <c r="A81" s="200"/>
       <c r="B81" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="C81" s="201" t="s">
@@ -5981,11 +6246,11 @@
       <c r="H81" s="200"/>
       <c r="I81" s="200"/>
       <c r="J81" s="200">
-        <f t="shared" ref="J81:J90" si="28">(F81+G81)*D81</f>
+        <f t="shared" ref="J81:J90" si="31">(F81+G81)*D81</f>
         <v>0</v>
       </c>
       <c r="K81" s="200">
-        <f t="shared" ref="K81:K90" si="29">H81*D81*(1+I81)</f>
+        <f t="shared" ref="K81:K90" si="32">H81*D81*(1+I81)</f>
         <v>0</v>
       </c>
       <c r="L81" s="200"/>
@@ -5996,7 +6261,7 @@
     <row r="82" spans="1:15">
       <c r="A82" s="200"/>
       <c r="B82" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="C82" s="201" t="s">
@@ -6009,11 +6274,11 @@
       <c r="H82" s="202"/>
       <c r="I82" s="200"/>
       <c r="J82" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K82" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L82" s="200"/>
@@ -6055,11 +6320,11 @@
       <c r="H84" s="200"/>
       <c r="I84" s="200"/>
       <c r="J84" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K84" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L84" s="200"/>
@@ -6070,7 +6335,7 @@
     <row r="85" spans="1:15">
       <c r="A85" s="200"/>
       <c r="B85" s="200">
-        <f t="shared" ref="B85:B87" si="30">B84+1</f>
+        <f t="shared" ref="B85:B87" si="33">B84+1</f>
         <v>2</v>
       </c>
       <c r="C85" s="201" t="s">
@@ -6083,11 +6348,11 @@
       <c r="H85" s="200"/>
       <c r="I85" s="200"/>
       <c r="J85" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K85" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L85" s="200"/>
@@ -6098,7 +6363,7 @@
     <row r="86" spans="1:15">
       <c r="A86" s="200"/>
       <c r="B86" s="200">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="C86" s="201" t="s">
@@ -6111,11 +6376,11 @@
       <c r="H86" s="200"/>
       <c r="I86" s="200"/>
       <c r="J86" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K86" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L86" s="200"/>
@@ -6126,7 +6391,7 @@
     <row r="87" spans="1:15">
       <c r="A87" s="200"/>
       <c r="B87" s="200">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="C87" s="201" t="s">
@@ -6139,11 +6404,11 @@
       <c r="H87" s="200"/>
       <c r="I87" s="200"/>
       <c r="J87" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K87" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L87" s="200"/>
@@ -6166,11 +6431,11 @@
       <c r="H88" s="200"/>
       <c r="I88" s="200"/>
       <c r="J88" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K88" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L88" s="200"/>
@@ -6194,11 +6459,11 @@
       <c r="H89" s="200"/>
       <c r="I89" s="200"/>
       <c r="J89" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K89" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L89" s="200"/>
@@ -6222,11 +6487,11 @@
       <c r="H90" s="200"/>
       <c r="I90" s="200"/>
       <c r="J90" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K90" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L90" s="200"/>
@@ -6250,11 +6515,11 @@
       <c r="H91" s="200"/>
       <c r="I91" s="200"/>
       <c r="J91" s="200">
-        <f t="shared" ref="J91:J94" si="31">(F91+G91)*D91</f>
+        <f t="shared" ref="J91:J94" si="34">(F91+G91)*D91</f>
         <v>0</v>
       </c>
       <c r="K91" s="200">
-        <f t="shared" ref="K91:K94" si="32">H91*D91*(1+I91)</f>
+        <f t="shared" ref="K91:K94" si="35">H91*D91*(1+I91)</f>
         <v>0</v>
       </c>
       <c r="L91" s="200"/>
@@ -6302,11 +6567,11 @@
       <c r="H93" s="200"/>
       <c r="I93" s="200"/>
       <c r="J93" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>9225</v>
       </c>
       <c r="K93" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L93" s="200"/>
@@ -6334,11 +6599,11 @@
       <c r="H94" s="200"/>
       <c r="I94" s="200"/>
       <c r="J94" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K94" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L94" s="200"/>
@@ -6362,11 +6627,11 @@
       <c r="H95" s="200"/>
       <c r="I95" s="200"/>
       <c r="J95" s="200">
-        <f t="shared" ref="J95:J98" si="33">(F95+G95)*D95</f>
+        <f t="shared" ref="J95:J98" si="36">(F95+G95)*D95</f>
         <v>0</v>
       </c>
       <c r="K95" s="200">
-        <f t="shared" ref="K95:K98" si="34">H95*D95*(1+I95)</f>
+        <f t="shared" ref="K95:K98" si="37">H95*D95*(1+I95)</f>
         <v>0</v>
       </c>
       <c r="L95" s="200"/>
@@ -6390,11 +6655,11 @@
       <c r="H96" s="200"/>
       <c r="I96" s="200"/>
       <c r="J96" s="200">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K96" s="200">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L96" s="200"/>
@@ -6416,11 +6681,11 @@
         <v>700</v>
       </c>
       <c r="J98" s="200">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K98" s="200">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>9240</v>
       </c>
     </row>
@@ -11206,8 +11471,8 @@
   <sheetPr/>
   <dimension ref="C4:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -11627,4 +11892,450 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="11:12">
+      <c r="K1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H4" t="s">
+        <v>380</v>
+      </c>
+      <c r="I4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" t="s">
+        <v>386</v>
+      </c>
+      <c r="G6" t="s">
+        <v>387</v>
+      </c>
+      <c r="I6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E14" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" t="s">
+        <v>423</v>
+      </c>
+      <c r="E18" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E20" t="s">
+        <v>430</v>
+      </c>
+      <c r="F20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" t="s">
+        <v>433</v>
+      </c>
+      <c r="E24" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>436</v>
+      </c>
+      <c r="D27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" t="s">
+        <v>438</v>
+      </c>
+      <c r="F28" t="s">
+        <v>439</v>
+      </c>
+      <c r="G28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C30" t="s">
+        <v>442</v>
+      </c>
+      <c r="D30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" t="s">
+        <v>444</v>
+      </c>
+      <c r="D31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E31" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>447</v>
+      </c>
+      <c r="D32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" t="s">
+        <v>448</v>
+      </c>
+      <c r="D33" t="s">
+        <v>449</v>
+      </c>
+      <c r="E33" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>451</v>
+      </c>
+      <c r="C36" t="s">
+        <v>442</v>
+      </c>
+      <c r="D36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" t="s">
+        <v>454</v>
+      </c>
+      <c r="E45" t="s">
+        <v>455</v>
+      </c>
+      <c r="F45" t="s">
+        <v>456</v>
+      </c>
+      <c r="G45" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" t="s">
+        <v>414</v>
+      </c>
+      <c r="D46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" t="s">
+        <v>458</v>
+      </c>
+      <c r="F48" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/装修.xlsx
+++ b/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="25605" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,20 @@
     <sheet name="价格参考" sheetId="5" r:id="rId4"/>
     <sheet name="收纳" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="466">
   <si>
     <t>核心需求</t>
   </si>
@@ -247,10 +260,25 @@
     <t>拆改</t>
   </si>
   <si>
+    <t>拆除120</t>
+  </si>
+  <si>
     <t>平方米</t>
   </si>
   <si>
-    <t>砌墙</t>
+    <t>拆除240</t>
+  </si>
+  <si>
+    <t>砌墙120</t>
+  </si>
+  <si>
+    <t>砌墙240</t>
+  </si>
+  <si>
+    <t>拆飘窗</t>
+  </si>
+  <si>
+    <t>处</t>
   </si>
   <si>
     <t>挂网</t>
@@ -262,22 +290,28 @@
     <t>地固(绿地)</t>
   </si>
   <si>
+    <t>项</t>
+  </si>
+  <si>
     <t>垃圾清运费</t>
   </si>
   <si>
-    <t>项</t>
-  </si>
-  <si>
     <t>地面找平</t>
   </si>
   <si>
     <t>铲墙皮/保温层</t>
   </si>
   <si>
+    <t>顶面铲除</t>
+  </si>
+  <si>
     <t>全屋</t>
   </si>
   <si>
     <t>材料搬运费</t>
+  </si>
+  <si>
+    <t>材料运输费</t>
   </si>
   <si>
     <t>地面保护</t>
@@ -371,6 +405,9 @@
     <t>餐边柜</t>
   </si>
   <si>
+    <t>窗帘盒</t>
+  </si>
+  <si>
     <t>阳台</t>
   </si>
   <si>
@@ -425,13 +462,7 @@
     <t>洁具/柜安装</t>
   </si>
   <si>
-    <t>处</t>
-  </si>
-  <si>
     <t>门槛石</t>
-  </si>
-  <si>
-    <t>条</t>
   </si>
   <si>
     <t>洗手间(马桶)</t>
@@ -1490,7 +1521,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="10">
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -3886,14 +3917,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3973,23 +4004,23 @@
         <v>1</v>
       </c>
       <c r="C3" s="200" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D3" s="200">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="E3" s="200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="202">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G3" s="200"/>
       <c r="H3" s="200"/>
       <c r="I3" s="206"/>
       <c r="J3" s="200">
-        <f>(F3+G3)*D3</f>
-        <v>500</v>
+        <f t="shared" ref="J3:J7" si="0">(F3+G3)*D3</f>
+        <v>617.5</v>
       </c>
       <c r="K3" s="200">
         <f>H3*D3*(1+I3)</f>
@@ -4002,33 +4033,27 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="200"/>
-      <c r="B4" s="200">
-        <f t="shared" ref="B4:B9" si="0">B3+1</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="201" t="s">
+      <c r="B4" s="200"/>
+      <c r="C4" s="200" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="200">
+        <v>6.1</v>
+      </c>
+      <c r="E4" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="200">
-        <v>30</v>
-      </c>
-      <c r="E4" s="200" t="s">
-        <v>60</v>
-      </c>
       <c r="F4" s="202">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G4" s="200"/>
       <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
+      <c r="I4" s="206"/>
       <c r="J4" s="200">
-        <f>(F4+G4)*D4</f>
-        <v>6000</v>
-      </c>
-      <c r="K4" s="200">
-        <f>H4*D4*(1+I4)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>488</v>
+      </c>
+      <c r="K4" s="200"/>
       <c r="L4" s="200"/>
       <c r="M4" s="200"/>
       <c r="N4" s="200"/>
@@ -4037,30 +4062,30 @@
     <row r="5" spans="1:15">
       <c r="A5" s="200"/>
       <c r="B5" s="200">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>B3+1</f>
+        <v>2</v>
       </c>
       <c r="C5" s="201" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="200">
-        <v>10</v>
+        <v>30.9</v>
       </c>
       <c r="E5" s="200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" s="202">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="G5" s="200"/>
       <c r="H5" s="200"/>
       <c r="I5" s="200"/>
       <c r="J5" s="200">
-        <f t="shared" ref="J5:J10" si="1">(F5+G5)*D5</f>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>5716.5</v>
       </c>
       <c r="K5" s="200">
-        <f t="shared" ref="K5:K10" si="2">H5*D5*(1+I5)</f>
+        <f>H5*D5*(1+I5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="200"/>
@@ -4070,33 +4095,27 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="200"/>
-      <c r="B6" s="200">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="B6" s="200"/>
       <c r="C6" s="201" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="200">
-        <v>30</v>
+        <v>8.5</v>
       </c>
       <c r="E6" s="200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" s="202">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="G6" s="200"/>
       <c r="H6" s="200"/>
       <c r="I6" s="200"/>
       <c r="J6" s="200">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="K6" s="200">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1785</v>
+      </c>
+      <c r="K6" s="200"/>
       <c r="L6" s="200"/>
       <c r="M6" s="200"/>
       <c r="N6" s="200"/>
@@ -4104,33 +4123,27 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="200"/>
-      <c r="B7" s="200">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="B7" s="200"/>
       <c r="C7" s="201" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="200">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E7" s="200" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F7" s="202">
-        <v>5</v>
+        <v>800</v>
       </c>
       <c r="G7" s="200"/>
       <c r="H7" s="200"/>
       <c r="I7" s="200"/>
       <c r="J7" s="200">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="K7" s="200">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="K7" s="200"/>
       <c r="L7" s="200"/>
       <c r="M7" s="200"/>
       <c r="N7" s="200"/>
@@ -4139,30 +4152,30 @@
     <row r="8" spans="1:15">
       <c r="A8" s="200"/>
       <c r="B8" s="200">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>B5+1</f>
+        <v>3</v>
       </c>
       <c r="C8" s="201" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" s="200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="200" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F8" s="202">
-        <v>500</v>
+        <v>99999</v>
       </c>
       <c r="G8" s="200"/>
       <c r="H8" s="200"/>
       <c r="I8" s="200"/>
       <c r="J8" s="200">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <f t="shared" ref="J8:J14" si="1">(F8+G8)*D8</f>
+        <v>0</v>
       </c>
       <c r="K8" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K8:K14" si="2">H8*D8*(1+I8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="200"/>
@@ -4173,27 +4186,27 @@
     <row r="9" spans="1:15">
       <c r="A9" s="200"/>
       <c r="B9" s="200">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="203" t="s">
-        <v>67</v>
+        <f>B8+1</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="201" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="200">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9" s="200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="202">
-        <v>40</v>
+        <v>99999</v>
       </c>
       <c r="G9" s="200"/>
       <c r="H9" s="200"/>
       <c r="I9" s="200"/>
       <c r="J9" s="200">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K9" s="200">
         <f t="shared" si="2"/>
@@ -4207,26 +4220,27 @@
     <row r="10" spans="1:15">
       <c r="A10" s="200"/>
       <c r="B10" s="200">
-        <v>8</v>
-      </c>
-      <c r="C10" s="203" t="s">
-        <v>68</v>
+        <f>B9+1</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="201" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="200">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E10" s="200" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F10" s="202">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="G10" s="200"/>
       <c r="H10" s="200"/>
       <c r="I10" s="200"/>
       <c r="J10" s="200">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="K10" s="200">
         <f t="shared" si="2"/>
@@ -4239,16 +4253,33 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="200"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
+      <c r="B11" s="200">
+        <f>B10+1</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="201" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="200">
+        <v>1</v>
+      </c>
+      <c r="E11" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="202">
+        <v>800</v>
+      </c>
       <c r="G11" s="200"/>
       <c r="H11" s="200"/>
       <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="200"/>
+      <c r="J11" s="200">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="K11" s="200">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L11" s="200"/>
       <c r="M11" s="200"/>
       <c r="N11" s="200"/>
@@ -4256,49 +4287,64 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="200"/>
-      <c r="B12" s="200"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="200"/>
+      <c r="B12" s="200">
+        <f>B11+1</f>
+        <v>7</v>
+      </c>
+      <c r="C12" s="203" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="200">
+        <v>0</v>
+      </c>
+      <c r="E12" s="200" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="202">
+        <v>99999</v>
+      </c>
       <c r="G12" s="200"/>
       <c r="H12" s="200"/>
       <c r="I12" s="200"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="200"/>
+      <c r="J12" s="200">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="200">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L12" s="200"/>
       <c r="M12" s="200"/>
       <c r="N12" s="200"/>
       <c r="O12" s="200"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="200" t="s">
-        <v>69</v>
-      </c>
+      <c r="A13" s="200"/>
       <c r="B13" s="200">
-        <v>1</v>
-      </c>
-      <c r="C13" s="201" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="203" t="s">
+        <v>73</v>
       </c>
       <c r="D13" s="200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="200" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F13" s="202">
-        <v>500</v>
+        <v>99999</v>
       </c>
       <c r="G13" s="200"/>
       <c r="H13" s="200"/>
       <c r="I13" s="200"/>
       <c r="J13" s="200">
-        <f t="shared" ref="J13:J19" si="3">(F13+G13)*D13</f>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K13" s="200">
-        <f t="shared" ref="K13:K19" si="4">H13*D13*(1+I13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="200"/>
@@ -4309,30 +4355,29 @@
     <row r="14" spans="1:15">
       <c r="A14" s="200"/>
       <c r="B14" s="200">
-        <f t="shared" ref="B14:B19" si="5">B13+1</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="201" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="203" t="s">
+        <v>74</v>
       </c>
       <c r="D14" s="200">
-        <v>10</v>
+        <v>85.7</v>
       </c>
       <c r="E14" s="200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="202">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14" s="200"/>
       <c r="H14" s="200"/>
       <c r="I14" s="200"/>
       <c r="J14" s="200">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>428.5</v>
       </c>
       <c r="K14" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="200"/>
@@ -4342,65 +4387,49 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="200"/>
-      <c r="B15" s="200">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="C15" s="201" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="200">
-        <v>20</v>
-      </c>
-      <c r="E15" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="202">
-        <v>10</v>
-      </c>
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
       <c r="G15" s="200"/>
       <c r="H15" s="200"/>
       <c r="I15" s="200"/>
-      <c r="J15" s="200">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="K15" s="200">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
       <c r="L15" s="200"/>
       <c r="M15" s="200"/>
       <c r="N15" s="200"/>
       <c r="O15" s="200"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="200"/>
+      <c r="A16" s="200" t="s">
+        <v>75</v>
+      </c>
       <c r="B16" s="200">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="201" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D16" s="200">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E16" s="200" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F16" s="202">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G16" s="200"/>
       <c r="H16" s="200"/>
       <c r="I16" s="200"/>
       <c r="J16" s="200">
-        <f t="shared" si="3"/>
-        <v>1000</v>
+        <f>(F16+G16)*D16</f>
+        <v>800</v>
       </c>
       <c r="K16" s="200">
-        <f t="shared" si="4"/>
+        <f>H16*D16*(1+I16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="200"/>
@@ -4410,31 +4439,28 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="200"/>
-      <c r="B17" s="200">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C17" s="203" t="s">
-        <v>74</v>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201" t="s">
+        <v>77</v>
       </c>
       <c r="D17" s="200">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E17" s="200" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F17" s="202">
-        <v>2</v>
+        <v>800</v>
       </c>
       <c r="G17" s="200"/>
       <c r="H17" s="200"/>
       <c r="I17" s="200"/>
       <c r="J17" s="200">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f>(F17+G17)*D17</f>
+        <v>800</v>
       </c>
       <c r="K17" s="200">
-        <f t="shared" si="4"/>
+        <f>H17*D17*(1+I17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="200"/>
@@ -4445,22 +4471,30 @@
     <row r="18" spans="1:15">
       <c r="A18" s="200"/>
       <c r="B18" s="200">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C18" s="203"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
+        <f>B16+1</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="201" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="200">
+        <v>0</v>
+      </c>
+      <c r="E18" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="202">
+        <v>0</v>
+      </c>
       <c r="G18" s="200"/>
       <c r="H18" s="200"/>
       <c r="I18" s="200"/>
       <c r="J18" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J18:J23" si="3">(F18+G18)*D18</f>
         <v>0</v>
       </c>
       <c r="K18" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K18:K23" si="4">H18*D18*(1+I18)</f>
         <v>0</v>
       </c>
       <c r="L18" s="200"/>
@@ -4471,19 +4505,27 @@
     <row r="19" spans="1:15">
       <c r="A19" s="200"/>
       <c r="B19" s="200">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C19" s="203"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
+        <f>B18+1</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="201" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="200">
+        <v>1</v>
+      </c>
+      <c r="E19" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="202">
+        <v>800</v>
+      </c>
       <c r="G19" s="200"/>
       <c r="H19" s="200"/>
       <c r="I19" s="200"/>
       <c r="J19" s="200">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K19" s="200">
         <f t="shared" si="4"/>
@@ -4496,49 +4538,65 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="200"/>
-      <c r="B20" s="200"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
+      <c r="B20" s="200">
+        <f>B19+1</f>
+        <v>4</v>
+      </c>
+      <c r="C20" s="201" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="200">
+        <v>1</v>
+      </c>
+      <c r="E20" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="202">
+        <v>700</v>
+      </c>
       <c r="G20" s="200"/>
       <c r="H20" s="200"/>
       <c r="I20" s="200"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="200"/>
+      <c r="J20" s="200">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="K20" s="200">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L20" s="200"/>
       <c r="M20" s="200"/>
       <c r="N20" s="200"/>
       <c r="O20" s="200"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="200" t="s">
-        <v>76</v>
-      </c>
+      <c r="A21" s="200"/>
       <c r="B21" s="200">
-        <v>1</v>
-      </c>
-      <c r="C21" s="201" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="1">
-        <v>80</v>
+        <f>B20+1</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="203" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="200">
+        <v>30</v>
       </c>
       <c r="E21" s="200" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F21" s="202">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G21" s="200"/>
       <c r="H21" s="200"/>
       <c r="I21" s="200"/>
       <c r="J21" s="200">
-        <f t="shared" ref="J21:J26" si="6">(F21+G21)*D21</f>
-        <v>1200</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="K21" s="200">
-        <f t="shared" ref="K21:K26" si="7">H21*D21*(1+I21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L21" s="200"/>
@@ -4549,30 +4607,22 @@
     <row r="22" spans="1:15">
       <c r="A22" s="200"/>
       <c r="B22" s="200">
-        <f t="shared" ref="B22:B25" si="8">B21+1</f>
-        <v>2</v>
-      </c>
-      <c r="C22" s="201" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="200">
-        <v>100</v>
-      </c>
-      <c r="E22" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="202">
-        <v>80</v>
-      </c>
+        <f>B21+1</f>
+        <v>6</v>
+      </c>
+      <c r="C22" s="203"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
       <c r="I22" s="200"/>
       <c r="J22" s="200">
-        <f t="shared" si="6"/>
-        <v>8000</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K22" s="200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22" s="200"/>
@@ -4583,30 +4633,22 @@
     <row r="23" spans="1:15">
       <c r="A23" s="200"/>
       <c r="B23" s="200">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="C23" s="201" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="200">
-        <v>50</v>
-      </c>
-      <c r="E23" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="202">
-        <v>40</v>
-      </c>
+        <f>B22+1</f>
+        <v>7</v>
+      </c>
+      <c r="C23" s="203"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
       <c r="G23" s="200"/>
       <c r="H23" s="200"/>
       <c r="I23" s="200"/>
       <c r="J23" s="200">
-        <f t="shared" si="6"/>
-        <v>2000</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K23" s="200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L23" s="200"/>
@@ -4616,68 +4658,50 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="200"/>
-      <c r="B24" s="200">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="C24" s="201" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="200">
-        <v>50</v>
-      </c>
-      <c r="E24" s="200" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="202">
-        <v>50</v>
-      </c>
+      <c r="B24" s="200"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
       <c r="G24" s="200"/>
       <c r="H24" s="200"/>
       <c r="I24" s="200"/>
-      <c r="J24" s="200">
-        <f t="shared" si="6"/>
-        <v>2500</v>
-      </c>
-      <c r="K24" s="200">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="J24" s="200"/>
+      <c r="K24" s="200"/>
       <c r="L24" s="200"/>
       <c r="M24" s="200"/>
       <c r="N24" s="200"/>
       <c r="O24" s="200"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="200"/>
+      <c r="A25" s="200" t="s">
+        <v>83</v>
+      </c>
       <c r="B25" s="200">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25" s="201" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="200">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="D25" s="1">
+        <v>80</v>
       </c>
       <c r="E25" s="200" t="s">
         <v>82</v>
       </c>
       <c r="F25" s="202">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="200"/>
-      <c r="H25" s="200">
-        <v>60</v>
-      </c>
+      <c r="H25" s="200"/>
       <c r="I25" s="200"/>
       <c r="J25" s="200">
-        <f t="shared" si="6"/>
-        <v>600</v>
+        <f t="shared" ref="J25:J30" si="5">(F25+G25)*D25</f>
+        <v>1200</v>
       </c>
       <c r="K25" s="200">
-        <f t="shared" si="7"/>
-        <v>3600</v>
+        <f t="shared" ref="K25:K30" si="6">H25*D25*(1+I25)</f>
+        <v>0</v>
       </c>
       <c r="L25" s="200"/>
       <c r="M25" s="200"/>
@@ -4687,29 +4711,30 @@
     <row r="26" spans="1:15">
       <c r="A26" s="200"/>
       <c r="B26" s="200">
-        <v>6</v>
+        <f t="shared" ref="B26:B29" si="7">B25+1</f>
+        <v>2</v>
       </c>
       <c r="C26" s="201" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="200">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E26" s="200" t="s">
         <v>82</v>
       </c>
       <c r="F26" s="202">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G26" s="200"/>
       <c r="H26" s="200"/>
       <c r="I26" s="200"/>
       <c r="J26" s="200">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="K26" s="200">
         <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-      <c r="K26" s="200">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L26" s="200"/>
@@ -4719,45 +4744,65 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="200"/>
-      <c r="B27" s="200"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="200"/>
+      <c r="B27" s="200">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C27" s="201" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="200">
+        <v>50</v>
+      </c>
+      <c r="E27" s="200" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="202">
+        <v>40</v>
+      </c>
       <c r="G27" s="200"/>
       <c r="H27" s="200"/>
       <c r="I27" s="200"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="200"/>
+      <c r="J27" s="200">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="K27" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="L27" s="200"/>
       <c r="M27" s="200"/>
       <c r="N27" s="200"/>
       <c r="O27" s="200"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="204" t="s">
-        <v>84</v>
-      </c>
+      <c r="A28" s="200"/>
       <c r="B28" s="200">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="C28" s="201" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="200"/>
+        <v>87</v>
+      </c>
+      <c r="D28" s="200">
+        <v>50</v>
+      </c>
+      <c r="E28" s="200" t="s">
+        <v>82</v>
+      </c>
       <c r="F28" s="202">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G28" s="200"/>
-      <c r="H28" s="202"/>
+      <c r="H28" s="200"/>
       <c r="I28" s="200"/>
       <c r="J28" s="200">
-        <f t="shared" ref="J27:J32" si="9">(F28+G28)*D28</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2500</v>
       </c>
       <c r="K28" s="200">
-        <f t="shared" ref="K27:K32" si="10">H28*D28*(1+I28)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L28" s="200"/>
@@ -4768,25 +4813,33 @@
     <row r="29" spans="1:15">
       <c r="A29" s="200"/>
       <c r="B29" s="200">
-        <f>B28+1</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="C29" s="201" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="202"/>
+        <v>88</v>
+      </c>
+      <c r="D29" s="200">
+        <v>60</v>
+      </c>
+      <c r="E29" s="200" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="202">
+        <v>10</v>
+      </c>
       <c r="G29" s="200"/>
-      <c r="H29" s="202"/>
+      <c r="H29" s="200">
+        <v>60</v>
+      </c>
       <c r="I29" s="200"/>
       <c r="J29" s="200">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>600</v>
       </c>
       <c r="K29" s="200">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3600</v>
       </c>
       <c r="L29" s="200"/>
       <c r="M29" s="200"/>
@@ -4796,24 +4849,29 @@
     <row r="30" spans="1:15">
       <c r="A30" s="200"/>
       <c r="B30" s="200">
-        <f>B29+1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C30" s="201" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="202"/>
+        <v>90</v>
+      </c>
+      <c r="D30" s="200">
+        <v>1</v>
+      </c>
+      <c r="E30" s="200" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="202">
+        <v>200</v>
+      </c>
       <c r="G30" s="200"/>
-      <c r="H30" s="202"/>
+      <c r="H30" s="200"/>
       <c r="I30" s="200"/>
       <c r="J30" s="200">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
       <c r="K30" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L30" s="200"/>
@@ -4823,60 +4881,46 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="200"/>
-      <c r="B31" s="200">
-        <f>B30+1</f>
-        <v>4</v>
-      </c>
-      <c r="C31" s="201" t="s">
-        <v>87</v>
-      </c>
+      <c r="B31" s="200"/>
+      <c r="C31" s="201"/>
       <c r="D31" s="200"/>
       <c r="E31" s="200"/>
-      <c r="F31" s="202"/>
+      <c r="F31" s="200"/>
       <c r="G31" s="200"/>
-      <c r="H31" s="202"/>
+      <c r="H31" s="200"/>
       <c r="I31" s="200"/>
-      <c r="J31" s="200">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="200">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="J31" s="200"/>
+      <c r="K31" s="200"/>
       <c r="L31" s="200"/>
       <c r="M31" s="200"/>
       <c r="N31" s="200"/>
       <c r="O31" s="200"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="200"/>
+      <c r="A32" s="204" t="s">
+        <v>91</v>
+      </c>
       <c r="B32" s="200">
-        <f>B31+1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="200">
-        <v>1</v>
-      </c>
-      <c r="E32" s="200" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="202"/>
+        <v>92</v>
+      </c>
+      <c r="D32" s="200"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="202">
+        <v>90</v>
+      </c>
       <c r="G32" s="200"/>
-      <c r="H32" s="202">
-        <v>2400</v>
-      </c>
+      <c r="H32" s="202"/>
       <c r="I32" s="200"/>
       <c r="J32" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J31:J36" si="8">(F32+G32)*D32</f>
         <v>0</v>
       </c>
       <c r="K32" s="200">
-        <f t="shared" si="10"/>
-        <v>2400</v>
+        <f t="shared" ref="K31:K36" si="9">H32*D32*(1+I32)</f>
+        <v>0</v>
       </c>
       <c r="L32" s="200"/>
       <c r="M32" s="200"/>
@@ -4885,100 +4929,82 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="200"/>
-      <c r="B33" s="200"/>
-      <c r="C33" s="201"/>
+      <c r="B33" s="200">
+        <f>B32+1</f>
+        <v>2</v>
+      </c>
+      <c r="C33" s="201" t="s">
+        <v>93</v>
+      </c>
       <c r="D33" s="200"/>
       <c r="E33" s="200"/>
-      <c r="F33" s="200"/>
+      <c r="F33" s="202"/>
       <c r="G33" s="200"/>
-      <c r="H33" s="200"/>
+      <c r="H33" s="202"/>
       <c r="I33" s="200"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="200"/>
+      <c r="J33" s="200">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="L33" s="200"/>
       <c r="M33" s="200"/>
       <c r="N33" s="200"/>
       <c r="O33" s="200"/>
     </row>
-    <row r="34" ht="66" spans="1:15">
-      <c r="A34" s="200" t="s">
-        <v>90</v>
-      </c>
+    <row r="34" spans="1:15">
+      <c r="A34" s="200"/>
       <c r="B34" s="200">
-        <v>1</v>
-      </c>
-      <c r="C34" s="203" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="200">
-        <v>100</v>
-      </c>
-      <c r="E34" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="200">
-        <v>90</v>
-      </c>
-      <c r="G34" s="200">
-        <v>0</v>
-      </c>
-      <c r="H34" s="200">
-        <v>90</v>
-      </c>
-      <c r="I34" s="206">
-        <v>0.03</v>
-      </c>
+        <f>B33+1</f>
+        <v>3</v>
+      </c>
+      <c r="C34" s="201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="200"/>
       <c r="J34" s="200">
-        <f>(F34+G34)*D34</f>
-        <v>9000</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K34" s="200">
-        <f>H34*D34*(1+I34)</f>
-        <v>9270</v>
-      </c>
-      <c r="L34" s="204" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="204" t="s">
-        <v>93</v>
-      </c>
-      <c r="N34" s="200" t="s">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="200"/>
+      <c r="M34" s="200"/>
+      <c r="N34" s="200"/>
+      <c r="O34" s="200"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="200"/>
+      <c r="B35" s="200">
+        <f>B34+1</f>
+        <v>4</v>
+      </c>
+      <c r="C35" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="O34" s="200"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="205"/>
-      <c r="B35" s="200">
-        <f t="shared" ref="B35:B39" si="11">B34+1</f>
-        <v>2</v>
-      </c>
-      <c r="C35" s="203" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="200">
-        <v>100</v>
-      </c>
-      <c r="E35" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="200">
-        <v>60</v>
-      </c>
-      <c r="G35" s="200">
-        <v>0</v>
-      </c>
-      <c r="H35" s="200">
-        <v>60</v>
-      </c>
+      <c r="D35" s="200"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="202"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="202"/>
       <c r="I35" s="200"/>
       <c r="J35" s="200">
-        <f>(F35+G35)*D35</f>
-        <v>6000</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K35" s="200">
-        <f>H35*D35*(1+I35)</f>
-        <v>6000</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="L35" s="200"/>
       <c r="M35" s="200"/>
@@ -4986,27 +5012,33 @@
       <c r="O35" s="200"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="205"/>
+      <c r="A36" s="200"/>
       <c r="B36" s="200">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="C36" s="203" t="s">
+        <f>B35+1</f>
+        <v>5</v>
+      </c>
+      <c r="C36" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
+      <c r="D36" s="200">
+        <v>1</v>
+      </c>
+      <c r="E36" s="200" t="s">
+        <v>96</v>
+      </c>
       <c r="F36" s="202"/>
       <c r="G36" s="200"/>
-      <c r="H36" s="202"/>
+      <c r="H36" s="202">
+        <v>2400</v>
+      </c>
       <c r="I36" s="200"/>
       <c r="J36" s="200">
-        <f t="shared" ref="J36:J46" si="12">(F36+G36)*D36</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K36" s="200">
-        <f t="shared" ref="K36:K46" si="13">H36*D36*(1+I36)</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2400</v>
       </c>
       <c r="L36" s="200"/>
       <c r="M36" s="200"/>
@@ -5014,95 +5046,101 @@
       <c r="O36" s="200"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="205"/>
-      <c r="B37" s="200">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="C37" s="203" t="s">
-        <v>96</v>
-      </c>
+      <c r="A37" s="200"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="201"/>
       <c r="D37" s="200"/>
       <c r="E37" s="200"/>
-      <c r="F37" s="202"/>
+      <c r="F37" s="200"/>
       <c r="G37" s="200"/>
-      <c r="H37" s="202"/>
+      <c r="H37" s="200"/>
       <c r="I37" s="200"/>
-      <c r="J37" s="200">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="200">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="J37" s="200"/>
+      <c r="K37" s="200"/>
       <c r="L37" s="200"/>
       <c r="M37" s="200"/>
       <c r="N37" s="200"/>
       <c r="O37" s="200"/>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="205"/>
+    <row r="38" ht="66" spans="1:15">
+      <c r="A38" s="200" t="s">
+        <v>97</v>
+      </c>
       <c r="B38" s="200">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C38" s="203" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D38" s="200">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E38" s="200" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="200">
         <v>98</v>
       </c>
-      <c r="F38" s="202"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="202">
-        <v>800</v>
-      </c>
-      <c r="I38" s="200"/>
+      <c r="G38" s="200">
+        <v>0</v>
+      </c>
+      <c r="H38" s="200">
+        <v>90</v>
+      </c>
+      <c r="I38" s="206">
+        <v>0.03</v>
+      </c>
       <c r="J38" s="200">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>(F38+G38)*D38</f>
+        <v>9800</v>
       </c>
       <c r="K38" s="200">
-        <f t="shared" si="13"/>
-        <v>2400</v>
-      </c>
-      <c r="L38" s="200"/>
-      <c r="M38" s="200"/>
-      <c r="N38" s="200"/>
+        <f>H38*D38*(1+I38)</f>
+        <v>9270</v>
+      </c>
+      <c r="L38" s="204" t="s">
+        <v>99</v>
+      </c>
+      <c r="M38" s="204" t="s">
+        <v>100</v>
+      </c>
+      <c r="N38" s="200" t="s">
+        <v>101</v>
+      </c>
       <c r="O38" s="200"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="205"/>
       <c r="B39" s="200">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" ref="B39:B43" si="10">B38+1</f>
+        <v>2</v>
       </c>
       <c r="C39" s="203" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D39" s="200">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E39" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="202"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="202">
-        <v>800</v>
+        <v>61</v>
+      </c>
+      <c r="F39" s="200">
+        <v>60</v>
+      </c>
+      <c r="G39" s="200">
+        <v>0</v>
+      </c>
+      <c r="H39" s="200">
+        <v>60</v>
       </c>
       <c r="I39" s="200"/>
       <c r="J39" s="200">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="J39:J44" si="11">(F39+G39)*D39</f>
+        <v>6000</v>
       </c>
       <c r="K39" s="200">
-        <f t="shared" si="13"/>
-        <v>2400</v>
+        <f t="shared" ref="K39:K44" si="12">H39*D39*(1+I39)</f>
+        <v>6000</v>
       </c>
       <c r="L39" s="200"/>
       <c r="M39" s="200"/>
@@ -5111,43 +5149,53 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="205"/>
-      <c r="B40" s="200"/>
-      <c r="C40" s="203"/>
+      <c r="B40" s="200">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C40" s="203" t="s">
+        <v>102</v>
+      </c>
       <c r="D40" s="200"/>
       <c r="E40" s="200"/>
-      <c r="F40" s="200"/>
+      <c r="F40" s="202"/>
       <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
+      <c r="H40" s="202"/>
       <c r="I40" s="200"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="200"/>
+      <c r="J40" s="200">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="200">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="L40" s="200"/>
       <c r="M40" s="200"/>
       <c r="N40" s="200"/>
       <c r="O40" s="200"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="200" t="s">
-        <v>100</v>
-      </c>
+      <c r="A41" s="205"/>
       <c r="B41" s="200">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="C41" s="203" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D41" s="200"/>
       <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
+      <c r="F41" s="202"/>
       <c r="G41" s="200"/>
-      <c r="H41" s="200"/>
+      <c r="H41" s="202"/>
       <c r="I41" s="200"/>
       <c r="J41" s="200">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="200">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="200">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L41" s="200"/>
@@ -5158,25 +5206,31 @@
     <row r="42" spans="1:15">
       <c r="A42" s="205"/>
       <c r="B42" s="200">
-        <f t="shared" ref="B42:B44" si="14">B41+1</f>
-        <v>2</v>
-      </c>
-      <c r="C42" s="201" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="200"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="200"/>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C42" s="203" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="200">
+        <v>3</v>
+      </c>
+      <c r="E42" s="200" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="202"/>
       <c r="G42" s="200"/>
-      <c r="H42" s="200"/>
+      <c r="H42" s="202">
+        <v>800</v>
+      </c>
       <c r="I42" s="200"/>
       <c r="J42" s="200">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="200">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="200">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="L42" s="200"/>
       <c r="M42" s="200"/>
@@ -5184,26 +5238,33 @@
       <c r="O42" s="200"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="200"/>
+      <c r="A43" s="205"/>
       <c r="B43" s="200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C43" s="203" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="200">
         <v>3</v>
       </c>
-      <c r="C43" s="203" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="200"/>
-      <c r="F43" s="200"/>
+      <c r="E43" s="200" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="202"/>
       <c r="G43" s="200"/>
-      <c r="H43" s="200"/>
+      <c r="H43" s="202">
+        <v>800</v>
+      </c>
       <c r="I43" s="200"/>
       <c r="J43" s="200">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="200">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="200">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="L43" s="200"/>
       <c r="M43" s="200"/>
@@ -5211,25 +5272,31 @@
       <c r="O43" s="200"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="200"/>
+      <c r="A44" s="205"/>
       <c r="B44" s="200">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="C44" s="201" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="200"/>
-      <c r="F44" s="200"/>
+        <v>7</v>
+      </c>
+      <c r="C44" s="203" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="200">
+        <v>5.8</v>
+      </c>
+      <c r="E44" s="200" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="202">
+        <v>110</v>
+      </c>
       <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
+      <c r="H44" s="202"/>
       <c r="I44" s="200"/>
       <c r="J44" s="200">
+        <f t="shared" si="11"/>
+        <v>638</v>
+      </c>
+      <c r="K44" s="200">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="200">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L44" s="200"/>
@@ -5238,41 +5305,31 @@
       <c r="O44" s="200"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="200"/>
-      <c r="B45" s="200">
-        <f t="shared" ref="B45:B47" si="15">B44+1</f>
-        <v>5</v>
-      </c>
-      <c r="C45" s="201" t="s">
-        <v>103</v>
-      </c>
+      <c r="A45" s="205"/>
+      <c r="B45" s="200"/>
+      <c r="C45" s="203"/>
       <c r="D45" s="200"/>
       <c r="E45" s="200"/>
       <c r="F45" s="200"/>
       <c r="G45" s="200"/>
       <c r="H45" s="200"/>
       <c r="I45" s="200"/>
-      <c r="J45" s="200">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="200">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="J45" s="200"/>
+      <c r="K45" s="200"/>
       <c r="L45" s="200"/>
       <c r="M45" s="200"/>
       <c r="N45" s="200"/>
       <c r="O45" s="200"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="200"/>
+      <c r="A46" s="200" t="s">
+        <v>108</v>
+      </c>
       <c r="B46" s="200">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="C46" s="201" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C46" s="203" t="s">
+        <v>98</v>
       </c>
       <c r="D46" s="200"/>
       <c r="E46" s="200"/>
@@ -5281,11 +5338,11 @@
       <c r="H46" s="200"/>
       <c r="I46" s="200"/>
       <c r="J46" s="200">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J45:J51" si="13">(F46+G46)*D46</f>
         <v>0</v>
       </c>
       <c r="K46" s="200">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="K45:K51" si="14">H46*D46*(1+I46)</f>
         <v>0</v>
       </c>
       <c r="L46" s="200"/>
@@ -5294,13 +5351,13 @@
       <c r="O46" s="200"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="200"/>
+      <c r="A47" s="205"/>
       <c r="B47" s="200">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <f t="shared" ref="B47:B49" si="15">B46+1</f>
+        <v>2</v>
       </c>
       <c r="C47" s="201" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D47" s="200"/>
       <c r="E47" s="200"/>
@@ -5309,11 +5366,11 @@
       <c r="H47" s="200"/>
       <c r="I47" s="200"/>
       <c r="J47" s="200">
-        <f t="shared" ref="J47:J51" si="16">(F47+G47)*D47</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K47" s="200">
-        <f t="shared" ref="K47:K51" si="17">H47*D47*(1+I47)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L47" s="200"/>
@@ -5323,43 +5380,51 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="200"/>
-      <c r="B48" s="200"/>
-      <c r="C48" s="201"/>
-      <c r="D48" s="200"/>
+      <c r="B48" s="200">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="C48" s="203" t="s">
+        <v>110</v>
+      </c>
       <c r="E48" s="200"/>
       <c r="F48" s="200"/>
       <c r="G48" s="200"/>
       <c r="H48" s="200"/>
       <c r="I48" s="200"/>
-      <c r="J48" s="200"/>
-      <c r="K48" s="200"/>
+      <c r="J48" s="200">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="200">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="L48" s="200"/>
       <c r="M48" s="200"/>
       <c r="N48" s="200"/>
       <c r="O48" s="200"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="200" t="s">
-        <v>106</v>
-      </c>
+      <c r="A49" s="200"/>
       <c r="B49" s="200">
-        <v>1</v>
-      </c>
-      <c r="C49" s="203" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="200"/>
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="C49" s="201" t="s">
+        <v>28</v>
+      </c>
       <c r="E49" s="200"/>
       <c r="F49" s="200"/>
       <c r="G49" s="200"/>
       <c r="H49" s="200"/>
       <c r="I49" s="200"/>
       <c r="J49" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K49" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L49" s="200"/>
@@ -5370,11 +5435,11 @@
     <row r="50" spans="1:15">
       <c r="A50" s="200"/>
       <c r="B50" s="200">
-        <f t="shared" ref="B50:B53" si="18">B49+1</f>
-        <v>2</v>
-      </c>
-      <c r="C50" s="203" t="s">
-        <v>86</v>
+        <f t="shared" ref="B50:B52" si="16">B49+1</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="201" t="s">
+        <v>111</v>
       </c>
       <c r="D50" s="200"/>
       <c r="E50" s="200"/>
@@ -5383,11 +5448,11 @@
       <c r="H50" s="200"/>
       <c r="I50" s="200"/>
       <c r="J50" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K50" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L50" s="200"/>
@@ -5398,11 +5463,11 @@
     <row r="51" spans="1:15">
       <c r="A51" s="200"/>
       <c r="B51" s="200">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="C51" s="203" t="s">
-        <v>107</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="C51" s="201" t="s">
+        <v>112</v>
       </c>
       <c r="D51" s="200"/>
       <c r="E51" s="200"/>
@@ -5411,11 +5476,11 @@
       <c r="H51" s="200"/>
       <c r="I51" s="200"/>
       <c r="J51" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K51" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L51" s="200"/>
@@ -5426,11 +5491,11 @@
     <row r="52" spans="1:15">
       <c r="A52" s="200"/>
       <c r="B52" s="200">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="C52" s="203" t="s">
-        <v>102</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="C52" s="201" t="s">
+        <v>113</v>
       </c>
       <c r="D52" s="200"/>
       <c r="E52" s="200"/>
@@ -5439,11 +5504,11 @@
       <c r="H52" s="200"/>
       <c r="I52" s="200"/>
       <c r="J52" s="200">
-        <f t="shared" ref="J52:J59" si="19">(F52+G52)*D52</f>
+        <f t="shared" ref="J52:J56" si="17">(F52+G52)*D52</f>
         <v>0</v>
       </c>
       <c r="K52" s="200">
-        <f t="shared" ref="K52:K59" si="20">H52*D52*(1+I52)</f>
+        <f t="shared" ref="K52:K56" si="18">H52*D52*(1+I52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="200"/>
@@ -5453,58 +5518,58 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="200"/>
-      <c r="B53" s="200">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="C53" s="203" t="s">
-        <v>108</v>
-      </c>
+      <c r="B53" s="200"/>
+      <c r="C53" s="201"/>
       <c r="D53" s="200"/>
       <c r="E53" s="200"/>
-      <c r="F53" s="202"/>
+      <c r="F53" s="200"/>
       <c r="G53" s="200"/>
-      <c r="H53" s="202"/>
+      <c r="H53" s="200"/>
       <c r="I53" s="200"/>
-      <c r="J53" s="200">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="200">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
+      <c r="J53" s="200"/>
+      <c r="K53" s="200"/>
       <c r="L53" s="200"/>
       <c r="M53" s="200"/>
       <c r="N53" s="200"/>
       <c r="O53" s="200"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="200"/>
-      <c r="B54" s="200"/>
-      <c r="C54" s="201"/>
+      <c r="A54" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="200">
+        <v>1</v>
+      </c>
+      <c r="C54" s="203" t="s">
+        <v>98</v>
+      </c>
       <c r="D54" s="200"/>
       <c r="E54" s="200"/>
       <c r="F54" s="200"/>
       <c r="G54" s="200"/>
       <c r="H54" s="200"/>
       <c r="I54" s="200"/>
-      <c r="J54" s="200"/>
-      <c r="K54" s="200"/>
+      <c r="J54" s="200">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="200">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="L54" s="200"/>
       <c r="M54" s="200"/>
       <c r="N54" s="200"/>
       <c r="O54" s="200"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="200" t="s">
-        <v>109</v>
-      </c>
+      <c r="A55" s="200"/>
       <c r="B55" s="200">
-        <v>1</v>
+        <f t="shared" ref="B55:B58" si="19">B54+1</f>
+        <v>2</v>
       </c>
       <c r="C55" s="203" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D55" s="200"/>
       <c r="E55" s="200"/>
@@ -5513,11 +5578,11 @@
       <c r="H55" s="200"/>
       <c r="I55" s="200"/>
       <c r="J55" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K55" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L55" s="200"/>
@@ -5528,11 +5593,11 @@
     <row r="56" spans="1:15">
       <c r="A56" s="200"/>
       <c r="B56" s="200">
-        <f t="shared" ref="B56:B59" si="21">B55+1</f>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>3</v>
       </c>
       <c r="C56" s="203" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D56" s="200"/>
       <c r="E56" s="200"/>
@@ -5541,11 +5606,11 @@
       <c r="H56" s="200"/>
       <c r="I56" s="200"/>
       <c r="J56" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K56" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L56" s="200"/>
@@ -5556,11 +5621,11 @@
     <row r="57" spans="1:15">
       <c r="A57" s="200"/>
       <c r="B57" s="200">
-        <f t="shared" si="21"/>
-        <v>3</v>
+        <f t="shared" si="19"/>
+        <v>4</v>
       </c>
       <c r="C57" s="203" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D57" s="200"/>
       <c r="E57" s="200"/>
@@ -5569,11 +5634,11 @@
       <c r="H57" s="200"/>
       <c r="I57" s="200"/>
       <c r="J57" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="J57:J64" si="20">(F57+G57)*D57</f>
         <v>0</v>
       </c>
       <c r="K57" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="K57:K64" si="21">H57*D57*(1+I57)</f>
         <v>0</v>
       </c>
       <c r="L57" s="200"/>
@@ -5584,24 +5649,24 @@
     <row r="58" spans="1:15">
       <c r="A58" s="200"/>
       <c r="B58" s="200">
-        <f t="shared" si="21"/>
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>5</v>
       </c>
       <c r="C58" s="203" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D58" s="200"/>
       <c r="E58" s="200"/>
-      <c r="F58" s="200"/>
+      <c r="F58" s="202"/>
       <c r="G58" s="200"/>
-      <c r="H58" s="200"/>
+      <c r="H58" s="202"/>
       <c r="I58" s="200"/>
       <c r="J58" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K58" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L58" s="200"/>
@@ -5611,58 +5676,58 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="200"/>
-      <c r="B59" s="200">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="C59" s="203" t="s">
-        <v>108</v>
-      </c>
+      <c r="B59" s="200"/>
+      <c r="C59" s="201"/>
       <c r="D59" s="200"/>
       <c r="E59" s="200"/>
       <c r="F59" s="200"/>
       <c r="G59" s="200"/>
       <c r="H59" s="200"/>
       <c r="I59" s="200"/>
-      <c r="J59" s="200">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="200">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
+      <c r="J59" s="200"/>
+      <c r="K59" s="200"/>
       <c r="L59" s="200"/>
       <c r="M59" s="200"/>
       <c r="N59" s="200"/>
       <c r="O59" s="200"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="200"/>
-      <c r="B60" s="200"/>
-      <c r="C60" s="201"/>
+      <c r="A60" s="200" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="200">
+        <v>1</v>
+      </c>
+      <c r="C60" s="203" t="s">
+        <v>98</v>
+      </c>
       <c r="D60" s="200"/>
       <c r="E60" s="200"/>
       <c r="F60" s="200"/>
       <c r="G60" s="200"/>
       <c r="H60" s="200"/>
       <c r="I60" s="200"/>
-      <c r="J60" s="200"/>
-      <c r="K60" s="200"/>
+      <c r="J60" s="200">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="200">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="L60" s="200"/>
       <c r="M60" s="200"/>
       <c r="N60" s="200"/>
       <c r="O60" s="200"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="200" t="s">
-        <v>110</v>
-      </c>
+      <c r="A61" s="200"/>
       <c r="B61" s="200">
-        <v>1</v>
+        <f t="shared" ref="B61:B64" si="22">B60+1</f>
+        <v>2</v>
       </c>
       <c r="C61" s="203" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D61" s="200"/>
       <c r="E61" s="200"/>
@@ -5671,11 +5736,11 @@
       <c r="H61" s="200"/>
       <c r="I61" s="200"/>
       <c r="J61" s="200">
-        <f t="shared" ref="J61:J65" si="22">(F61+G61)*D61</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K61" s="200">
-        <f t="shared" ref="K61:K65" si="23">H61*D61*(1+I61)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L61" s="200"/>
@@ -5686,11 +5751,11 @@
     <row r="62" spans="1:15">
       <c r="A62" s="200"/>
       <c r="B62" s="200">
-        <f t="shared" ref="B62:B65" si="24">B61+1</f>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="C62" s="203" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D62" s="200"/>
       <c r="E62" s="200"/>
@@ -5699,11 +5764,11 @@
       <c r="H62" s="200"/>
       <c r="I62" s="200"/>
       <c r="J62" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K62" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L62" s="200"/>
@@ -5714,11 +5779,11 @@
     <row r="63" spans="1:15">
       <c r="A63" s="200"/>
       <c r="B63" s="200">
-        <f t="shared" si="24"/>
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="C63" s="203" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D63" s="200"/>
       <c r="E63" s="200"/>
@@ -5727,11 +5792,11 @@
       <c r="H63" s="200"/>
       <c r="I63" s="200"/>
       <c r="J63" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K63" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L63" s="200"/>
@@ -5742,11 +5807,11 @@
     <row r="64" spans="1:15">
       <c r="A64" s="200"/>
       <c r="B64" s="200">
-        <f t="shared" si="24"/>
-        <v>4</v>
+        <f t="shared" si="22"/>
+        <v>5</v>
       </c>
       <c r="C64" s="203" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D64" s="200"/>
       <c r="E64" s="200"/>
@@ -5755,11 +5820,11 @@
       <c r="H64" s="200"/>
       <c r="I64" s="200"/>
       <c r="J64" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K64" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L64" s="200"/>
@@ -5769,58 +5834,58 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="200"/>
-      <c r="B65" s="200">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="C65" s="203" t="s">
-        <v>108</v>
-      </c>
+      <c r="B65" s="200"/>
+      <c r="C65" s="201"/>
       <c r="D65" s="200"/>
       <c r="E65" s="200"/>
       <c r="F65" s="200"/>
       <c r="G65" s="200"/>
       <c r="H65" s="200"/>
       <c r="I65" s="200"/>
-      <c r="J65" s="200">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="200">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="J65" s="200"/>
+      <c r="K65" s="200"/>
       <c r="L65" s="200"/>
       <c r="M65" s="200"/>
       <c r="N65" s="200"/>
       <c r="O65" s="200"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="200"/>
-      <c r="B66" s="200"/>
-      <c r="C66" s="201"/>
+      <c r="A66" s="200" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="200">
+        <v>1</v>
+      </c>
+      <c r="C66" s="203" t="s">
+        <v>98</v>
+      </c>
       <c r="D66" s="200"/>
       <c r="E66" s="200"/>
       <c r="F66" s="200"/>
       <c r="G66" s="200"/>
       <c r="H66" s="200"/>
       <c r="I66" s="200"/>
-      <c r="J66" s="200"/>
-      <c r="K66" s="200"/>
+      <c r="J66" s="200">
+        <f t="shared" ref="J66:J70" si="23">(F66+G66)*D66</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="200">
+        <f t="shared" ref="K66:K70" si="24">H66*D66*(1+I66)</f>
+        <v>0</v>
+      </c>
       <c r="L66" s="200"/>
       <c r="M66" s="200"/>
       <c r="N66" s="200"/>
       <c r="O66" s="200"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="200" t="s">
-        <v>111</v>
-      </c>
+      <c r="A67" s="200"/>
       <c r="B67" s="200">
-        <v>1</v>
-      </c>
-      <c r="C67" s="201" t="s">
-        <v>91</v>
+        <f t="shared" ref="B67:B70" si="25">B66+1</f>
+        <v>2</v>
+      </c>
+      <c r="C67" s="203" t="s">
+        <v>93</v>
       </c>
       <c r="D67" s="200"/>
       <c r="E67" s="200"/>
@@ -5829,11 +5894,11 @@
       <c r="H67" s="200"/>
       <c r="I67" s="200"/>
       <c r="J67" s="200">
-        <f t="shared" ref="J67:J74" si="25">(F67+G67)*D67</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K67" s="200">
-        <f t="shared" ref="K67:K74" si="26">H67*D67*(1+I67)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L67" s="200"/>
@@ -5844,11 +5909,11 @@
     <row r="68" spans="1:15">
       <c r="A68" s="200"/>
       <c r="B68" s="200">
-        <f t="shared" ref="B68:B73" si="27">B67+1</f>
-        <v>2</v>
-      </c>
-      <c r="C68" s="201" t="s">
-        <v>112</v>
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="C68" s="203" t="s">
+        <v>115</v>
       </c>
       <c r="D68" s="200"/>
       <c r="E68" s="200"/>
@@ -5857,11 +5922,11 @@
       <c r="H68" s="200"/>
       <c r="I68" s="200"/>
       <c r="J68" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K68" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L68" s="200"/>
@@ -5872,30 +5937,24 @@
     <row r="69" spans="1:15">
       <c r="A69" s="200"/>
       <c r="B69" s="200">
-        <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="C69" s="201" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="200">
-        <v>1</v>
-      </c>
-      <c r="E69" s="200" t="s">
-        <v>113</v>
-      </c>
-      <c r="F69" s="200">
-        <v>800</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C69" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="200"/>
+      <c r="E69" s="200"/>
+      <c r="F69" s="200"/>
       <c r="G69" s="200"/>
       <c r="H69" s="200"/>
       <c r="I69" s="200"/>
       <c r="J69" s="200">
-        <f t="shared" si="25"/>
-        <v>800</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="K69" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L69" s="200"/>
@@ -5906,30 +5965,24 @@
     <row r="70" spans="1:15">
       <c r="A70" s="200"/>
       <c r="B70" s="200">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="C70" s="201" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="200">
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="E70" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="F70" s="202">
-        <v>110</v>
-      </c>
+      <c r="C70" s="203" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="200"/>
+      <c r="E70" s="200"/>
+      <c r="F70" s="200"/>
       <c r="G70" s="200"/>
       <c r="H70" s="200"/>
       <c r="I70" s="200"/>
       <c r="J70" s="200">
-        <f t="shared" si="25"/>
-        <v>550</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="K70" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L70" s="200"/>
@@ -5939,65 +5992,43 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="200"/>
-      <c r="B71" s="200">
-        <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="C71" s="201" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="200">
-        <v>3</v>
-      </c>
-      <c r="E71" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="F71" s="202">
-        <v>200</v>
-      </c>
+      <c r="B71" s="200"/>
+      <c r="C71" s="201"/>
+      <c r="D71" s="200"/>
+      <c r="E71" s="200"/>
+      <c r="F71" s="200"/>
       <c r="G71" s="200"/>
       <c r="H71" s="200"/>
       <c r="I71" s="200"/>
-      <c r="J71" s="200">
-        <f t="shared" si="25"/>
-        <v>600</v>
-      </c>
-      <c r="K71" s="200">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
+      <c r="J71" s="200"/>
+      <c r="K71" s="200"/>
       <c r="L71" s="200"/>
       <c r="M71" s="200"/>
       <c r="N71" s="200"/>
       <c r="O71" s="200"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="200"/>
+      <c r="A72" s="200" t="s">
+        <v>119</v>
+      </c>
       <c r="B72" s="200">
-        <f t="shared" si="27"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C72" s="201" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" s="200">
-        <v>2</v>
-      </c>
-      <c r="E72" s="200" t="s">
-        <v>116</v>
-      </c>
-      <c r="F72" s="202">
-        <v>150</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D72" s="200"/>
+      <c r="E72" s="200"/>
+      <c r="F72" s="200"/>
       <c r="G72" s="200"/>
       <c r="H72" s="200"/>
       <c r="I72" s="200"/>
       <c r="J72" s="200">
-        <f t="shared" si="25"/>
-        <v>300</v>
+        <f t="shared" ref="J72:J79" si="26">(F72+G72)*D72</f>
+        <v>0</v>
       </c>
       <c r="K72" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="K72:K79" si="27">H72*D72*(1+I72)</f>
         <v>0</v>
       </c>
       <c r="L72" s="200"/>
@@ -6008,30 +6039,24 @@
     <row r="73" spans="1:15">
       <c r="A73" s="200"/>
       <c r="B73" s="200">
-        <f t="shared" si="27"/>
-        <v>7</v>
+        <f t="shared" ref="B73:B78" si="28">B72+1</f>
+        <v>2</v>
       </c>
       <c r="C73" s="201" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="200">
-        <v>1</v>
-      </c>
-      <c r="E73" s="200" t="s">
-        <v>118</v>
-      </c>
-      <c r="F73" s="202">
-        <v>200</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D73" s="200"/>
+      <c r="E73" s="200"/>
+      <c r="F73" s="200"/>
       <c r="G73" s="200"/>
       <c r="H73" s="200"/>
       <c r="I73" s="200"/>
       <c r="J73" s="200">
-        <f t="shared" si="25"/>
-        <v>200</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="K73" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L73" s="200"/>
@@ -6042,29 +6067,30 @@
     <row r="74" spans="1:15">
       <c r="A74" s="200"/>
       <c r="B74" s="200">
-        <v>8</v>
+        <f t="shared" si="28"/>
+        <v>3</v>
       </c>
       <c r="C74" s="201" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D74" s="200">
         <v>1</v>
       </c>
       <c r="E74" s="200" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="202">
-        <v>30</v>
+        <v>121</v>
+      </c>
+      <c r="F74" s="200">
+        <v>800</v>
       </c>
       <c r="G74" s="200"/>
       <c r="H74" s="200"/>
       <c r="I74" s="200"/>
       <c r="J74" s="200">
-        <f t="shared" si="25"/>
-        <v>30</v>
+        <f t="shared" si="26"/>
+        <v>800</v>
       </c>
       <c r="K74" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L74" s="200"/>
@@ -6074,43 +6100,65 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="200"/>
-      <c r="B75" s="200"/>
-      <c r="C75" s="201"/>
-      <c r="D75" s="200"/>
-      <c r="E75" s="200"/>
-      <c r="F75" s="200"/>
+      <c r="B75" s="200">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="C75" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="200">
+        <v>5</v>
+      </c>
+      <c r="E75" s="200" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="202">
+        <v>110</v>
+      </c>
       <c r="G75" s="200"/>
       <c r="H75" s="200"/>
       <c r="I75" s="200"/>
-      <c r="J75" s="200"/>
-      <c r="K75" s="200"/>
+      <c r="J75" s="200">
+        <f t="shared" si="26"/>
+        <v>550</v>
+      </c>
+      <c r="K75" s="200">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="L75" s="200"/>
       <c r="M75" s="200"/>
       <c r="N75" s="200"/>
       <c r="O75" s="200"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="200" t="s">
-        <v>121</v>
-      </c>
+      <c r="A76" s="200"/>
       <c r="B76" s="200">
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>5</v>
       </c>
       <c r="C76" s="201" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="200"/>
-      <c r="E76" s="200"/>
-      <c r="F76" s="200"/>
+        <v>123</v>
+      </c>
+      <c r="D76" s="200">
+        <v>3</v>
+      </c>
+      <c r="E76" s="200" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="202">
+        <v>200</v>
+      </c>
       <c r="G76" s="200"/>
       <c r="H76" s="200"/>
       <c r="I76" s="200"/>
       <c r="J76" s="200">
-        <f t="shared" ref="J76:J80" si="28">(F76+G76)*D76</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>600</v>
       </c>
       <c r="K76" s="200">
-        <f t="shared" ref="K76:K80" si="29">H76*D76*(1+I76)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L76" s="200"/>
@@ -6121,24 +6169,30 @@
     <row r="77" spans="1:15">
       <c r="A77" s="200"/>
       <c r="B77" s="200">
-        <f t="shared" ref="B75:B82" si="30">B76+1</f>
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="C77" s="201" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="200">
         <v>2</v>
       </c>
-      <c r="C77" s="201" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="200"/>
-      <c r="E77" s="200"/>
-      <c r="F77" s="200"/>
+      <c r="E77" s="200" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="202">
+        <v>150</v>
+      </c>
       <c r="G77" s="200"/>
       <c r="H77" s="200"/>
       <c r="I77" s="200"/>
       <c r="J77" s="200">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>300</v>
       </c>
       <c r="K77" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L77" s="200"/>
@@ -6149,24 +6203,30 @@
     <row r="78" spans="1:15">
       <c r="A78" s="200"/>
       <c r="B78" s="200">
-        <f t="shared" si="30"/>
-        <v>3</v>
+        <f t="shared" si="28"/>
+        <v>7</v>
       </c>
       <c r="C78" s="201" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="200"/>
-      <c r="E78" s="200"/>
-      <c r="F78" s="200"/>
+        <v>125</v>
+      </c>
+      <c r="D78" s="200">
+        <v>1</v>
+      </c>
+      <c r="E78" s="200" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="202">
+        <v>200</v>
+      </c>
       <c r="G78" s="200"/>
       <c r="H78" s="200"/>
       <c r="I78" s="200"/>
       <c r="J78" s="200">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>200</v>
       </c>
       <c r="K78" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L78" s="200"/>
@@ -6177,24 +6237,29 @@
     <row r="79" spans="1:15">
       <c r="A79" s="200"/>
       <c r="B79" s="200">
-        <f t="shared" si="30"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C79" s="201" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="200"/>
-      <c r="E79" s="200"/>
-      <c r="F79" s="200"/>
+        <v>126</v>
+      </c>
+      <c r="D79" s="200">
+        <v>0.7</v>
+      </c>
+      <c r="E79" s="200" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="202">
+        <v>50</v>
+      </c>
       <c r="G79" s="200"/>
       <c r="H79" s="200"/>
       <c r="I79" s="200"/>
       <c r="J79" s="200">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>35</v>
       </c>
       <c r="K79" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L79" s="200"/>
@@ -6204,40 +6269,30 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="200"/>
-      <c r="B80" s="200">
-        <f t="shared" si="30"/>
-        <v>5</v>
-      </c>
-      <c r="C80" s="201" t="s">
-        <v>115</v>
-      </c>
+      <c r="B80" s="200"/>
+      <c r="C80" s="201"/>
       <c r="D80" s="200"/>
       <c r="E80" s="200"/>
       <c r="F80" s="200"/>
       <c r="G80" s="200"/>
       <c r="H80" s="200"/>
       <c r="I80" s="200"/>
-      <c r="J80" s="200">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="200">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
+      <c r="J80" s="200"/>
+      <c r="K80" s="200"/>
       <c r="L80" s="200"/>
       <c r="M80" s="200"/>
       <c r="N80" s="200"/>
       <c r="O80" s="200"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="200"/>
+      <c r="A81" s="200" t="s">
+        <v>127</v>
+      </c>
       <c r="B81" s="200">
-        <f t="shared" si="30"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C81" s="201" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D81" s="200"/>
       <c r="E81" s="200"/>
@@ -6246,11 +6301,11 @@
       <c r="H81" s="200"/>
       <c r="I81" s="200"/>
       <c r="J81" s="200">
-        <f t="shared" ref="J81:J90" si="31">(F81+G81)*D81</f>
+        <f t="shared" ref="J81:J85" si="29">(F81+G81)*D81</f>
         <v>0</v>
       </c>
       <c r="K81" s="200">
-        <f t="shared" ref="K81:K90" si="32">H81*D81*(1+I81)</f>
+        <f t="shared" ref="K81:K85" si="30">H81*D81*(1+I81)</f>
         <v>0</v>
       </c>
       <c r="L81" s="200"/>
@@ -6261,24 +6316,24 @@
     <row r="82" spans="1:15">
       <c r="A82" s="200"/>
       <c r="B82" s="200">
-        <f t="shared" si="30"/>
-        <v>7</v>
+        <f t="shared" ref="B80:B87" si="31">B81+1</f>
+        <v>2</v>
       </c>
       <c r="C82" s="201" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D82" s="200"/>
       <c r="E82" s="200"/>
-      <c r="F82" s="202"/>
+      <c r="F82" s="200"/>
       <c r="G82" s="200"/>
-      <c r="H82" s="202"/>
+      <c r="H82" s="200"/>
       <c r="I82" s="200"/>
       <c r="J82" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K82" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L82" s="200"/>
@@ -6288,30 +6343,40 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="200"/>
-      <c r="B83" s="200"/>
-      <c r="C83" s="201"/>
+      <c r="B83" s="200">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="C83" s="201" t="s">
+        <v>112</v>
+      </c>
       <c r="D83" s="200"/>
       <c r="E83" s="200"/>
       <c r="F83" s="200"/>
       <c r="G83" s="200"/>
       <c r="H83" s="200"/>
       <c r="I83" s="200"/>
-      <c r="J83" s="200"/>
-      <c r="K83" s="200"/>
+      <c r="J83" s="200">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="200">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
       <c r="L83" s="200"/>
       <c r="M83" s="200"/>
       <c r="N83" s="200"/>
       <c r="O83" s="200"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="200" t="s">
-        <v>122</v>
-      </c>
+      <c r="A84" s="200"/>
       <c r="B84" s="200">
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>4</v>
       </c>
       <c r="C84" s="201" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D84" s="200"/>
       <c r="E84" s="200"/>
@@ -6320,11 +6385,11 @@
       <c r="H84" s="200"/>
       <c r="I84" s="200"/>
       <c r="J84" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K84" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L84" s="200"/>
@@ -6335,11 +6400,11 @@
     <row r="85" spans="1:15">
       <c r="A85" s="200"/>
       <c r="B85" s="200">
-        <f t="shared" ref="B85:B87" si="33">B84+1</f>
-        <v>2</v>
+        <f t="shared" si="31"/>
+        <v>5</v>
       </c>
       <c r="C85" s="201" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D85" s="200"/>
       <c r="E85" s="200"/>
@@ -6348,11 +6413,11 @@
       <c r="H85" s="200"/>
       <c r="I85" s="200"/>
       <c r="J85" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K85" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L85" s="200"/>
@@ -6363,11 +6428,11 @@
     <row r="86" spans="1:15">
       <c r="A86" s="200"/>
       <c r="B86" s="200">
-        <f t="shared" si="33"/>
-        <v>3</v>
+        <f t="shared" si="31"/>
+        <v>6</v>
       </c>
       <c r="C86" s="201" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D86" s="200"/>
       <c r="E86" s="200"/>
@@ -6376,11 +6441,11 @@
       <c r="H86" s="200"/>
       <c r="I86" s="200"/>
       <c r="J86" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="J86:J88" si="32">(F86+G86)*D86</f>
         <v>0</v>
       </c>
       <c r="K86" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="K86:K88" si="33">H86*D86*(1+I86)</f>
         <v>0</v>
       </c>
       <c r="L86" s="200"/>
@@ -6391,24 +6456,24 @@
     <row r="87" spans="1:15">
       <c r="A87" s="200"/>
       <c r="B87" s="200">
-        <f t="shared" si="33"/>
-        <v>4</v>
+        <f t="shared" si="31"/>
+        <v>7</v>
       </c>
       <c r="C87" s="201" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D87" s="200"/>
       <c r="E87" s="200"/>
-      <c r="F87" s="200"/>
+      <c r="F87" s="202"/>
       <c r="G87" s="200"/>
-      <c r="H87" s="200"/>
+      <c r="H87" s="202"/>
       <c r="I87" s="200"/>
       <c r="J87" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K87" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L87" s="200"/>
@@ -6419,23 +6484,29 @@
     <row r="88" spans="1:15">
       <c r="A88" s="200"/>
       <c r="B88" s="200">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" s="201" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" s="200"/>
-      <c r="E88" s="200"/>
-      <c r="F88" s="200"/>
+        <v>126</v>
+      </c>
+      <c r="D88" s="200">
+        <v>0.7</v>
+      </c>
+      <c r="E88" s="200" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88" s="202">
+        <v>50</v>
+      </c>
       <c r="G88" s="200"/>
       <c r="H88" s="200"/>
       <c r="I88" s="200"/>
       <c r="J88" s="200">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>35</v>
       </c>
       <c r="K88" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L88" s="200"/>
@@ -6445,40 +6516,30 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="200"/>
-      <c r="B89" s="200">
-        <f>B88+1</f>
-        <v>6</v>
-      </c>
-      <c r="C89" s="201" t="s">
-        <v>125</v>
-      </c>
+      <c r="B89" s="200"/>
+      <c r="C89" s="201"/>
       <c r="D89" s="200"/>
       <c r="E89" s="200"/>
       <c r="F89" s="200"/>
       <c r="G89" s="200"/>
       <c r="H89" s="200"/>
       <c r="I89" s="200"/>
-      <c r="J89" s="200">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="200">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="J89" s="200"/>
+      <c r="K89" s="200"/>
       <c r="L89" s="200"/>
       <c r="M89" s="200"/>
       <c r="N89" s="200"/>
       <c r="O89" s="200"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="200"/>
+      <c r="A90" s="200" t="s">
+        <v>128</v>
+      </c>
       <c r="B90" s="200">
-        <f>B89+1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="201" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D90" s="200"/>
       <c r="E90" s="200"/>
@@ -6487,11 +6548,11 @@
       <c r="H90" s="200"/>
       <c r="I90" s="200"/>
       <c r="J90" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="J89:J96" si="34">(F90+G90)*D90</f>
         <v>0</v>
       </c>
       <c r="K90" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="K89:K96" si="35">H90*D90*(1+I90)</f>
         <v>0</v>
       </c>
       <c r="L90" s="200"/>
@@ -6502,11 +6563,11 @@
     <row r="91" spans="1:15">
       <c r="A91" s="200"/>
       <c r="B91" s="200">
-        <f>B90+1</f>
-        <v>8</v>
+        <f t="shared" ref="B91:B93" si="36">B90+1</f>
+        <v>2</v>
       </c>
       <c r="C91" s="201" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D91" s="200"/>
       <c r="E91" s="200"/>
@@ -6515,11 +6576,11 @@
       <c r="H91" s="200"/>
       <c r="I91" s="200"/>
       <c r="J91" s="200">
-        <f t="shared" ref="J91:J94" si="34">(F91+G91)*D91</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K91" s="200">
-        <f t="shared" ref="K91:K94" si="35">H91*D91*(1+I91)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L91" s="200"/>
@@ -6529,46 +6590,50 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="200"/>
-      <c r="B92" s="200"/>
-      <c r="C92" s="201"/>
+      <c r="B92" s="200">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="C92" s="201" t="s">
+        <v>129</v>
+      </c>
       <c r="D92" s="200"/>
       <c r="E92" s="200"/>
       <c r="F92" s="200"/>
       <c r="G92" s="200"/>
       <c r="H92" s="200"/>
       <c r="I92" s="200"/>
-      <c r="J92" s="200"/>
-      <c r="K92" s="200"/>
+      <c r="J92" s="200">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="200">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="L92" s="200"/>
       <c r="M92" s="200"/>
       <c r="N92" s="200"/>
       <c r="O92" s="200"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="200" t="s">
-        <v>127</v>
-      </c>
+      <c r="A93" s="200"/>
       <c r="B93" s="200">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>4</v>
       </c>
       <c r="C93" s="201" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" s="200">
-        <v>123</v>
-      </c>
-      <c r="E93" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="F93" s="202">
-        <v>75</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D93" s="200"/>
+      <c r="E93" s="200"/>
+      <c r="F93" s="200"/>
       <c r="G93" s="200"/>
       <c r="H93" s="200"/>
       <c r="I93" s="200"/>
       <c r="J93" s="200">
         <f t="shared" si="34"/>
-        <v>9225</v>
+        <v>0</v>
       </c>
       <c r="K93" s="200">
         <f t="shared" si="35"/>
@@ -6582,19 +6647,14 @@
     <row r="94" spans="1:15">
       <c r="A94" s="200"/>
       <c r="B94" s="200">
-        <f>B93+1</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C94" s="201" t="s">
-        <v>129</v>
-      </c>
-      <c r="D94" s="200">
-        <v>1</v>
-      </c>
-      <c r="E94" s="200" t="s">
-        <v>66</v>
-      </c>
-      <c r="F94" s="202"/>
+        <v>130</v>
+      </c>
+      <c r="D94" s="200"/>
+      <c r="E94" s="200"/>
+      <c r="F94" s="200"/>
       <c r="G94" s="200"/>
       <c r="H94" s="200"/>
       <c r="I94" s="200"/>
@@ -6615,23 +6675,23 @@
       <c r="A95" s="200"/>
       <c r="B95" s="200">
         <f>B94+1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C95" s="201" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D95" s="200"/>
       <c r="E95" s="200"/>
-      <c r="F95" s="202"/>
+      <c r="F95" s="200"/>
       <c r="G95" s="200"/>
       <c r="H95" s="200"/>
       <c r="I95" s="200"/>
       <c r="J95" s="200">
-        <f t="shared" ref="J95:J98" si="36">(F95+G95)*D95</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K95" s="200">
-        <f t="shared" ref="K95:K98" si="37">H95*D95*(1+I95)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L95" s="200"/>
@@ -6643,23 +6703,23 @@
       <c r="A96" s="200"/>
       <c r="B96" s="200">
         <f>B95+1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C96" s="201" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D96" s="200"/>
       <c r="E96" s="200"/>
-      <c r="F96" s="202"/>
+      <c r="F96" s="200"/>
       <c r="G96" s="200"/>
       <c r="H96" s="200"/>
       <c r="I96" s="200"/>
       <c r="J96" s="200">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K96" s="200">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L96" s="200"/>
@@ -6667,25 +6727,193 @@
       <c r="N96" s="200"/>
       <c r="O96" s="200"/>
     </row>
-    <row r="98" spans="3:11">
-      <c r="C98" s="201" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" s="1">
+    <row r="97" spans="1:15">
+      <c r="A97" s="200"/>
+      <c r="B97" s="200">
+        <f>B96+1</f>
+        <v>8</v>
+      </c>
+      <c r="C97" s="201" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="200"/>
+      <c r="E97" s="200"/>
+      <c r="F97" s="200"/>
+      <c r="G97" s="200"/>
+      <c r="H97" s="200"/>
+      <c r="I97" s="200"/>
+      <c r="J97" s="200">
+        <f t="shared" ref="J97:J100" si="37">(F97+G97)*D97</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="200">
+        <f t="shared" ref="K97:K100" si="38">H97*D97*(1+I97)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="200"/>
+      <c r="M97" s="200"/>
+      <c r="N97" s="200"/>
+      <c r="O97" s="200"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="200"/>
+      <c r="B98" s="200"/>
+      <c r="C98" s="201"/>
+      <c r="D98" s="200"/>
+      <c r="E98" s="200"/>
+      <c r="F98" s="200"/>
+      <c r="G98" s="200"/>
+      <c r="H98" s="200"/>
+      <c r="I98" s="200"/>
+      <c r="J98" s="200"/>
+      <c r="K98" s="200"/>
+      <c r="L98" s="200"/>
+      <c r="M98" s="200"/>
+      <c r="N98" s="200"/>
+      <c r="O98" s="200"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="200" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="200">
+        <v>1</v>
+      </c>
+      <c r="C99" s="201" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="200">
+        <v>123</v>
+      </c>
+      <c r="E99" s="200" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" s="202">
+        <v>75</v>
+      </c>
+      <c r="G99" s="200"/>
+      <c r="H99" s="200"/>
+      <c r="I99" s="200"/>
+      <c r="J99" s="200">
+        <f t="shared" si="37"/>
+        <v>9225</v>
+      </c>
+      <c r="K99" s="200">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="200"/>
+      <c r="M99" s="200"/>
+      <c r="N99" s="200"/>
+      <c r="O99" s="200"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="200"/>
+      <c r="B100" s="200">
+        <f>B99+1</f>
+        <v>2</v>
+      </c>
+      <c r="C100" s="201" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="200">
+        <v>1</v>
+      </c>
+      <c r="E100" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="F100" s="202"/>
+      <c r="G100" s="200"/>
+      <c r="H100" s="200"/>
+      <c r="I100" s="200"/>
+      <c r="J100" s="200">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="200">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="200"/>
+      <c r="M100" s="200"/>
+      <c r="N100" s="200"/>
+      <c r="O100" s="200"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="200"/>
+      <c r="B101" s="200">
+        <f>B100+1</f>
+        <v>3</v>
+      </c>
+      <c r="C101" s="201" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" s="200"/>
+      <c r="E101" s="200"/>
+      <c r="F101" s="202"/>
+      <c r="G101" s="200"/>
+      <c r="H101" s="200"/>
+      <c r="I101" s="200"/>
+      <c r="J101" s="200">
+        <f t="shared" ref="J101:J104" si="39">(F101+G101)*D101</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="200">
+        <f t="shared" ref="K101:K104" si="40">H101*D101*(1+I101)</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="200"/>
+      <c r="M101" s="200"/>
+      <c r="N101" s="200"/>
+      <c r="O101" s="200"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="200"/>
+      <c r="B102" s="200">
+        <f>B101+1</f>
+        <v>4</v>
+      </c>
+      <c r="C102" s="201" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" s="200"/>
+      <c r="E102" s="200"/>
+      <c r="F102" s="202"/>
+      <c r="G102" s="200"/>
+      <c r="H102" s="200"/>
+      <c r="I102" s="200"/>
+      <c r="J102" s="200">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="200">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="200"/>
+      <c r="M102" s="200"/>
+      <c r="N102" s="200"/>
+      <c r="O102" s="200"/>
+    </row>
+    <row r="104" spans="3:11">
+      <c r="C104" s="201" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" s="1">
         <v>13.2</v>
       </c>
-      <c r="E98" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="H98" s="1">
+      <c r="E104" s="200" t="s">
+        <v>61</v>
+      </c>
+      <c r="H104" s="1">
         <v>700</v>
       </c>
-      <c r="J98" s="200">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="200">
-        <f t="shared" si="37"/>
+      <c r="J104" s="200">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="200">
+        <f t="shared" si="40"/>
         <v>9240</v>
       </c>
     </row>
@@ -6728,7 +6956,7 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -6758,7 +6986,7 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="S2" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="17.1" customHeight="1" spans="1:19">
@@ -6776,7 +7004,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="S3" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" ht="15" customHeight="1" spans="1:19">
@@ -6794,12 +7022,12 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="S4" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="42" customHeight="1" spans="1:19">
       <c r="A5" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -6814,12 +7042,12 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="S5" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
       <c r="A6" s="23" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
@@ -6834,7 +7062,7 @@
       <c r="L6" s="69"/>
       <c r="M6" s="69"/>
       <c r="S6" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
@@ -6842,41 +7070,41 @@
         <v>45</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L7" s="72" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M7" s="73"/>
       <c r="S7" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6884,10 +7112,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D8" s="35">
         <v>1</v>
@@ -6916,7 +7144,7 @@
       <c r="L8" s="77"/>
       <c r="M8" s="78"/>
       <c r="S8" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6924,10 +7152,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -6946,7 +7174,7 @@
       <c r="L9" s="77"/>
       <c r="M9" s="78"/>
       <c r="S9" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6954,10 +7182,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D10" s="35">
         <v>20</v>
@@ -6980,7 +7208,7 @@
       <c r="L10" s="77"/>
       <c r="M10" s="78"/>
       <c r="S10" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -6988,10 +7216,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -7010,7 +7238,7 @@
       <c r="L11" s="77"/>
       <c r="M11" s="78"/>
       <c r="S11" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -7018,10 +7246,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
@@ -7040,7 +7268,7 @@
       <c r="L12" s="77"/>
       <c r="M12" s="78"/>
       <c r="S12" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -7048,10 +7276,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="36"/>
@@ -7070,7 +7298,7 @@
       <c r="L13" s="81"/>
       <c r="M13" s="82"/>
       <c r="S13" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -7078,10 +7306,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="36"/>
@@ -7100,7 +7328,7 @@
       <c r="L14" s="81"/>
       <c r="M14" s="82"/>
       <c r="S14" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -7108,10 +7336,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
@@ -7131,7 +7359,7 @@
       <c r="M15" s="78"/>
       <c r="P15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -7139,10 +7367,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
@@ -7161,7 +7389,7 @@
       <c r="L16" s="77"/>
       <c r="M16" s="78"/>
       <c r="S16" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -7169,10 +7397,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D17" s="35">
         <v>9</v>
@@ -7189,17 +7417,17 @@
       <c r="J17" s="75"/>
       <c r="K17" s="76"/>
       <c r="L17" s="77" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M17" s="78"/>
       <c r="S17" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
       <c r="A18" s="43"/>
       <c r="B18" s="44" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="42"/>
@@ -7222,12 +7450,12 @@
       <c r="L18" s="85"/>
       <c r="M18" s="86"/>
       <c r="S18" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
       <c r="A19" s="23" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
@@ -7243,7 +7471,7 @@
       <c r="M19" s="87"/>
       <c r="P19" s="1"/>
       <c r="S19" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
@@ -7251,41 +7479,41 @@
         <v>45</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L20" s="72" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M20" s="73"/>
       <c r="S20" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
@@ -7293,10 +7521,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D21" s="50">
         <v>1</v>
@@ -7326,10 +7554,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D22" s="50">
         <v>1</v>
@@ -7358,10 +7586,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
@@ -7385,10 +7613,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D24" s="50">
         <v>2</v>
@@ -7409,7 +7637,7 @@
       </c>
       <c r="K24" s="90"/>
       <c r="L24" s="91" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M24" s="92"/>
     </row>
@@ -7418,10 +7646,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D25" s="52">
         <v>1</v>
@@ -7449,10 +7677,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D26" s="52">
         <v>1</v>
@@ -7480,10 +7708,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D27" s="52">
         <v>1</v>
@@ -7511,7 +7739,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C28" s="54"/>
       <c r="D28" s="52"/>
@@ -7534,7 +7762,7 @@
     <row r="29" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A29" s="55"/>
       <c r="B29" s="56" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="57"/>
@@ -7559,7 +7787,7 @@
     </row>
     <row r="30" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:17">
       <c r="A30" s="23" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -7574,7 +7802,7 @@
       <c r="L30" s="87"/>
       <c r="M30" s="87"/>
       <c r="Q30" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:18">
@@ -7582,44 +7810,44 @@
         <v>45</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J31" s="70" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L31" s="72" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M31" s="73"/>
       <c r="Q31" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:18">
@@ -7627,10 +7855,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D32" s="59">
         <v>1</v>
@@ -7653,14 +7881,14 @@
       </c>
       <c r="K32" s="47"/>
       <c r="L32" s="94" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M32" s="95"/>
       <c r="Q32" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:18">
@@ -7668,10 +7896,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D33" s="59"/>
       <c r="E33" s="51"/>
@@ -7690,10 +7918,10 @@
       <c r="L33" s="94"/>
       <c r="M33" s="95"/>
       <c r="Q33" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:18">
@@ -7701,10 +7929,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D34" s="50">
         <v>2</v>
@@ -7727,10 +7955,10 @@
       <c r="L34" s="88"/>
       <c r="M34" s="89"/>
       <c r="Q34" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:17">
@@ -7738,10 +7966,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
@@ -7768,10 +7996,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D36" s="50">
         <v>2</v>
@@ -7794,7 +8022,7 @@
       </c>
       <c r="K36" s="83"/>
       <c r="L36" s="96" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M36" s="97"/>
     </row>
@@ -7803,10 +8031,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D37" s="50">
         <v>1</v>
@@ -7834,10 +8062,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D38" s="50">
         <v>1</v>
@@ -7865,10 +8093,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="53"/>
@@ -7892,10 +8120,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D40" s="52"/>
       <c r="E40" s="53"/>
@@ -7919,10 +8147,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="53"/>
@@ -7946,10 +8174,10 @@
         <v>11</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D42" s="50">
         <v>2</v>
@@ -7977,7 +8205,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C43" s="61"/>
       <c r="D43" s="50"/>
@@ -8000,7 +8228,7 @@
     <row r="44" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A44" s="62"/>
       <c r="B44" s="56" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="57"/>
@@ -8025,7 +8253,7 @@
     </row>
     <row r="45" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A45" s="23" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -8045,37 +8273,37 @@
         <v>45</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J46" s="70" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K46" s="71" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L46" s="72" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M46" s="73"/>
     </row>
@@ -8084,10 +8312,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="51"/>
@@ -8111,10 +8339,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D48" s="50">
         <v>2</v>
@@ -8142,10 +8370,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D49" s="50"/>
       <c r="E49" s="51"/>
@@ -8169,10 +8397,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D50" s="50">
         <v>1</v>
@@ -8200,10 +8428,10 @@
         <v>5</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D51" s="50">
         <v>2</v>
@@ -8231,10 +8459,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D52" s="50"/>
       <c r="E52" s="51"/>
@@ -8258,10 +8486,10 @@
         <v>7</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D53" s="50"/>
       <c r="E53" s="51"/>
@@ -8285,10 +8513,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="51"/>
@@ -8312,10 +8540,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D55" s="50">
         <v>1</v>
@@ -8346,7 +8574,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D56" s="50">
         <v>1</v>
@@ -8376,7 +8604,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C57" s="54"/>
       <c r="D57" s="52">
@@ -8398,14 +8626,14 @@
       </c>
       <c r="K57" s="83"/>
       <c r="L57" s="101" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M57" s="102"/>
     </row>
     <row r="58" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A58" s="63"/>
       <c r="B58" s="56" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C58" s="61"/>
       <c r="D58" s="52"/>
@@ -8430,7 +8658,7 @@
     </row>
     <row r="59" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A59" s="23" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
@@ -8450,37 +8678,37 @@
         <v>45</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J60" s="70" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K60" s="71" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L60" s="72" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M60" s="73"/>
     </row>
@@ -8489,10 +8717,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D61" s="50">
         <v>1</v>
@@ -8520,10 +8748,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D62" s="50">
         <v>1</v>
@@ -8551,10 +8779,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D63" s="50">
         <v>3</v>
@@ -8582,10 +8810,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D64" s="50">
         <v>1</v>
@@ -8613,10 +8841,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D65" s="50">
         <v>3</v>
@@ -8644,10 +8872,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D66" s="50"/>
       <c r="E66" s="51"/>
@@ -8671,10 +8899,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="60" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D67" s="50"/>
       <c r="E67" s="51"/>
@@ -8698,10 +8926,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D68" s="50">
         <v>30</v>
@@ -8729,7 +8957,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C69" s="48"/>
       <c r="D69" s="50"/>
@@ -8752,7 +8980,7 @@
     <row r="70" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A70" s="43"/>
       <c r="B70" s="44" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="42"/>
@@ -8774,7 +9002,7 @@
     </row>
     <row r="71" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A71" s="103" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B71" s="104"/>
       <c r="C71" s="104"/>
@@ -8794,37 +9022,37 @@
         <v>45</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H72" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I72" s="32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J72" s="70" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K72" s="71" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L72" s="72" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M72" s="73"/>
     </row>
@@ -8833,10 +9061,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D73" s="42">
         <v>6</v>
@@ -8864,10 +9092,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D74" s="42"/>
       <c r="E74" s="36"/>
@@ -8891,10 +9119,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="36"/>
@@ -8918,10 +9146,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D76" s="42">
         <v>6</v>
@@ -8949,10 +9177,10 @@
         <v>5</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D77" s="42"/>
       <c r="E77" s="36"/>
@@ -8976,10 +9204,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D78" s="42">
         <v>1</v>
@@ -9007,10 +9235,10 @@
         <v>7</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="36"/>
@@ -9034,10 +9262,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="36"/>
@@ -9061,10 +9289,10 @@
         <v>9</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="36"/>
@@ -9088,10 +9316,10 @@
         <v>10</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D82" s="42">
         <v>4</v>
@@ -9119,10 +9347,10 @@
         <v>11</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D83" s="42">
         <v>6</v>
@@ -9150,7 +9378,7 @@
         <v>12</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C84" s="33">
         <v>1</v>
@@ -9176,14 +9404,14 @@
       </c>
       <c r="K84" s="83"/>
       <c r="L84" s="96" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M84" s="97"/>
     </row>
     <row r="85" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A85" s="43"/>
       <c r="B85" s="44" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="42"/>
@@ -9208,7 +9436,7 @@
     </row>
     <row r="86" s="5" customFormat="1" ht="30.95" customHeight="1" spans="1:13">
       <c r="A86" s="108" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B86" s="108"/>
       <c r="C86" s="109"/>
@@ -9230,13 +9458,13 @@
       <c r="D87" s="113"/>
       <c r="E87" s="115"/>
       <c r="F87" s="116" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G87" s="117"/>
       <c r="H87" s="117"/>
       <c r="I87" s="117"/>
       <c r="J87" s="143" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K87" s="117"/>
       <c r="L87" s="117"/>
@@ -9268,7 +9496,7 @@
     </row>
     <row r="89" s="5" customFormat="1" ht="51.95" customHeight="1" spans="1:12">
       <c r="A89" s="124" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B89" s="125"/>
       <c r="C89" s="125"/>
@@ -9287,37 +9515,37 @@
         <v>45</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H90" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J90" s="70" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K90" s="71" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L90" s="149" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M90" s="149"/>
     </row>
@@ -9326,10 +9554,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D91" s="59">
         <v>1</v>
@@ -9357,10 +9585,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D92" s="59">
         <v>1</v>
@@ -9388,10 +9616,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="43" t="s">
         <v>180</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>174</v>
       </c>
       <c r="D93" s="59">
         <v>1</v>
@@ -9419,10 +9647,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="60" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D94" s="50">
         <v>1</v>
@@ -9450,10 +9678,10 @@
         <v>5</v>
       </c>
       <c r="B95" s="60" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D95" s="50"/>
       <c r="E95" s="51"/>
@@ -9477,10 +9705,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="60" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D96" s="50"/>
       <c r="E96" s="51"/>
@@ -9504,10 +9732,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="60" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D97" s="50">
         <v>1</v>
@@ -9535,10 +9763,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D98" s="50"/>
       <c r="E98" s="51"/>
@@ -9562,10 +9790,10 @@
         <v>9</v>
       </c>
       <c r="B99" s="60" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D99" s="50">
         <v>2</v>
@@ -9593,10 +9821,10 @@
         <v>10</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D100" s="50">
         <v>1</v>
@@ -9624,10 +9852,10 @@
         <v>11</v>
       </c>
       <c r="B101" s="60" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D101" s="50"/>
       <c r="E101" s="51"/>
@@ -9651,10 +9879,10 @@
         <v>12</v>
       </c>
       <c r="B102" s="60" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D102" s="50">
         <v>2</v>
@@ -9682,10 +9910,10 @@
         <v>13</v>
       </c>
       <c r="B103" s="60" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D103" s="50">
         <v>2</v>
@@ -9713,10 +9941,10 @@
         <v>14</v>
       </c>
       <c r="B104" s="60" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D104" s="50"/>
       <c r="E104" s="51"/>
@@ -9740,10 +9968,10 @@
         <v>15</v>
       </c>
       <c r="B105" s="60" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D105" s="50">
         <v>1</v>
@@ -9771,10 +9999,10 @@
         <v>16</v>
       </c>
       <c r="B106" s="60" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D106" s="50"/>
       <c r="E106" s="51"/>
@@ -9798,10 +10026,10 @@
         <v>17</v>
       </c>
       <c r="B107" s="60" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D107" s="50">
         <v>1</v>
@@ -9829,10 +10057,10 @@
         <v>18</v>
       </c>
       <c r="B108" s="60" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D108" s="50">
         <v>1</v>
@@ -9860,10 +10088,10 @@
         <v>19</v>
       </c>
       <c r="B109" s="60" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D109" s="50">
         <v>3</v>
@@ -9891,10 +10119,10 @@
         <v>20</v>
       </c>
       <c r="B110" s="60" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110" s="51"/>
@@ -9918,7 +10146,7 @@
         <v>21</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C111" s="129"/>
       <c r="D111" s="52"/>
@@ -9941,7 +10169,7 @@
     <row r="112" s="5" customFormat="1" ht="27.95" customHeight="1" spans="1:13">
       <c r="A112" s="62"/>
       <c r="B112" s="130" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="55"/>
@@ -9966,7 +10194,7 @@
     </row>
     <row r="113" s="5" customFormat="1" ht="51.95" customHeight="1" spans="1:13">
       <c r="A113" s="133" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B113" s="133"/>
       <c r="C113" s="133"/>
@@ -9983,7 +10211,7 @@
     </row>
     <row r="114" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A114" s="103" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B114" s="104"/>
       <c r="C114" s="104"/>
@@ -10003,37 +10231,37 @@
         <v>45</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C115" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H115" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I115" s="32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J115" s="70" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K115" s="71" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L115" s="149" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M115" s="149"/>
     </row>
@@ -10042,10 +10270,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C116" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D116" s="59">
         <v>1</v>
@@ -10075,10 +10303,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D117" s="59"/>
       <c r="E117" s="51"/>
@@ -10102,10 +10330,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C118" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D118" s="59"/>
       <c r="E118" s="51"/>
@@ -10129,10 +10357,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D119" s="59">
         <v>1</v>
@@ -10160,10 +10388,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D120" s="59"/>
       <c r="E120" s="51"/>
@@ -10187,10 +10415,10 @@
         <v>6</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D121" s="59"/>
       <c r="E121" s="51"/>
@@ -10214,10 +10442,10 @@
         <v>7</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C122" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D122" s="59"/>
       <c r="E122" s="51"/>
@@ -10241,10 +10469,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D123" s="59"/>
       <c r="E123" s="51"/>
@@ -10268,10 +10496,10 @@
         <v>9</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D124" s="59">
         <v>1</v>
@@ -10299,10 +10527,10 @@
         <v>10</v>
       </c>
       <c r="B125" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C125" s="43" t="s">
         <v>276</v>
-      </c>
-      <c r="C125" s="43" t="s">
-        <v>270</v>
       </c>
       <c r="D125" s="59"/>
       <c r="E125" s="51"/>
@@ -10326,10 +10554,10 @@
         <v>11</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D126" s="59"/>
       <c r="E126" s="51"/>
@@ -10353,10 +10581,10 @@
         <v>12</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D127" s="59">
         <v>1</v>
@@ -10384,10 +10612,10 @@
         <v>13</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D128" s="59"/>
       <c r="E128" s="51"/>
@@ -10411,10 +10639,10 @@
         <v>14</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D129" s="59"/>
       <c r="E129" s="51"/>
@@ -10438,7 +10666,7 @@
         <v>15</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C130" s="43"/>
       <c r="D130" s="59"/>
@@ -10461,7 +10689,7 @@
     <row r="131" s="5" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A131" s="137"/>
       <c r="B131" s="158" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C131" s="43"/>
       <c r="D131" s="59"/>
@@ -10486,7 +10714,7 @@
     </row>
     <row r="132" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A132" s="160" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B132" s="161"/>
       <c r="C132" s="161"/>
@@ -10506,37 +10734,37 @@
         <v>45</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C133" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E133" s="30" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G133" s="32" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H133" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I133" s="32" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J133" s="70" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K133" s="71" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L133" s="149" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M133" s="149"/>
     </row>
@@ -10545,10 +10773,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="163" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C134" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D134" s="165">
         <v>2</v>
@@ -10576,10 +10804,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="163" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C135" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D135" s="165">
         <v>1</v>
@@ -10607,10 +10835,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="163" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C136" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D136" s="165">
         <v>1</v>
@@ -10638,10 +10866,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="163" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C137" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D137" s="165">
         <v>2</v>
@@ -10664,7 +10892,7 @@
       </c>
       <c r="K137" s="183"/>
       <c r="L137" s="183" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M137" s="183"/>
     </row>
@@ -10673,10 +10901,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="163" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C138" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D138" s="165"/>
       <c r="E138" s="166"/>
@@ -10700,10 +10928,10 @@
         <v>6</v>
       </c>
       <c r="B139" s="163" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C139" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D139" s="165">
         <v>1</v>
@@ -10731,10 +10959,10 @@
         <v>7</v>
       </c>
       <c r="B140" s="163" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C140" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D140" s="165"/>
       <c r="E140" s="166"/>
@@ -10758,10 +10986,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="163" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C141" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D141" s="165"/>
       <c r="E141" s="166"/>
@@ -10785,10 +11013,10 @@
         <v>9</v>
       </c>
       <c r="B142" s="163" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C142" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D142" s="165">
         <v>1</v>
@@ -10816,10 +11044,10 @@
         <v>10</v>
       </c>
       <c r="B143" s="163" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C143" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D143" s="165"/>
       <c r="E143" s="166"/>
@@ -10843,10 +11071,10 @@
         <v>11</v>
       </c>
       <c r="B144" s="163" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C144" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D144" s="165"/>
       <c r="E144" s="166"/>
@@ -10870,10 +11098,10 @@
         <v>12</v>
       </c>
       <c r="B145" s="163" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C145" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D145" s="165">
         <v>1</v>
@@ -10901,10 +11129,10 @@
         <v>13</v>
       </c>
       <c r="B146" s="163" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C146" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D146" s="165"/>
       <c r="E146" s="166"/>
@@ -10928,10 +11156,10 @@
         <v>14</v>
       </c>
       <c r="B147" s="163" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C147" s="164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D147" s="165"/>
       <c r="E147" s="166"/>
@@ -10955,7 +11183,7 @@
         <v>15</v>
       </c>
       <c r="B148" s="163" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C148" s="164"/>
       <c r="D148" s="165"/>
@@ -10978,7 +11206,7 @@
     <row r="149" s="5" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A149" s="137"/>
       <c r="B149" s="158" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C149" s="43"/>
       <c r="D149" s="59"/>
@@ -11003,7 +11231,7 @@
     </row>
     <row r="150" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A150" s="160" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B150" s="161"/>
       <c r="C150" s="161"/>
@@ -11023,37 +11251,37 @@
         <v>45</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C151" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E151" s="30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I151" s="32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J151" s="70" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K151" s="71" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L151" s="72" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M151" s="73"/>
     </row>
@@ -11062,10 +11290,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="60" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C152" s="168" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D152" s="50"/>
       <c r="E152" s="51"/>
@@ -11089,10 +11317,10 @@
         <v>2</v>
       </c>
       <c r="B153" s="170" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C153" s="168" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D153" s="171"/>
       <c r="E153" s="172"/>
@@ -11116,10 +11344,10 @@
         <v>3</v>
       </c>
       <c r="B154" s="163" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C154" s="168" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D154" s="165">
         <v>1</v>
@@ -11147,10 +11375,10 @@
         <v>4</v>
       </c>
       <c r="B155" s="163" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C155" s="168" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D155" s="165">
         <v>1</v>
@@ -11178,10 +11406,10 @@
         <v>5</v>
       </c>
       <c r="B156" s="163" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C156" s="168" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D156" s="165"/>
       <c r="E156" s="166"/>
@@ -11205,10 +11433,10 @@
         <v>6</v>
       </c>
       <c r="B157" s="163" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C157" s="168" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D157" s="165"/>
       <c r="E157" s="166"/>
@@ -11230,7 +11458,7 @@
     <row r="158" s="5" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A158" s="137"/>
       <c r="B158" s="158" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C158" s="43"/>
       <c r="D158" s="59"/>
@@ -11253,7 +11481,7 @@
     <row r="159" s="5" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A159" s="55"/>
       <c r="B159" s="174" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C159" s="55"/>
       <c r="D159" s="55"/>
@@ -11278,7 +11506,7 @@
     </row>
     <row r="160" s="5" customFormat="1" ht="37" customHeight="1" spans="1:13">
       <c r="A160" s="175" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B160" s="176"/>
       <c r="C160" s="177"/>
@@ -11488,26 +11716,26 @@
   <sheetData>
     <row r="4" spans="4:6">
       <c r="D4" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E4" s="1">
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E7" s="2">
         <v>80</v>
@@ -11515,7 +11743,7 @@
     </row>
     <row r="8" spans="4:5">
       <c r="D8" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E8" s="2">
         <v>100</v>
@@ -11523,10 +11751,10 @@
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E11" s="2">
         <v>500</v>
@@ -11534,15 +11762,15 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E13" s="2">
         <v>800</v>
@@ -11553,7 +11781,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F14" s="1">
         <v>10000</v>
@@ -11561,7 +11789,7 @@
     </row>
     <row r="16" ht="33" spans="3:6">
       <c r="C16" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -11576,7 +11804,7 @@
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E17" s="2">
         <v>200</v>
@@ -11588,18 +11816,18 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E20" s="2">
         <v>2000</v>
@@ -11607,18 +11835,18 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E23" s="2">
         <v>80</v>
@@ -11626,7 +11854,7 @@
     </row>
     <row r="24" spans="4:5">
       <c r="D24" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E24" s="2">
         <v>200</v>
@@ -11634,21 +11862,21 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E28" s="2">
         <v>50</v>
@@ -11656,7 +11884,7 @@
     </row>
     <row r="29" spans="4:5">
       <c r="D29" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E29" s="2">
         <v>150</v>
@@ -11664,10 +11892,10 @@
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E31" s="2">
         <v>150</v>
@@ -11679,26 +11907,26 @@
     </row>
     <row r="32" spans="4:5">
       <c r="D32" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E36" s="1">
         <v>1000</v>
@@ -11706,10 +11934,10 @@
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E37" s="1">
         <v>800</v>
@@ -11717,10 +11945,10 @@
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E38" s="1">
         <v>700</v>
@@ -11728,10 +11956,10 @@
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E39" s="1">
         <v>500</v>
@@ -11743,15 +11971,15 @@
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E42" s="2">
         <v>100</v>
@@ -11759,7 +11987,7 @@
     </row>
     <row r="43" spans="4:5">
       <c r="D43" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E43" s="2">
         <v>100</v>
@@ -11767,18 +11995,18 @@
     </row>
     <row r="44" spans="4:5">
       <c r="D44" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E46" s="2">
         <v>300</v>
@@ -11790,7 +12018,7 @@
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E47" s="2">
         <v>700</v>
@@ -11798,10 +12026,10 @@
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E49" s="2">
         <v>300</v>
@@ -11813,10 +12041,10 @@
     </row>
     <row r="50" spans="3:5">
       <c r="C50" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E50" s="2">
         <v>600</v>
@@ -11824,13 +12052,13 @@
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F52" s="1">
         <v>2500</v>
@@ -11838,13 +12066,13 @@
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F54" s="1">
         <v>15000</v>
@@ -11858,10 +12086,10 @@
     </row>
     <row r="58" spans="3:6">
       <c r="C58" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E58" s="2">
         <v>300</v>
@@ -11873,7 +12101,7 @@
     </row>
     <row r="59" spans="4:5">
       <c r="D59" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E59" s="2">
         <v>500</v>
@@ -11881,10 +12109,10 @@
     </row>
     <row r="60" spans="4:5">
       <c r="D60" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -11899,7 +12127,7 @@
   <sheetPr/>
   <dimension ref="B1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -11914,10 +12142,10 @@
   <sheetData>
     <row r="1" spans="11:12">
       <c r="K1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -11927,411 +12155,411 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G4" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="I4" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F6" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I6" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="J6" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F8" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D11" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F11" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D12" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F12" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G12" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D13" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E13" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G13" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D14" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D16" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C18" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E18" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F18" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E20" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F20" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E24" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D27" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E28" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F28" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G28" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C30" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D30" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D31" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E31" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D32" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D33" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E33" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C36" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D36" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="C43" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D43" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D45" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E45" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F45" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="G45" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="C46" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D46" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D48" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F48" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D49" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/装修.xlsx
+++ b/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="501">
   <si>
     <t>核心需求</t>
   </si>
@@ -301,9 +301,6 @@
     <t>米</t>
   </si>
   <si>
-    <t>漏报了</t>
-  </si>
-  <si>
     <t>全屋</t>
   </si>
   <si>
@@ -322,7 +319,7 @@
     <t>墙固(黄墙)</t>
   </si>
   <si>
-    <t>漏了？</t>
+    <t>包含于地固</t>
   </si>
   <si>
     <t>地固(绿地)</t>
@@ -331,7 +328,7 @@
     <t>地面保护</t>
   </si>
   <si>
-    <t>包含于成品保护？</t>
+    <t>包含于成品保护</t>
   </si>
   <si>
     <t>成品保护</t>
@@ -343,13 +340,16 @@
     <t>踢脚线</t>
   </si>
   <si>
+    <t>包安装</t>
+  </si>
+  <si>
     <t>水电改造</t>
   </si>
   <si>
     <t>开线槽</t>
   </si>
   <si>
-    <t>包含于水电管部分？</t>
+    <t>包含于水电管部分</t>
   </si>
   <si>
     <t>给水管</t>
@@ -373,15 +373,12 @@
     <t>自购</t>
   </si>
   <si>
-    <t>数量有限制吗？</t>
+    <t>数量无限制</t>
   </si>
   <si>
     <t>前置过滤器</t>
   </si>
   <si>
-    <t>缺了</t>
-  </si>
-  <si>
     <t>灯具、五金安装</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>客厅主灯</t>
   </si>
   <si>
-    <t>是否包含于灯具安装</t>
-  </si>
-  <si>
     <t>餐厅主灯</t>
   </si>
   <si>
@@ -472,9 +466,6 @@
     <t>地砖卷边</t>
   </si>
   <si>
-    <t>墙面都被柜子挡住了，能否不刷</t>
-  </si>
-  <si>
     <t>墙砖铺贴</t>
   </si>
   <si>
@@ -538,7 +529,7 @@
     <t>回填</t>
   </si>
   <si>
-    <t>有包双管报价吗；是否含碰角处理</t>
+    <t>碰角处理</t>
   </si>
   <si>
     <t>洁具/台盆安装</t>
@@ -562,13 +553,7 @@
     <t>壁龛</t>
   </si>
   <si>
-    <t>已经算到砌墙里了吗？</t>
-  </si>
-  <si>
     <t>厨房</t>
-  </si>
-  <si>
-    <t>是否需要？</t>
   </si>
   <si>
     <t>门窗公司</t>
@@ -2831,7 +2816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3432,9 +3417,6 @@
     <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3448,9 +3430,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -3819,8 +3798,8 @@
   <sheetPr/>
   <dimension ref="B1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3832,202 +3811,202 @@
   <sheetData>
     <row r="1" ht="9" customHeight="1"/>
     <row r="2" ht="57.6" spans="2:3">
-      <c r="B2" s="212" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="213" t="s">
+      <c r="B2" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="211" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="2:3">
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="214" t="s">
+      <c r="C3" s="212" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="211" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="211" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="211" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="210" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="210" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="2:3">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="210" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="211" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="212" t="s">
+      <c r="C10" s="210" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="210" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="215" t="s">
+      <c r="C12" s="213" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="212" t="s">
+      <c r="B13" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="215" t="s">
+      <c r="C13" s="213" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="129.6" spans="2:3">
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="213" t="s">
+      <c r="C14" s="211" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="212" t="s">
+      <c r="C15" s="210" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="212" t="s">
+      <c r="B16" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="212" t="s">
+      <c r="C16" s="210" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="212" t="s">
+      <c r="C17" s="210" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="210" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="212" t="s">
+      <c r="B19" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="212" t="s">
+      <c r="C19" s="210" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="212" t="s">
+      <c r="B20" s="210" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="212" t="s">
+      <c r="C20" s="210" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="212" t="s">
+      <c r="C21" s="210" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="212" t="s">
+      <c r="B22" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="212" t="s">
+      <c r="C22" s="210" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="212" t="s">
+      <c r="B23" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="212" t="s">
+      <c r="C23" s="210" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="212" t="s">
+      <c r="C24" s="210" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="212" t="s">
+      <c r="B25" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="212" t="s">
+      <c r="C25" s="210" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="212" t="s">
+      <c r="B26" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="212" t="s">
+      <c r="C26" s="210" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4048,7 +4027,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -4116,10 +4095,10 @@
       <c r="N2" s="200" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="209" t="s">
+      <c r="O2" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="210" t="s">
+      <c r="P2" s="200" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4144,7 +4123,7 @@
       </c>
       <c r="G3" s="200"/>
       <c r="H3" s="200"/>
-      <c r="I3" s="211"/>
+      <c r="I3" s="209"/>
       <c r="J3" s="200">
         <f>(F3+G3)*D3</f>
         <v>617.5</v>
@@ -4158,13 +4137,13 @@
       </c>
       <c r="M3" s="200"/>
       <c r="N3" s="200"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="210"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="200"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="200"/>
       <c r="B4" s="200">
-        <f>B3+1</f>
+        <f t="shared" ref="B4:B11" si="0">B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="200" t="s">
@@ -4181,7 +4160,7 @@
       </c>
       <c r="G4" s="200"/>
       <c r="H4" s="200"/>
-      <c r="I4" s="211"/>
+      <c r="I4" s="209"/>
       <c r="J4" s="200">
         <f>(F4+G4)*D4</f>
         <v>488</v>
@@ -4190,13 +4169,13 @@
       <c r="L4" s="200"/>
       <c r="M4" s="200"/>
       <c r="N4" s="200"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="210"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="200"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="200"/>
       <c r="B5" s="200">
-        <f>B4+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="201" t="s">
@@ -4225,13 +4204,13 @@
       <c r="L5" s="200"/>
       <c r="M5" s="200"/>
       <c r="N5" s="200"/>
-      <c r="O5" s="209"/>
-      <c r="P5" s="210"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="200"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="200"/>
       <c r="B6" s="200">
-        <f>B5+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="201" t="s">
@@ -4257,13 +4236,13 @@
       <c r="L6" s="200"/>
       <c r="M6" s="200"/>
       <c r="N6" s="200"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="210"/>
+      <c r="O6" s="208"/>
+      <c r="P6" s="200"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="200"/>
       <c r="B7" s="200">
-        <f>B6+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="201" t="s">
@@ -4282,17 +4261,17 @@
       <c r="H7" s="200"/>
       <c r="I7" s="200"/>
       <c r="J7" s="200">
-        <f t="shared" ref="J7:J12" si="0">(F7+G7)*D7</f>
+        <f t="shared" ref="J7:J12" si="1">(F7+G7)*D7</f>
         <v>0</v>
       </c>
       <c r="K7" s="200">
-        <f t="shared" ref="K7:K12" si="1">H7*D7*(1+I7)</f>
+        <f t="shared" ref="K7:K12" si="2">H7*D7*(1+I7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="200"/>
       <c r="M7" s="200"/>
       <c r="N7" s="200"/>
-      <c r="O7" s="209"/>
+      <c r="O7" s="208"/>
       <c r="P7" s="200" t="s">
         <v>68</v>
       </c>
@@ -4300,7 +4279,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="200"/>
       <c r="B8" s="200">
-        <f>B7+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="201" t="s">
@@ -4319,14 +4298,14 @@
       <c r="H8" s="200"/>
       <c r="I8" s="200"/>
       <c r="J8" s="200">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="K8" s="200"/>
       <c r="L8" s="200"/>
       <c r="M8" s="200"/>
       <c r="N8" s="200"/>
-      <c r="O8" s="209"/>
+      <c r="O8" s="208"/>
       <c r="P8" s="200" t="s">
         <v>71</v>
       </c>
@@ -4334,7 +4313,7 @@
     <row r="9" spans="1:16">
       <c r="A9" s="200"/>
       <c r="B9" s="200">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="203" t="s">
@@ -4353,23 +4332,23 @@
       <c r="H9" s="200"/>
       <c r="I9" s="200"/>
       <c r="J9" s="200">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>428.5</v>
       </c>
       <c r="K9" s="200">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="200"/>
       <c r="M9" s="200"/>
       <c r="N9" s="200"/>
-      <c r="O9" s="209"/>
+      <c r="O9" s="208"/>
       <c r="P9" s="200"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="200"/>
       <c r="B10" s="200">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="203" t="s">
@@ -4388,17 +4367,17 @@
       <c r="H10" s="200"/>
       <c r="I10" s="200"/>
       <c r="J10" s="200">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="200">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="200"/>
       <c r="M10" s="200"/>
       <c r="N10" s="200"/>
-      <c r="O10" s="209"/>
+      <c r="O10" s="208"/>
       <c r="P10" s="200" t="s">
         <v>74</v>
       </c>
@@ -4406,7 +4385,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="200"/>
       <c r="B11" s="200">
-        <f>B10+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="203" t="s">
@@ -4425,17 +4404,17 @@
       <c r="H11" s="200"/>
       <c r="I11" s="200"/>
       <c r="J11" s="200">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="200">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="200"/>
       <c r="M11" s="200"/>
       <c r="N11" s="200"/>
-      <c r="O11" s="209"/>
+      <c r="O11" s="208"/>
       <c r="P11" s="200" t="s">
         <v>74</v>
       </c>
@@ -4461,20 +4440,18 @@
       <c r="H12" s="200"/>
       <c r="I12" s="200"/>
       <c r="J12" s="200">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="K12" s="200">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="200"/>
       <c r="M12" s="200"/>
       <c r="N12" s="200"/>
-      <c r="O12" s="209"/>
-      <c r="P12" s="210" t="s">
-        <v>78</v>
-      </c>
+      <c r="O12" s="208"/>
+      <c r="P12" s="200"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="200"/>
@@ -4491,24 +4468,24 @@
       <c r="L13" s="200"/>
       <c r="M13" s="200"/>
       <c r="N13" s="200"/>
-      <c r="O13" s="209"/>
-      <c r="P13" s="210"/>
+      <c r="O13" s="208"/>
+      <c r="P13" s="200"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="200" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="200">
         <v>1</v>
       </c>
       <c r="C14" s="201" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="200">
         <v>1</v>
       </c>
       <c r="E14" s="200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="202">
         <v>800</v>
@@ -4517,18 +4494,18 @@
       <c r="H14" s="200"/>
       <c r="I14" s="200"/>
       <c r="J14" s="200">
-        <f>(F14+G14)*D14</f>
+        <f t="shared" ref="J14:J25" si="3">(F14+G14)*D14</f>
         <v>800</v>
       </c>
       <c r="K14" s="200">
-        <f>H14*D14*(1+I14)</f>
+        <f t="shared" ref="K14:K25" si="4">H14*D14*(1+I14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="200"/>
       <c r="M14" s="200"/>
       <c r="N14" s="200"/>
-      <c r="O14" s="209"/>
-      <c r="P14" s="210"/>
+      <c r="O14" s="208"/>
+      <c r="P14" s="200"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="200">
@@ -4536,13 +4513,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="201" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="200">
         <v>1</v>
       </c>
       <c r="E15" s="200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="202">
         <v>800</v>
@@ -4551,33 +4528,33 @@
       <c r="H15" s="200"/>
       <c r="I15" s="200"/>
       <c r="J15" s="200">
-        <f>(F15+G15)*D15</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="K15" s="200">
-        <f>H15*D15*(1+I15)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L15" s="200"/>
       <c r="M15" s="200"/>
       <c r="N15" s="200"/>
-      <c r="O15" s="209"/>
-      <c r="P15" s="210"/>
+      <c r="O15" s="208"/>
+      <c r="P15" s="200"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="200"/>
       <c r="B16" s="200">
-        <f t="shared" ref="B16:B22" si="2">B15+1</f>
+        <f t="shared" ref="B16:B22" si="5">B15+1</f>
         <v>3</v>
       </c>
       <c r="C16" s="201" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="200">
         <v>1</v>
       </c>
       <c r="E16" s="200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="202">
         <v>800</v>
@@ -4586,27 +4563,27 @@
       <c r="H16" s="200"/>
       <c r="I16" s="200"/>
       <c r="J16" s="200">
-        <f>(F16+G16)*D16</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="K16" s="200">
-        <f>H16*D16*(1+I16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16" s="200"/>
       <c r="M16" s="200"/>
       <c r="N16" s="200"/>
-      <c r="O16" s="209"/>
-      <c r="P16" s="210"/>
+      <c r="O16" s="208"/>
+      <c r="P16" s="200"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="200"/>
       <c r="B17" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C17" s="201" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="200">
         <v>0</v>
@@ -4621,35 +4598,35 @@
       <c r="H17" s="200"/>
       <c r="I17" s="200"/>
       <c r="J17" s="200">
-        <f>(F17+G17)*D17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="200">
-        <f>H17*D17*(1+I17)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17" s="200"/>
       <c r="M17" s="200"/>
       <c r="N17" s="200"/>
-      <c r="O17" s="209"/>
+      <c r="O17" s="208"/>
       <c r="P17" s="200" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="200"/>
       <c r="B18" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C18" s="201" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="200">
         <v>1</v>
       </c>
       <c r="E18" s="200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="202">
         <v>700</v>
@@ -4658,33 +4635,33 @@
       <c r="H18" s="200"/>
       <c r="I18" s="200"/>
       <c r="J18" s="200">
-        <f>(F18+G18)*D18</f>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="K18" s="200">
-        <f>H18*D18*(1+I18)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L18" s="200"/>
       <c r="M18" s="200"/>
       <c r="N18" s="200"/>
-      <c r="O18" s="209"/>
+      <c r="O18" s="208"/>
       <c r="P18" s="200"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="200"/>
       <c r="B19" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C19" s="201" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="200">
         <v>0</v>
       </c>
       <c r="E19" s="200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="202">
         <v>0</v>
@@ -4693,35 +4670,35 @@
       <c r="H19" s="200"/>
       <c r="I19" s="200"/>
       <c r="J19" s="200">
-        <f>(F19+G19)*D19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="200">
-        <f>H19*D19*(1+I19)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L19" s="200"/>
       <c r="M19" s="200"/>
       <c r="N19" s="200"/>
-      <c r="O19" s="209"/>
+      <c r="O19" s="208"/>
       <c r="P19" s="200" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="200"/>
       <c r="B20" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C20" s="201" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="200">
         <v>1</v>
       </c>
       <c r="E20" s="200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="202">
         <v>800</v>
@@ -4730,33 +4707,33 @@
       <c r="H20" s="200"/>
       <c r="I20" s="200"/>
       <c r="J20" s="200">
-        <f>(F20+G20)*D20</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="K20" s="200">
-        <f>H20*D20*(1+I20)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20" s="200"/>
       <c r="M20" s="200"/>
       <c r="N20" s="200"/>
-      <c r="O20" s="209"/>
+      <c r="O20" s="208"/>
       <c r="P20" s="200"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="200"/>
       <c r="B21" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C21" s="201" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="200">
         <v>1</v>
       </c>
       <c r="E21" s="200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="202">
         <v>700</v>
@@ -4765,27 +4742,27 @@
       <c r="H21" s="200"/>
       <c r="I21" s="200"/>
       <c r="J21" s="200">
-        <f>(F21+G21)*D21</f>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="K21" s="200">
-        <f>H21*D21*(1+I21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L21" s="200"/>
       <c r="M21" s="200"/>
       <c r="N21" s="200"/>
-      <c r="O21" s="209"/>
+      <c r="O21" s="208"/>
       <c r="P21" s="200"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="200"/>
       <c r="B22" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C22" s="203" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="200">
         <v>0</v>
@@ -4797,22 +4774,24 @@
         <v>0</v>
       </c>
       <c r="G22" s="200"/>
-      <c r="H22" s="200"/>
+      <c r="H22" s="204">
+        <v>0</v>
+      </c>
       <c r="I22" s="200"/>
       <c r="J22" s="200">
-        <f>(F22+G22)*D22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K22" s="200">
-        <f>H22*D22*(1+I22)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22" s="200"/>
       <c r="M22" s="200"/>
       <c r="N22" s="200"/>
-      <c r="O22" s="209"/>
+      <c r="O22" s="208"/>
       <c r="P22" s="200" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -4826,17 +4805,17 @@
       <c r="H23" s="200"/>
       <c r="I23" s="200"/>
       <c r="J23" s="200">
-        <f>(F23+G23)*D23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K23" s="200">
-        <f>H23*D23*(1+I23)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L23" s="200"/>
       <c r="M23" s="200"/>
       <c r="N23" s="200"/>
-      <c r="O23" s="209"/>
+      <c r="O23" s="208"/>
       <c r="P23" s="200"/>
     </row>
     <row r="24" spans="1:16">
@@ -4849,7 +4828,7 @@
       <c r="C24" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="204">
+      <c r="D24" s="200">
         <v>0</v>
       </c>
       <c r="E24" s="200" t="s">
@@ -4862,17 +4841,17 @@
       <c r="H24" s="200"/>
       <c r="I24" s="200"/>
       <c r="J24" s="200">
-        <f>(F24+G24)*D24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="200">
-        <f>H24*D24*(1+I24)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L24" s="200"/>
       <c r="M24" s="200"/>
       <c r="N24" s="200"/>
-      <c r="O24" s="209"/>
+      <c r="O24" s="208"/>
       <c r="P24" s="200" t="s">
         <v>94</v>
       </c>
@@ -4880,13 +4859,13 @@
     <row r="25" spans="1:16">
       <c r="A25" s="200"/>
       <c r="B25" s="200">
-        <f>B24+1</f>
+        <f t="shared" ref="B25:B30" si="6">B24+1</f>
         <v>2</v>
       </c>
       <c r="C25" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="204">
+      <c r="D25" s="200">
         <v>76.6</v>
       </c>
       <c r="E25" s="200" t="s">
@@ -4899,23 +4878,23 @@
       <c r="H25" s="200"/>
       <c r="I25" s="200"/>
       <c r="J25" s="200">
-        <f>(F25+G25)*D25</f>
+        <f t="shared" si="3"/>
         <v>5362</v>
       </c>
       <c r="K25" s="200">
-        <f>H25*D25*(1+I25)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L25" s="200"/>
       <c r="M25" s="200"/>
       <c r="N25" s="200"/>
-      <c r="O25" s="209"/>
-      <c r="P25" s="210"/>
+      <c r="O25" s="208"/>
+      <c r="P25" s="200"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="200"/>
       <c r="B26" s="200">
-        <f>B25+1</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C26" s="201" t="s">
@@ -4934,58 +4913,58 @@
       <c r="H26" s="200"/>
       <c r="I26" s="200"/>
       <c r="J26" s="200">
-        <f t="shared" ref="J26:J31" si="3">(F26+G26)*D26</f>
+        <f t="shared" ref="J26:J31" si="7">(F26+G26)*D26</f>
         <v>1950</v>
       </c>
       <c r="K26" s="200">
-        <f t="shared" ref="K26:K31" si="4">H26*D26*(1+I26)</f>
+        <f t="shared" ref="K26:K31" si="8">H26*D26*(1+I26)</f>
         <v>0</v>
       </c>
       <c r="L26" s="200"/>
       <c r="M26" s="200"/>
       <c r="N26" s="200"/>
-      <c r="O26" s="209"/>
-      <c r="P26" s="210"/>
+      <c r="O26" s="208"/>
+      <c r="P26" s="200"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="200"/>
       <c r="B27" s="200">
-        <f>B26+1</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C27" s="201" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="200">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="E27" s="200" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F27" s="202">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="G27" s="200"/>
       <c r="H27" s="200"/>
       <c r="I27" s="200"/>
       <c r="J27" s="200">
-        <f t="shared" si="3"/>
-        <v>7200</v>
+        <f t="shared" si="7"/>
+        <v>1410</v>
       </c>
       <c r="K27" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L27" s="200"/>
       <c r="M27" s="200"/>
       <c r="N27" s="200"/>
-      <c r="O27" s="209"/>
-      <c r="P27" s="210"/>
+      <c r="O27" s="208"/>
+      <c r="P27" s="200"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="200"/>
       <c r="B28" s="200">
-        <f>B27+1</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C28" s="201" t="s">
@@ -5004,23 +4983,23 @@
       <c r="H28" s="200"/>
       <c r="I28" s="200"/>
       <c r="J28" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12980</v>
       </c>
       <c r="K28" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L28" s="200"/>
       <c r="M28" s="200"/>
       <c r="N28" s="200"/>
-      <c r="O28" s="209"/>
-      <c r="P28" s="210"/>
+      <c r="O28" s="208"/>
+      <c r="P28" s="200"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="200"/>
       <c r="B29" s="200">
-        <f>B28+1</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C29" s="201" t="s">
@@ -5036,16 +5015,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="200"/>
-      <c r="H29" s="205">
+      <c r="H29" s="204">
         <v>0</v>
       </c>
       <c r="I29" s="200"/>
       <c r="J29" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K29" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L29" s="200"/>
@@ -5053,7 +5032,7 @@
       <c r="N29" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="O29" s="209"/>
+      <c r="O29" s="208"/>
       <c r="P29" s="200" t="s">
         <v>102</v>
       </c>
@@ -5061,7 +5040,7 @@
     <row r="30" spans="1:16">
       <c r="A30" s="200"/>
       <c r="B30" s="200">
-        <f>B29+1</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C30" s="201" t="s">
@@ -5077,16 +5056,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="200"/>
-      <c r="H30" s="205">
+      <c r="H30" s="204">
         <v>0</v>
       </c>
       <c r="I30" s="200"/>
       <c r="J30" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K30" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L30" s="200"/>
@@ -5094,9 +5073,9 @@
       <c r="N30" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="O30" s="209"/>
+      <c r="O30" s="208"/>
       <c r="P30" s="200" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -5105,35 +5084,35 @@
         <v>8</v>
       </c>
       <c r="C31" s="201" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="200">
         <v>1</v>
       </c>
       <c r="E31" s="200" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="202">
         <v>500</v>
       </c>
       <c r="G31" s="200"/>
-      <c r="H31" s="205"/>
+      <c r="H31" s="204"/>
       <c r="I31" s="200"/>
       <c r="J31" s="200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K31" s="200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L31" s="200"/>
       <c r="M31" s="200"/>
       <c r="N31" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="O31" s="209"/>
-      <c r="P31" s="210"/>
+        <v>106</v>
+      </c>
+      <c r="O31" s="208"/>
+      <c r="P31" s="200"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="200"/>
@@ -5150,18 +5129,18 @@
       <c r="L32" s="200"/>
       <c r="M32" s="200"/>
       <c r="N32" s="200"/>
-      <c r="O32" s="209"/>
-      <c r="P32" s="210"/>
+      <c r="O32" s="208"/>
+      <c r="P32" s="200"/>
     </row>
     <row r="33" ht="31.2" spans="1:16">
-      <c r="A33" s="206" t="s">
-        <v>108</v>
+      <c r="A33" s="205" t="s">
+        <v>107</v>
       </c>
       <c r="B33" s="200">
         <v>1</v>
       </c>
       <c r="C33" s="201" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="200">
         <v>0</v>
@@ -5170,33 +5149,33 @@
         <v>62</v>
       </c>
       <c r="F33" s="202">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="G33" s="200"/>
-      <c r="H33" s="207"/>
+      <c r="H33" s="206"/>
       <c r="I33" s="200"/>
       <c r="J33" s="200">
-        <f>(F33+G33)*D33</f>
+        <f t="shared" ref="J33:J38" si="9">(F33+G33)*D33</f>
         <v>0</v>
       </c>
       <c r="K33" s="200">
-        <f>H33*D33*(1+I33)</f>
+        <f t="shared" ref="K33:K38" si="10">H33*D33*(1+I33)</f>
         <v>0</v>
       </c>
       <c r="L33" s="200"/>
       <c r="M33" s="200"/>
       <c r="N33" s="200"/>
-      <c r="O33" s="209"/>
-      <c r="P33" s="210"/>
+      <c r="O33" s="208"/>
+      <c r="P33" s="200"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="208"/>
+      <c r="A34" s="207"/>
       <c r="B34" s="200">
         <f>B33+1</f>
         <v>2</v>
       </c>
       <c r="C34" s="203" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="200">
         <v>0</v>
@@ -5211,27 +5190,27 @@
       <c r="H34" s="200"/>
       <c r="I34" s="200"/>
       <c r="J34" s="200">
-        <f>(F34+G34)*D34</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K34" s="200">
-        <f>H34*D34*(1+I34)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L34" s="200"/>
       <c r="M34" s="200"/>
       <c r="N34" s="200"/>
-      <c r="O34" s="209"/>
-      <c r="P34" s="210"/>
+      <c r="O34" s="208"/>
+      <c r="P34" s="200"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="200"/>
       <c r="B35" s="200">
-        <f>B33+1</f>
-        <v>2</v>
+        <f>B34+1</f>
+        <v>3</v>
       </c>
       <c r="C35" s="201" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="200">
         <v>0</v>
@@ -5243,30 +5222,30 @@
         <v>55</v>
       </c>
       <c r="G35" s="200"/>
-      <c r="H35" s="207"/>
+      <c r="H35" s="206"/>
       <c r="I35" s="200"/>
       <c r="J35" s="200">
-        <f>(F35+G35)*D35</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K35" s="200">
-        <f>H35*D35*(1+I35)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L35" s="200"/>
       <c r="M35" s="200"/>
       <c r="N35" s="200"/>
-      <c r="O35" s="209"/>
-      <c r="P35" s="210"/>
+      <c r="O35" s="208"/>
+      <c r="P35" s="200"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="200"/>
       <c r="B36" s="200">
         <f>B35+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="201" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="200">
         <v>0</v>
@@ -5278,30 +5257,30 @@
         <v>155</v>
       </c>
       <c r="G36" s="200"/>
-      <c r="H36" s="207"/>
+      <c r="H36" s="206"/>
       <c r="I36" s="200"/>
       <c r="J36" s="200">
-        <f>(F36+G36)*D36</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K36" s="200">
-        <f>H36*D36*(1+I36)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L36" s="200"/>
       <c r="M36" s="200"/>
       <c r="N36" s="200"/>
-      <c r="O36" s="209"/>
-      <c r="P36" s="210"/>
+      <c r="O36" s="208"/>
+      <c r="P36" s="200"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="200"/>
       <c r="B37" s="200">
         <f>B36+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="201" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="200">
         <v>5</v>
@@ -5313,60 +5292,60 @@
         <v>0</v>
       </c>
       <c r="G37" s="200"/>
-      <c r="H37" s="207"/>
+      <c r="H37" s="206"/>
       <c r="I37" s="200"/>
       <c r="J37" s="200">
-        <f>(F37+G37)*D37</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K37" s="200">
-        <f>H37*D37*(1+I37)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L37" s="200"/>
       <c r="M37" s="200"/>
       <c r="N37" s="200"/>
-      <c r="O37" s="209"/>
+      <c r="O37" s="208"/>
       <c r="P37" s="200" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="200"/>
       <c r="B38" s="200">
         <f>B37+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="201" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="200">
         <v>1</v>
       </c>
       <c r="E38" s="200" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="207"/>
+        <v>115</v>
+      </c>
+      <c r="F38" s="206"/>
       <c r="G38" s="200"/>
-      <c r="H38" s="205">
+      <c r="H38" s="204">
         <v>2400</v>
       </c>
       <c r="I38" s="200"/>
       <c r="J38" s="200">
-        <f>(F38+G38)*D38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K38" s="200">
-        <f>H38*D38*(1+I38)</f>
+        <f t="shared" si="10"/>
         <v>2400</v>
       </c>
       <c r="L38" s="200"/>
       <c r="M38" s="200"/>
       <c r="N38" s="200" t="s">
-        <v>117</v>
-      </c>
-      <c r="O38" s="209"/>
-      <c r="P38" s="210"/>
+        <v>116</v>
+      </c>
+      <c r="O38" s="208"/>
+      <c r="P38" s="200"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="200"/>
@@ -5383,18 +5362,18 @@
       <c r="L39" s="200"/>
       <c r="M39" s="200"/>
       <c r="N39" s="200"/>
-      <c r="O39" s="209"/>
-      <c r="P39" s="210"/>
+      <c r="O39" s="208"/>
+      <c r="P39" s="200"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="200" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="200">
         <v>1</v>
       </c>
       <c r="C40" s="203" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="200">
         <v>45.3</v>
@@ -5403,39 +5382,39 @@
         <v>62</v>
       </c>
       <c r="F40" s="202">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="G40" s="200"/>
-      <c r="H40" s="205">
-        <v>0</v>
-      </c>
-      <c r="I40" s="211">
+      <c r="H40" s="204">
+        <v>0</v>
+      </c>
+      <c r="I40" s="209">
         <v>0.03</v>
       </c>
       <c r="J40" s="200">
-        <f t="shared" ref="J40:J45" si="5">(F40+G40)*D40</f>
-        <v>5798.4</v>
+        <f t="shared" ref="J40:J46" si="11">(F40+G40)*D40</f>
+        <v>3986.4</v>
       </c>
       <c r="K40" s="200">
-        <f t="shared" ref="K40:K45" si="6">H40*D40*(1+I40)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="208" t="s">
-        <v>120</v>
-      </c>
-      <c r="M40" s="206"/>
+        <f t="shared" ref="K40:K46" si="12">H40*D40*(1+I40)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="207" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" s="205"/>
       <c r="N40" s="200"/>
-      <c r="O40" s="209"/>
-      <c r="P40" s="210"/>
+      <c r="O40" s="208"/>
+      <c r="P40" s="200"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="208"/>
+      <c r="A41" s="207"/>
       <c r="B41" s="200">
-        <f>B40+1</f>
+        <f t="shared" ref="B41:B50" si="13">B40+1</f>
         <v>2</v>
       </c>
       <c r="C41" s="203" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="200">
         <v>45.3</v>
@@ -5450,27 +5429,27 @@
       <c r="H41" s="200"/>
       <c r="I41" s="200"/>
       <c r="J41" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2491.5</v>
       </c>
       <c r="K41" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L41" s="200"/>
       <c r="M41" s="200"/>
       <c r="N41" s="200"/>
-      <c r="O41" s="209"/>
-      <c r="P41" s="210"/>
+      <c r="O41" s="208"/>
+      <c r="P41" s="200"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="208"/>
+      <c r="A42" s="207"/>
       <c r="B42" s="200">
-        <f>B41+1</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="C42" s="203" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="200">
         <v>84.28</v>
@@ -5485,27 +5464,27 @@
       <c r="H42" s="200"/>
       <c r="I42" s="200"/>
       <c r="J42" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4635.4</v>
       </c>
       <c r="K42" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L42" s="200"/>
       <c r="M42" s="200"/>
       <c r="N42" s="200"/>
-      <c r="O42" s="209"/>
-      <c r="P42" s="210"/>
+      <c r="O42" s="208"/>
+      <c r="P42" s="200"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="208"/>
+      <c r="A43" s="207"/>
       <c r="B43" s="200">
-        <f>B42+1</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="C43" s="203" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" s="200">
         <v>15</v>
@@ -5517,32 +5496,32 @@
         <v>155</v>
       </c>
       <c r="G43" s="200"/>
-      <c r="H43" s="207"/>
+      <c r="H43" s="206"/>
       <c r="I43" s="200"/>
       <c r="J43" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2325</v>
       </c>
       <c r="K43" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L43" s="200" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M43" s="200"/>
       <c r="N43" s="200"/>
-      <c r="O43" s="209"/>
-      <c r="P43" s="210"/>
+      <c r="O43" s="208"/>
+      <c r="P43" s="200"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="208"/>
+      <c r="A44" s="207"/>
       <c r="B44" s="200">
-        <f>B43+1</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="C44" s="203" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D44" s="200">
         <v>25</v>
@@ -5554,30 +5533,30 @@
         <v>195</v>
       </c>
       <c r="G44" s="200"/>
-      <c r="H44" s="207"/>
+      <c r="H44" s="206"/>
       <c r="I44" s="200"/>
       <c r="J44" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4875</v>
       </c>
       <c r="K44" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L44" s="200"/>
       <c r="M44" s="200"/>
       <c r="N44" s="200"/>
-      <c r="O44" s="209"/>
-      <c r="P44" s="210"/>
+      <c r="O44" s="208"/>
+      <c r="P44" s="200"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="208"/>
+      <c r="A45" s="207"/>
       <c r="B45" s="200">
-        <f>B44+1</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="C45" s="203" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45" s="200">
         <v>2</v>
@@ -5589,36 +5568,36 @@
         <v>0</v>
       </c>
       <c r="G45" s="200"/>
-      <c r="H45" s="205">
+      <c r="H45" s="204">
         <v>0</v>
       </c>
       <c r="I45" s="200"/>
       <c r="J45" s="200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K45" s="200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L45" s="200"/>
       <c r="M45" s="200"/>
       <c r="N45" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="O45" s="209"/>
-      <c r="P45" s="210" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="O45" s="208"/>
+      <c r="P45" s="200" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="208"/>
+      <c r="A46" s="207"/>
       <c r="B46" s="200">
-        <f>B45+1</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="C46" s="203" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D46" s="200">
         <v>1</v>
@@ -5630,36 +5609,36 @@
         <v>0</v>
       </c>
       <c r="G46" s="200"/>
-      <c r="H46" s="205">
+      <c r="H46" s="204">
         <v>0</v>
       </c>
       <c r="I46" s="200"/>
       <c r="J46" s="200">
-        <f>(F46+G46)*D46</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K46" s="200">
-        <f>H46*D46*(1+I46)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L46" s="200"/>
       <c r="M46" s="200"/>
       <c r="N46" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="O46" s="209"/>
-      <c r="P46" s="210" t="s">
+        <v>106</v>
+      </c>
+      <c r="O46" s="208"/>
+      <c r="P46" s="200" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="207"/>
+      <c r="B47" s="200">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="C47" s="201" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="208"/>
-      <c r="B47" s="200">
-        <f>B46+1</f>
-        <v>8</v>
-      </c>
-      <c r="C47" s="201" t="s">
-        <v>127</v>
       </c>
       <c r="D47" s="200">
         <v>3</v>
@@ -5671,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="200"/>
-      <c r="H47" s="205">
+      <c r="H47" s="204">
         <v>0</v>
       </c>
       <c r="I47" s="200"/>
@@ -5680,95 +5659,95 @@
       <c r="L47" s="200"/>
       <c r="M47" s="200"/>
       <c r="N47" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="O47" s="209"/>
+        <v>106</v>
+      </c>
+      <c r="O47" s="208"/>
       <c r="P47" s="200" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="208"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="200">
-        <f>B47+1</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="C48" s="203" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D48" s="200">
         <v>0</v>
       </c>
       <c r="E48" s="200" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="207"/>
+        <v>127</v>
+      </c>
+      <c r="F48" s="206"/>
       <c r="G48" s="200"/>
-      <c r="H48" s="205">
+      <c r="H48" s="204">
         <v>0</v>
       </c>
       <c r="I48" s="200"/>
       <c r="J48" s="200">
-        <f t="shared" ref="J48:J53" si="7">(F48+G48)*D48</f>
+        <f t="shared" ref="J48:J60" si="14">(F48+G48)*D48</f>
         <v>0</v>
       </c>
       <c r="K48" s="200">
-        <f t="shared" ref="K48:K53" si="8">H48*D48*(1+I48)</f>
+        <f t="shared" ref="K48:K60" si="15">H48*D48*(1+I48)</f>
         <v>0</v>
       </c>
       <c r="L48" s="200"/>
       <c r="M48" s="200"/>
       <c r="N48" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="O48" s="209"/>
-      <c r="P48" s="210"/>
+        <v>128</v>
+      </c>
+      <c r="O48" s="208"/>
+      <c r="P48" s="200"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="208"/>
+      <c r="A49" s="207"/>
       <c r="B49" s="200">
-        <f>B48+1</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C49" s="203" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D49" s="200">
         <v>0</v>
       </c>
       <c r="E49" s="200" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="207"/>
+        <v>127</v>
+      </c>
+      <c r="F49" s="206"/>
       <c r="G49" s="200"/>
-      <c r="H49" s="205">
+      <c r="H49" s="204">
         <v>0</v>
       </c>
       <c r="I49" s="200"/>
       <c r="J49" s="200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K49" s="200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L49" s="200"/>
       <c r="M49" s="200"/>
       <c r="N49" s="200" t="s">
+        <v>128</v>
+      </c>
+      <c r="O49" s="208"/>
+      <c r="P49" s="200"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="207"/>
+      <c r="B50" s="200">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="C50" s="203" t="s">
         <v>130</v>
-      </c>
-      <c r="O49" s="209"/>
-      <c r="P49" s="210"/>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="208"/>
-      <c r="B50" s="200">
-        <f>B49+1</f>
-        <v>11</v>
-      </c>
-      <c r="C50" s="203" t="s">
-        <v>132</v>
       </c>
       <c r="D50" s="200">
         <v>5.8</v>
@@ -5780,24 +5759,24 @@
         <v>110</v>
       </c>
       <c r="G50" s="200"/>
-      <c r="H50" s="207"/>
+      <c r="H50" s="206"/>
       <c r="I50" s="200"/>
       <c r="J50" s="200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>638</v>
       </c>
       <c r="K50" s="200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L50" s="200"/>
       <c r="M50" s="200"/>
       <c r="N50" s="200"/>
-      <c r="O50" s="209"/>
-      <c r="P50" s="210"/>
+      <c r="O50" s="208"/>
+      <c r="P50" s="200"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="208"/>
+      <c r="A51" s="207"/>
       <c r="B51" s="200"/>
       <c r="C51" s="203"/>
       <c r="D51" s="200"/>
@@ -5811,18 +5790,18 @@
       <c r="L51" s="200"/>
       <c r="M51" s="200"/>
       <c r="N51" s="200"/>
-      <c r="O51" s="209"/>
-      <c r="P51" s="210"/>
+      <c r="O51" s="208"/>
+      <c r="P51" s="200"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="200" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B52" s="200">
         <v>1</v>
       </c>
       <c r="C52" s="203" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D52" s="200">
         <v>7.7</v>
@@ -5831,24 +5810,24 @@
         <v>62</v>
       </c>
       <c r="F52" s="202">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G52" s="200"/>
       <c r="H52" s="200"/>
       <c r="I52" s="200"/>
       <c r="J52" s="200">
-        <f t="shared" si="7"/>
-        <v>754.6</v>
+        <f t="shared" si="14"/>
+        <v>677.6</v>
       </c>
       <c r="K52" s="200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L52" s="200"/>
       <c r="M52" s="200"/>
       <c r="N52" s="200"/>
-      <c r="O52" s="209"/>
-      <c r="P52" s="210"/>
+      <c r="O52" s="208"/>
+      <c r="P52" s="200"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="200"/>
@@ -5857,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="203" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D53" s="200">
         <v>2</v>
@@ -5872,27 +5851,27 @@
       <c r="H53" s="200"/>
       <c r="I53" s="200"/>
       <c r="J53" s="200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="K53" s="200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L53" s="200"/>
       <c r="M53" s="200"/>
       <c r="N53" s="200"/>
-      <c r="O53" s="209"/>
-      <c r="P53" s="210"/>
+      <c r="O53" s="208"/>
+      <c r="P53" s="200"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="200"/>
       <c r="B54" s="200">
-        <f t="shared" ref="B54:B61" si="9">B53+1</f>
+        <f t="shared" ref="B54:B61" si="16">B53+1</f>
         <v>3</v>
       </c>
       <c r="C54" s="203" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D54" s="200">
         <v>7.7</v>
@@ -5907,30 +5886,30 @@
       <c r="H54" s="200"/>
       <c r="I54" s="200"/>
       <c r="J54" s="200">
-        <f>(F54+G54)*D54</f>
+        <f t="shared" si="14"/>
         <v>423.5</v>
       </c>
       <c r="K54" s="200">
-        <f>H54*D54*(1+I54)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L54" s="200"/>
       <c r="M54" s="200"/>
       <c r="N54" s="200"/>
-      <c r="O54" s="209"/>
-      <c r="P54" s="210"/>
+      <c r="O54" s="208"/>
+      <c r="P54" s="200"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="208"/>
+      <c r="A55" s="207"/>
       <c r="B55" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="C55" s="201" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="200">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E55" s="200" t="s">
         <v>62</v>
@@ -5942,29 +5921,27 @@
       <c r="H55" s="200"/>
       <c r="I55" s="200"/>
       <c r="J55" s="200">
-        <f>(F55+G55)*D55</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>990</v>
       </c>
       <c r="K55" s="200">
-        <f>H55*D55*(1+I55)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L55" s="200"/>
       <c r="M55" s="200"/>
       <c r="N55" s="200"/>
-      <c r="O55" s="209"/>
-      <c r="P55" s="210" t="s">
-        <v>135</v>
-      </c>
+      <c r="O55" s="208"/>
+      <c r="P55" s="200"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="208"/>
+      <c r="A56" s="207"/>
       <c r="B56" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="C56" s="201" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D56" s="200">
         <v>0</v>
@@ -5979,29 +5956,29 @@
       <c r="H56" s="200"/>
       <c r="I56" s="200"/>
       <c r="J56" s="200">
-        <f>(F56+G56)*D56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K56" s="200">
-        <f>H56*D56*(1+I56)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L56" s="200"/>
       <c r="M56" s="200"/>
       <c r="N56" s="200"/>
-      <c r="O56" s="209"/>
-      <c r="P56" s="210"/>
+      <c r="O56" s="208"/>
+      <c r="P56" s="200"/>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="200"/>
       <c r="B57" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="C57" s="203" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="204">
+        <v>134</v>
+      </c>
+      <c r="D57" s="200">
         <v>1</v>
       </c>
       <c r="E57" s="200" t="s">
@@ -6014,23 +5991,23 @@
       <c r="H57" s="200"/>
       <c r="I57" s="200"/>
       <c r="J57" s="200">
-        <f>(F57+G57)*D57</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K57" s="200">
-        <f>H57*D57*(1+I57)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L57" s="200"/>
       <c r="M57" s="200"/>
       <c r="N57" s="200"/>
-      <c r="O57" s="209"/>
-      <c r="P57" s="210"/>
+      <c r="O57" s="208"/>
+      <c r="P57" s="200"/>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="200"/>
       <c r="B58" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="C58" s="201" t="s">
@@ -6049,65 +6026,65 @@
       <c r="H58" s="200"/>
       <c r="I58" s="200"/>
       <c r="J58" s="200">
-        <f>(F58+G58)*D58</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K58" s="200">
-        <f>H58*D58*(1+I58)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L58" s="200"/>
       <c r="M58" s="200"/>
       <c r="N58" s="200"/>
-      <c r="O58" s="209"/>
-      <c r="P58" s="210" t="s">
+      <c r="O58" s="208"/>
+      <c r="P58" s="200" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="200"/>
       <c r="B59" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="C59" s="201" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D59" s="200">
         <v>0</v>
       </c>
       <c r="E59" s="200" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F59" s="200"/>
       <c r="G59" s="200"/>
-      <c r="H59" s="205">
+      <c r="H59" s="204">
         <v>0</v>
       </c>
       <c r="I59" s="200"/>
       <c r="J59" s="200">
-        <f>(F59+G59)*D59</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K59" s="200">
-        <f>H59*D59*(1+I59)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M59" s="200"/>
       <c r="N59" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="O59" s="209"/>
-      <c r="P59" s="210"/>
+        <v>128</v>
+      </c>
+      <c r="O59" s="208"/>
+      <c r="P59" s="200"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="200"/>
       <c r="B60" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="C60" s="201" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D60" s="200">
         <v>7.7</v>
@@ -6122,33 +6099,33 @@
       <c r="H60" s="200"/>
       <c r="I60" s="200"/>
       <c r="J60" s="200">
-        <f>(F60+G60)*D60</f>
+        <f t="shared" si="14"/>
         <v>577.5</v>
       </c>
       <c r="K60" s="200">
-        <f>H60*D60*(1+I60)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L60" s="200"/>
       <c r="M60" s="200"/>
       <c r="N60" s="200"/>
-      <c r="O60" s="209"/>
-      <c r="P60" s="210"/>
+      <c r="O60" s="208"/>
+      <c r="P60" s="200"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="200"/>
       <c r="B61" s="200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="C61" s="201" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D61" s="200">
         <v>1</v>
       </c>
       <c r="E61" s="200" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F61" s="202">
         <v>150</v>
@@ -6157,20 +6134,20 @@
       <c r="H61" s="200"/>
       <c r="I61" s="200"/>
       <c r="J61" s="200">
-        <f t="shared" ref="J61:J64" si="10">(F61+G61)*D61</f>
+        <f t="shared" ref="J61:J64" si="17">(F61+G61)*D61</f>
         <v>150</v>
       </c>
       <c r="K61" s="200">
-        <f t="shared" ref="K61:K64" si="11">H61*D61*(1+I61)</f>
+        <f t="shared" ref="K61:K64" si="18">H61*D61*(1+I61)</f>
         <v>0</v>
       </c>
       <c r="L61" s="200" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M61" s="200"/>
       <c r="N61" s="200"/>
-      <c r="O61" s="209"/>
-      <c r="P61" s="210"/>
+      <c r="O61" s="208"/>
+      <c r="P61" s="200"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="200"/>
@@ -6187,18 +6164,18 @@
       <c r="L62" s="200"/>
       <c r="M62" s="200"/>
       <c r="N62" s="200"/>
-      <c r="O62" s="209"/>
-      <c r="P62" s="210"/>
+      <c r="O62" s="208"/>
+      <c r="P62" s="200"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="200" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B63" s="200">
         <v>1</v>
       </c>
       <c r="C63" s="203" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D63" s="200">
         <v>15.8</v>
@@ -6207,24 +6184,24 @@
         <v>62</v>
       </c>
       <c r="F63" s="202">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G63" s="200"/>
       <c r="H63" s="200"/>
       <c r="I63" s="200"/>
       <c r="J63" s="200">
-        <f t="shared" si="10"/>
-        <v>1817</v>
+        <f t="shared" si="17"/>
+        <v>1390.4</v>
       </c>
       <c r="K63" s="200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L63" s="200"/>
       <c r="M63" s="200"/>
       <c r="N63" s="200"/>
-      <c r="O63" s="209"/>
-      <c r="P63" s="210"/>
+      <c r="O63" s="208"/>
+      <c r="P63" s="200"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="200"/>
@@ -6233,7 +6210,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="203" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D64" s="200">
         <v>15.8</v>
@@ -6248,27 +6225,27 @@
       <c r="H64" s="200"/>
       <c r="I64" s="200"/>
       <c r="J64" s="200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>869</v>
       </c>
       <c r="K64" s="200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L64" s="200"/>
       <c r="M64" s="200"/>
       <c r="N64" s="200"/>
-      <c r="O64" s="209"/>
-      <c r="P64" s="210"/>
+      <c r="O64" s="208"/>
+      <c r="P64" s="200"/>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="200"/>
       <c r="B65" s="200">
-        <f t="shared" ref="B65:B70" si="12">B64+1</f>
+        <f t="shared" ref="B65:B70" si="19">B64+1</f>
         <v>3</v>
       </c>
       <c r="C65" s="203" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" s="200">
         <v>45.88</v>
@@ -6283,27 +6260,27 @@
       <c r="H65" s="200"/>
       <c r="I65" s="200"/>
       <c r="J65" s="200">
-        <f t="shared" ref="J65:J70" si="13">(F65+G65)*D65</f>
+        <f t="shared" ref="J65:J70" si="20">(F65+G65)*D65</f>
         <v>2523.4</v>
       </c>
       <c r="K65" s="200">
-        <f t="shared" ref="K65:K70" si="14">H65*D65*(1+I65)</f>
+        <f t="shared" ref="K65:K70" si="21">H65*D65*(1+I65)</f>
         <v>0</v>
       </c>
       <c r="L65" s="200"/>
       <c r="M65" s="200"/>
       <c r="N65" s="200"/>
-      <c r="O65" s="209"/>
-      <c r="P65" s="210"/>
+      <c r="O65" s="208"/>
+      <c r="P65" s="200"/>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="200"/>
       <c r="B66" s="200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="C66" s="203" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D66" s="200">
         <v>0</v>
@@ -6318,29 +6295,29 @@
       <c r="H66" s="200"/>
       <c r="I66" s="200"/>
       <c r="J66" s="200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K66" s="200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L66" s="200"/>
       <c r="M66" s="200"/>
       <c r="N66" s="200"/>
-      <c r="O66" s="209"/>
-      <c r="P66" s="210" t="s">
-        <v>145</v>
+      <c r="O66" s="208"/>
+      <c r="P66" s="200" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="200"/>
       <c r="B67" s="200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C67" s="203" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D67" s="200">
         <v>0</v>
@@ -6350,34 +6327,34 @@
       </c>
       <c r="F67" s="202"/>
       <c r="G67" s="200"/>
-      <c r="H67" s="205">
+      <c r="H67" s="204">
         <v>0</v>
       </c>
       <c r="I67" s="200"/>
       <c r="J67" s="200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K67" s="200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L67" s="200"/>
       <c r="M67" s="200"/>
       <c r="N67" s="200"/>
-      <c r="O67" s="209"/>
+      <c r="O67" s="208"/>
       <c r="P67" s="200" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="200"/>
       <c r="B68" s="200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="C68" s="203" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D68" s="200">
         <v>0</v>
@@ -6387,7 +6364,7 @@
       </c>
       <c r="F68" s="202"/>
       <c r="G68" s="200"/>
-      <c r="H68" s="205">
+      <c r="H68" s="204">
         <v>0</v>
       </c>
       <c r="I68" s="200"/>
@@ -6396,19 +6373,19 @@
       <c r="L68" s="200"/>
       <c r="M68" s="200"/>
       <c r="N68" s="200"/>
-      <c r="O68" s="209"/>
-      <c r="P68" s="210" t="s">
-        <v>125</v>
+      <c r="O68" s="208"/>
+      <c r="P68" s="200" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="200"/>
       <c r="B69" s="200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="C69" s="203" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D69" s="200">
         <v>0</v>
@@ -6418,61 +6395,61 @@
       </c>
       <c r="F69" s="202"/>
       <c r="G69" s="200"/>
-      <c r="H69" s="205">
+      <c r="H69" s="204">
         <v>0</v>
       </c>
       <c r="I69" s="200"/>
       <c r="J69" s="200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K69" s="200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L69" s="200"/>
       <c r="M69" s="200"/>
       <c r="N69" s="200" t="s">
-        <v>117</v>
-      </c>
-      <c r="O69" s="209"/>
-      <c r="P69" s="210"/>
+        <v>116</v>
+      </c>
+      <c r="O69" s="208"/>
+      <c r="P69" s="200"/>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="200"/>
       <c r="B70" s="200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="C70" s="201" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D70" s="200">
         <v>0</v>
       </c>
       <c r="E70" s="200" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F70" s="200"/>
       <c r="G70" s="200"/>
-      <c r="H70" s="205">
+      <c r="H70" s="204">
         <v>0</v>
       </c>
       <c r="I70" s="200"/>
       <c r="J70" s="200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K70" s="200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M70" s="200"/>
       <c r="N70" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="O70" s="209"/>
-      <c r="P70" s="210"/>
+        <v>128</v>
+      </c>
+      <c r="O70" s="208"/>
+      <c r="P70" s="200"/>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="200"/>
@@ -6489,18 +6466,18 @@
       <c r="L71" s="200"/>
       <c r="M71" s="200"/>
       <c r="N71" s="200"/>
-      <c r="O71" s="209"/>
-      <c r="P71" s="210"/>
+      <c r="O71" s="208"/>
+      <c r="P71" s="200"/>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="200" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B72" s="200">
         <v>1</v>
       </c>
       <c r="C72" s="203" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" s="200">
         <v>10.1</v>
@@ -6509,24 +6486,24 @@
         <v>62</v>
       </c>
       <c r="F72" s="202">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G72" s="200"/>
       <c r="H72" s="200"/>
       <c r="I72" s="200"/>
       <c r="J72" s="200">
-        <f t="shared" ref="J72:J77" si="15">(F72+G72)*D72</f>
-        <v>1161.5</v>
+        <f t="shared" ref="J72:J77" si="22">(F72+G72)*D72</f>
+        <v>888.8</v>
       </c>
       <c r="K72" s="200">
-        <f t="shared" ref="K72:K77" si="16">H72*D72*(1+I72)</f>
+        <f t="shared" ref="K72:K77" si="23">H72*D72*(1+I72)</f>
         <v>0</v>
       </c>
       <c r="L72" s="200"/>
       <c r="M72" s="200"/>
       <c r="N72" s="200"/>
-      <c r="O72" s="209"/>
-      <c r="P72" s="210"/>
+      <c r="O72" s="208"/>
+      <c r="P72" s="200"/>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="200"/>
@@ -6535,7 +6512,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="203" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="200">
         <v>10.1</v>
@@ -6550,27 +6527,27 @@
       <c r="H73" s="200"/>
       <c r="I73" s="200"/>
       <c r="J73" s="200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>555.5</v>
       </c>
       <c r="K73" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L73" s="200"/>
       <c r="M73" s="200"/>
       <c r="N73" s="200"/>
-      <c r="O73" s="209"/>
-      <c r="P73" s="210"/>
+      <c r="O73" s="208"/>
+      <c r="P73" s="200"/>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="200"/>
       <c r="B74" s="200">
-        <f t="shared" ref="B74:B79" si="17">B73+1</f>
+        <f t="shared" ref="B74:B79" si="24">B73+1</f>
         <v>3</v>
       </c>
       <c r="C74" s="203" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="200">
         <v>37.13</v>
@@ -6585,27 +6562,27 @@
       <c r="H74" s="200"/>
       <c r="I74" s="200"/>
       <c r="J74" s="200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2042.15</v>
       </c>
       <c r="K74" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L74" s="200"/>
       <c r="M74" s="200"/>
       <c r="N74" s="200"/>
-      <c r="O74" s="209"/>
-      <c r="P74" s="210"/>
+      <c r="O74" s="208"/>
+      <c r="P74" s="200"/>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="200"/>
       <c r="B75" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="C75" s="203" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D75" s="200">
         <v>0</v>
@@ -6620,29 +6597,29 @@
       <c r="H75" s="200"/>
       <c r="I75" s="200"/>
       <c r="J75" s="200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K75" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L75" s="200"/>
       <c r="M75" s="200"/>
       <c r="N75" s="200"/>
-      <c r="O75" s="209"/>
-      <c r="P75" s="210" t="s">
-        <v>145</v>
+      <c r="O75" s="208"/>
+      <c r="P75" s="200" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="200"/>
       <c r="B76" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="C76" s="203" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D76" s="200">
         <v>0</v>
@@ -6654,36 +6631,36 @@
         <v>0</v>
       </c>
       <c r="G76" s="200"/>
-      <c r="H76" s="205">
+      <c r="H76" s="204">
         <v>0</v>
       </c>
       <c r="I76" s="200"/>
       <c r="J76" s="200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K76" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L76" s="200"/>
       <c r="M76" s="200"/>
       <c r="N76" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="O76" s="209"/>
+        <v>106</v>
+      </c>
+      <c r="O76" s="208"/>
       <c r="P76" s="200" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="200"/>
       <c r="B77" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="C77" s="203" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D77" s="200">
         <v>0</v>
@@ -6695,36 +6672,36 @@
         <v>0</v>
       </c>
       <c r="G77" s="200"/>
-      <c r="H77" s="205">
+      <c r="H77" s="204">
         <v>0</v>
       </c>
       <c r="I77" s="200"/>
       <c r="J77" s="200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K77" s="200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L77" s="200"/>
       <c r="M77" s="200"/>
       <c r="N77" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="O77" s="209"/>
-      <c r="P77" s="210" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="O77" s="208"/>
+      <c r="P77" s="200" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="200"/>
       <c r="B78" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="C78" s="203" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D78" s="200">
         <v>0</v>
@@ -6736,62 +6713,62 @@
         <v>0</v>
       </c>
       <c r="G78" s="200"/>
-      <c r="H78" s="205">
+      <c r="H78" s="204">
         <v>0</v>
       </c>
       <c r="I78" s="200"/>
       <c r="J78" s="200">
-        <f t="shared" ref="J78:J82" si="18">(F78+G78)*D78</f>
+        <f t="shared" ref="J78:J82" si="25">(F78+G78)*D78</f>
         <v>0</v>
       </c>
       <c r="K78" s="200">
-        <f t="shared" ref="K78:K82" si="19">H78*D78*(1+I78)</f>
+        <f t="shared" ref="K78:K82" si="26">H78*D78*(1+I78)</f>
         <v>0</v>
       </c>
       <c r="L78" s="200"/>
       <c r="M78" s="200"/>
       <c r="N78" s="200" t="s">
-        <v>117</v>
-      </c>
-      <c r="O78" s="209"/>
-      <c r="P78" s="210"/>
+        <v>116</v>
+      </c>
+      <c r="O78" s="208"/>
+      <c r="P78" s="200"/>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="200"/>
       <c r="B79" s="200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C79" s="201" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D79" s="200">
         <v>0</v>
       </c>
       <c r="E79" s="200" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F79" s="200"/>
       <c r="G79" s="200"/>
-      <c r="H79" s="205">
+      <c r="H79" s="204">
         <v>0</v>
       </c>
       <c r="I79" s="200"/>
       <c r="J79" s="200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K79" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L79" s="200"/>
       <c r="M79" s="200"/>
       <c r="N79" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="O79" s="209"/>
-      <c r="P79" s="210"/>
+        <v>128</v>
+      </c>
+      <c r="O79" s="208"/>
+      <c r="P79" s="200"/>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="200"/>
@@ -6808,18 +6785,18 @@
       <c r="L80" s="200"/>
       <c r="M80" s="200"/>
       <c r="N80" s="200"/>
-      <c r="O80" s="209"/>
-      <c r="P80" s="210"/>
+      <c r="O80" s="208"/>
+      <c r="P80" s="200"/>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="200" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B81" s="200">
         <v>1</v>
       </c>
       <c r="C81" s="203" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D81" s="200">
         <v>9.8</v>
@@ -6828,33 +6805,33 @@
         <v>62</v>
       </c>
       <c r="F81" s="202">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G81" s="200"/>
       <c r="H81" s="200"/>
       <c r="I81" s="200"/>
       <c r="J81" s="200">
-        <f t="shared" si="18"/>
-        <v>1127</v>
+        <f t="shared" si="25"/>
+        <v>862.4</v>
       </c>
       <c r="K81" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L81" s="200"/>
       <c r="M81" s="200"/>
       <c r="N81" s="200"/>
-      <c r="O81" s="209"/>
-      <c r="P81" s="210"/>
+      <c r="O81" s="208"/>
+      <c r="P81" s="200"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="200"/>
       <c r="B82" s="200">
-        <f t="shared" ref="B80:B88" si="20">B81+1</f>
+        <f t="shared" ref="B80:B88" si="27">B81+1</f>
         <v>2</v>
       </c>
       <c r="C82" s="203" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D82" s="200">
         <v>9.8</v>
@@ -6869,27 +6846,27 @@
       <c r="H82" s="200"/>
       <c r="I82" s="200"/>
       <c r="J82" s="200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>539</v>
       </c>
       <c r="K82" s="200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L82" s="200"/>
       <c r="M82" s="200"/>
       <c r="N82" s="200"/>
-      <c r="O82" s="209"/>
-      <c r="P82" s="210"/>
+      <c r="O82" s="208"/>
+      <c r="P82" s="200"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="200"/>
       <c r="B83" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="C83" s="203" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D83" s="200">
         <v>34.6</v>
@@ -6904,27 +6881,27 @@
       <c r="H83" s="200"/>
       <c r="I83" s="200"/>
       <c r="J83" s="200">
-        <f t="shared" ref="J83:J88" si="21">(F83+G83)*D83</f>
+        <f t="shared" ref="J83:J88" si="28">(F83+G83)*D83</f>
         <v>1903</v>
       </c>
       <c r="K83" s="200">
-        <f t="shared" ref="K83:K88" si="22">H83*D83*(1+I83)</f>
+        <f t="shared" ref="K83:K88" si="29">H83*D83*(1+I83)</f>
         <v>0</v>
       </c>
       <c r="L83" s="200"/>
       <c r="M83" s="200"/>
       <c r="N83" s="200"/>
-      <c r="O83" s="209"/>
-      <c r="P83" s="210"/>
+      <c r="O83" s="208"/>
+      <c r="P83" s="200"/>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="200"/>
       <c r="B84" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="C84" s="203" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D84" s="200">
         <v>0</v>
@@ -6939,29 +6916,29 @@
       <c r="H84" s="200"/>
       <c r="I84" s="200"/>
       <c r="J84" s="200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K84" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L84" s="200"/>
       <c r="M84" s="200"/>
       <c r="N84" s="200"/>
-      <c r="O84" s="209"/>
-      <c r="P84" s="210" t="s">
-        <v>145</v>
+      <c r="O84" s="208"/>
+      <c r="P84" s="200" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="200"/>
       <c r="B85" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="C85" s="203" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D85" s="200">
         <v>0</v>
@@ -6973,36 +6950,36 @@
         <v>0</v>
       </c>
       <c r="G85" s="200"/>
-      <c r="H85" s="205">
+      <c r="H85" s="204">
         <v>0</v>
       </c>
       <c r="I85" s="200"/>
       <c r="J85" s="200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K85" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L85" s="200"/>
       <c r="M85" s="200"/>
       <c r="N85" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="O85" s="209"/>
+        <v>106</v>
+      </c>
+      <c r="O85" s="208"/>
       <c r="P85" s="200" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="200"/>
       <c r="B86" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="C86" s="203" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D86" s="200">
         <v>0</v>
@@ -7014,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="200"/>
-      <c r="H86" s="205">
+      <c r="H86" s="204">
         <v>0</v>
       </c>
       <c r="I86" s="200"/>
@@ -7023,21 +7000,21 @@
       <c r="L86" s="200"/>
       <c r="M86" s="200"/>
       <c r="N86" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="O86" s="209"/>
-      <c r="P86" s="210" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="O86" s="208"/>
+      <c r="P86" s="200" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="200"/>
       <c r="B87" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="C87" s="203" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D87" s="200">
         <v>0</v>
@@ -7049,62 +7026,62 @@
         <v>0</v>
       </c>
       <c r="G87" s="200"/>
-      <c r="H87" s="205">
+      <c r="H87" s="204">
         <v>0</v>
       </c>
       <c r="I87" s="200"/>
       <c r="J87" s="200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K87" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L87" s="200"/>
       <c r="M87" s="200"/>
       <c r="N87" s="200" t="s">
-        <v>117</v>
-      </c>
-      <c r="O87" s="209"/>
-      <c r="P87" s="210"/>
+        <v>116</v>
+      </c>
+      <c r="O87" s="208"/>
+      <c r="P87" s="200"/>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="200"/>
       <c r="B88" s="200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="C88" s="201" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D88" s="200">
         <v>0</v>
       </c>
       <c r="E88" s="200" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F88" s="200"/>
       <c r="G88" s="200"/>
-      <c r="H88" s="205">
+      <c r="H88" s="204">
         <v>0</v>
       </c>
       <c r="I88" s="200"/>
       <c r="J88" s="200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K88" s="200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L88" s="200"/>
       <c r="M88" s="200"/>
       <c r="N88" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="O88" s="209"/>
-      <c r="P88" s="210"/>
+        <v>128</v>
+      </c>
+      <c r="O88" s="208"/>
+      <c r="P88" s="200"/>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="200"/>
@@ -7121,18 +7098,18 @@
       <c r="L89" s="200"/>
       <c r="M89" s="200"/>
       <c r="N89" s="200"/>
-      <c r="O89" s="209"/>
-      <c r="P89" s="210"/>
+      <c r="O89" s="208"/>
+      <c r="P89" s="200"/>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="200" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B90" s="200">
         <v>1</v>
       </c>
       <c r="C90" s="201" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D90" s="200">
         <v>2.7</v>
@@ -7141,33 +7118,33 @@
         <v>62</v>
       </c>
       <c r="F90" s="202">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G90" s="200"/>
       <c r="H90" s="200"/>
       <c r="I90" s="200"/>
       <c r="J90" s="200">
-        <f t="shared" ref="J90:J97" si="23">(F90+G90)*D90</f>
-        <v>264.6</v>
+        <f t="shared" ref="J90:J97" si="30">(F90+G90)*D90</f>
+        <v>237.6</v>
       </c>
       <c r="K90" s="200">
-        <f t="shared" ref="K90:K97" si="24">H90*D90*(1+I90)</f>
+        <f t="shared" ref="K90:K97" si="31">H90*D90*(1+I90)</f>
         <v>0</v>
       </c>
       <c r="L90" s="200"/>
       <c r="M90" s="200"/>
       <c r="N90" s="200"/>
-      <c r="O90" s="209"/>
-      <c r="P90" s="210"/>
+      <c r="O90" s="208"/>
+      <c r="P90" s="200"/>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="200"/>
       <c r="B91" s="200">
-        <f t="shared" ref="B91:B96" si="25">B90+1</f>
+        <f t="shared" ref="B91:B96" si="32">B90+1</f>
         <v>2</v>
       </c>
       <c r="C91" s="201" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D91" s="200">
         <v>20.96</v>
@@ -7182,27 +7159,27 @@
       <c r="H91" s="200"/>
       <c r="I91" s="200"/>
       <c r="J91" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>2054.08</v>
       </c>
       <c r="K91" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L91" s="200"/>
       <c r="M91" s="200"/>
       <c r="N91" s="200"/>
-      <c r="O91" s="209"/>
-      <c r="P91" s="210"/>
+      <c r="O91" s="208"/>
+      <c r="P91" s="200"/>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="200"/>
       <c r="B92" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="C92" s="201" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D92" s="200">
         <v>12.66</v>
@@ -7217,27 +7194,27 @@
       <c r="H92" s="200"/>
       <c r="I92" s="200"/>
       <c r="J92" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>949.5</v>
       </c>
       <c r="K92" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L92" s="200"/>
       <c r="M92" s="200"/>
       <c r="N92" s="200"/>
-      <c r="O92" s="209"/>
-      <c r="P92" s="210"/>
+      <c r="O92" s="208"/>
+      <c r="P92" s="200"/>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="200"/>
       <c r="B93" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="C93" s="201" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D93" s="200">
         <v>0</v>
@@ -7245,36 +7222,36 @@
       <c r="E93" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="F93" s="207"/>
+      <c r="F93" s="206"/>
       <c r="G93" s="200"/>
-      <c r="H93" s="205">
+      <c r="H93" s="204">
         <v>0</v>
       </c>
       <c r="I93" s="200"/>
       <c r="J93" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K93" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L93" s="200"/>
       <c r="M93" s="200"/>
       <c r="N93" s="200" t="s">
-        <v>155</v>
-      </c>
-      <c r="O93" s="209"/>
-      <c r="P93" s="210"/>
+        <v>152</v>
+      </c>
+      <c r="O93" s="208"/>
+      <c r="P93" s="200"/>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="200"/>
       <c r="B94" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="C94" s="201" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D94" s="200">
         <v>2.86</v>
@@ -7289,33 +7266,33 @@
       <c r="H94" s="200"/>
       <c r="I94" s="200"/>
       <c r="J94" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>1001</v>
       </c>
       <c r="K94" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L94" s="200"/>
       <c r="M94" s="200"/>
       <c r="N94" s="200"/>
-      <c r="O94" s="209"/>
-      <c r="P94" s="210"/>
+      <c r="O94" s="208"/>
+      <c r="P94" s="200"/>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="200"/>
       <c r="B95" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="C95" s="201" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D95" s="200">
         <v>2</v>
       </c>
       <c r="E95" s="200" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F95" s="202">
         <v>150</v>
@@ -7324,29 +7301,29 @@
       <c r="H95" s="200"/>
       <c r="I95" s="200"/>
       <c r="J95" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>300</v>
       </c>
       <c r="K95" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L95" s="200"/>
       <c r="M95" s="200"/>
       <c r="N95" s="200"/>
-      <c r="O95" s="209"/>
-      <c r="P95" s="210" t="s">
-        <v>157</v>
+      <c r="O95" s="208"/>
+      <c r="P95" s="200" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="200"/>
       <c r="B96" s="200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="C96" s="201" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D96" s="200">
         <v>0</v>
@@ -7358,25 +7335,25 @@
         <v>9999</v>
       </c>
       <c r="G96" s="200"/>
-      <c r="H96" s="205">
+      <c r="H96" s="204">
         <v>0</v>
       </c>
       <c r="I96" s="200"/>
       <c r="J96" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K96" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L96" s="200"/>
       <c r="M96" s="200"/>
       <c r="N96" s="200" t="s">
-        <v>159</v>
-      </c>
-      <c r="O96" s="209"/>
-      <c r="P96" s="210"/>
+        <v>156</v>
+      </c>
+      <c r="O96" s="208"/>
+      <c r="P96" s="200"/>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="200"/>
@@ -7384,7 +7361,7 @@
         <v>8</v>
       </c>
       <c r="C97" s="201" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D97" s="200">
         <v>0.7</v>
@@ -7396,25 +7373,25 @@
         <v>50</v>
       </c>
       <c r="G97" s="200"/>
-      <c r="H97" s="205">
+      <c r="H97" s="204">
         <v>140</v>
       </c>
       <c r="I97" s="200"/>
       <c r="J97" s="200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>35</v>
       </c>
       <c r="K97" s="200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>98</v>
       </c>
       <c r="L97" s="200"/>
       <c r="M97" s="200"/>
       <c r="N97" s="200" t="s">
-        <v>161</v>
-      </c>
-      <c r="O97" s="209"/>
-      <c r="P97" s="210"/>
+        <v>158</v>
+      </c>
+      <c r="O97" s="208"/>
+      <c r="P97" s="200"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="200"/>
@@ -7431,18 +7408,18 @@
       <c r="L98" s="200"/>
       <c r="M98" s="200"/>
       <c r="N98" s="200"/>
-      <c r="O98" s="209"/>
-      <c r="P98" s="210"/>
+      <c r="O98" s="208"/>
+      <c r="P98" s="200"/>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="200" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B99" s="200">
         <v>1</v>
       </c>
       <c r="C99" s="201" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D99" s="200">
         <v>2.8</v>
@@ -7450,25 +7427,25 @@
       <c r="E99" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="F99" s="200">
-        <v>98</v>
+      <c r="F99" s="202">
+        <v>88</v>
       </c>
       <c r="G99" s="200"/>
       <c r="H99" s="200"/>
       <c r="I99" s="200"/>
       <c r="J99" s="200">
-        <f t="shared" ref="J99:J103" si="26">(F99+G99)*D99</f>
-        <v>274.4</v>
+        <f t="shared" ref="J99:J103" si="33">(F99+G99)*D99</f>
+        <v>246.4</v>
       </c>
       <c r="K99" s="200">
-        <f t="shared" ref="K99:K103" si="27">H99*D99*(1+I99)</f>
+        <f t="shared" ref="K99:K103" si="34">H99*D99*(1+I99)</f>
         <v>0</v>
       </c>
       <c r="L99" s="200"/>
       <c r="M99" s="200"/>
       <c r="N99" s="200"/>
-      <c r="O99" s="209"/>
-      <c r="P99" s="210"/>
+      <c r="O99" s="208"/>
+      <c r="P99" s="200"/>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="200"/>
@@ -7477,7 +7454,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="201" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D100" s="200">
         <v>15.06</v>
@@ -7492,27 +7469,27 @@
       <c r="H100" s="200"/>
       <c r="I100" s="200"/>
       <c r="J100" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>1475.88</v>
       </c>
       <c r="K100" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L100" s="200"/>
       <c r="M100" s="200"/>
       <c r="N100" s="200"/>
-      <c r="O100" s="209"/>
-      <c r="P100" s="210"/>
+      <c r="O100" s="208"/>
+      <c r="P100" s="200"/>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="200"/>
       <c r="B101" s="200">
-        <f t="shared" ref="B101:B107" si="28">B100+1</f>
+        <f t="shared" ref="B101:B107" si="35">B100+1</f>
         <v>3</v>
       </c>
       <c r="C101" s="201" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D101" s="200">
         <v>9.29</v>
@@ -7527,27 +7504,27 @@
       <c r="H101" s="200"/>
       <c r="I101" s="200"/>
       <c r="J101" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>696.75</v>
       </c>
       <c r="K101" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L101" s="200"/>
       <c r="M101" s="200"/>
       <c r="N101" s="200"/>
-      <c r="O101" s="209"/>
-      <c r="P101" s="210"/>
+      <c r="O101" s="208"/>
+      <c r="P101" s="200"/>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="200"/>
       <c r="B102" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="C102" s="201" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D102" s="200">
         <v>0</v>
@@ -7557,40 +7534,40 @@
       </c>
       <c r="F102" s="200"/>
       <c r="G102" s="200"/>
-      <c r="H102" s="205">
+      <c r="H102" s="204">
         <v>0</v>
       </c>
       <c r="I102" s="200"/>
       <c r="J102" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K102" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L102" s="200"/>
       <c r="M102" s="200"/>
       <c r="N102" s="200" t="s">
-        <v>155</v>
-      </c>
-      <c r="O102" s="209"/>
-      <c r="P102" s="210"/>
+        <v>152</v>
+      </c>
+      <c r="O102" s="208"/>
+      <c r="P102" s="200"/>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="200"/>
       <c r="B103" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="C103" s="201" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D103" s="200">
         <v>3.8</v>
       </c>
       <c r="E103" s="200" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F103" s="200">
         <v>350</v>
@@ -7599,33 +7576,33 @@
       <c r="H103" s="200"/>
       <c r="I103" s="200"/>
       <c r="J103" s="200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>1330</v>
       </c>
       <c r="K103" s="200">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L103" s="200"/>
       <c r="M103" s="200"/>
       <c r="N103" s="200"/>
-      <c r="O103" s="209"/>
-      <c r="P103" s="210"/>
+      <c r="O103" s="208"/>
+      <c r="P103" s="200"/>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="200"/>
       <c r="B104" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="C104" s="201" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D104" s="200">
         <v>2</v>
       </c>
       <c r="E104" s="200" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F104" s="202">
         <v>150</v>
@@ -7634,29 +7611,29 @@
       <c r="H104" s="200"/>
       <c r="I104" s="200"/>
       <c r="J104" s="200">
-        <f t="shared" ref="J104:J107" si="29">(F104+G104)*D104</f>
+        <f t="shared" ref="J104:J107" si="36">(F104+G104)*D104</f>
         <v>300</v>
       </c>
       <c r="K104" s="200">
-        <f t="shared" ref="K104:K107" si="30">H104*D104*(1+I104)</f>
+        <f t="shared" ref="K104:K107" si="37">H104*D104*(1+I104)</f>
         <v>0</v>
       </c>
       <c r="L104" s="200"/>
       <c r="M104" s="200"/>
       <c r="N104" s="200"/>
-      <c r="O104" s="209"/>
-      <c r="P104" s="210" t="s">
-        <v>157</v>
+      <c r="O104" s="208"/>
+      <c r="P104" s="200" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="200"/>
       <c r="B105" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="C105" s="201" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D105" s="200">
         <v>0</v>
@@ -7666,34 +7643,34 @@
       </c>
       <c r="F105" s="200"/>
       <c r="G105" s="200"/>
-      <c r="H105" s="205">
+      <c r="H105" s="204">
         <v>0</v>
       </c>
       <c r="I105" s="200"/>
       <c r="J105" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K105" s="200">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L105" s="200"/>
       <c r="M105" s="200"/>
       <c r="N105" s="200" t="s">
-        <v>159</v>
-      </c>
-      <c r="O105" s="209"/>
-      <c r="P105" s="210"/>
+        <v>156</v>
+      </c>
+      <c r="O105" s="208"/>
+      <c r="P105" s="200"/>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="200"/>
       <c r="B106" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="C106" s="201" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D106" s="200">
         <v>0.7</v>
@@ -7705,34 +7682,34 @@
         <v>50</v>
       </c>
       <c r="G106" s="200"/>
-      <c r="H106" s="205">
+      <c r="H106" s="204">
         <v>140</v>
       </c>
       <c r="I106" s="200"/>
       <c r="J106" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>35</v>
       </c>
       <c r="K106" s="200">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>98</v>
       </c>
       <c r="L106" s="200"/>
       <c r="M106" s="200"/>
       <c r="N106" s="200" t="s">
-        <v>161</v>
-      </c>
-      <c r="O106" s="209"/>
-      <c r="P106" s="210"/>
+        <v>158</v>
+      </c>
+      <c r="O106" s="208"/>
+      <c r="P106" s="200"/>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="200"/>
       <c r="B107" s="200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="C107" s="201" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D107" s="200">
         <v>0</v>
@@ -7747,19 +7724,19 @@
       <c r="H107" s="200"/>
       <c r="I107" s="200"/>
       <c r="J107" s="200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K107" s="200">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L107" s="200"/>
       <c r="M107" s="200"/>
       <c r="N107" s="200"/>
-      <c r="O107" s="209"/>
-      <c r="P107" s="210" t="s">
-        <v>165</v>
+      <c r="O107" s="208"/>
+      <c r="P107" s="200" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7777,18 +7754,18 @@
       <c r="L108" s="200"/>
       <c r="M108" s="200"/>
       <c r="N108" s="200"/>
-      <c r="O108" s="209"/>
-      <c r="P108" s="210"/>
+      <c r="O108" s="208"/>
+      <c r="P108" s="200"/>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="200" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B109" s="200">
         <v>1</v>
       </c>
       <c r="C109" s="201" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D109" s="200">
         <v>9.6</v>
@@ -7796,34 +7773,34 @@
       <c r="E109" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="F109" s="200">
-        <v>115</v>
+      <c r="F109" s="202">
+        <v>88</v>
       </c>
       <c r="G109" s="200"/>
       <c r="H109" s="200"/>
       <c r="I109" s="200"/>
       <c r="J109" s="200">
-        <f t="shared" ref="J108:J115" si="31">(F109+G109)*D109</f>
-        <v>1104</v>
+        <f t="shared" ref="J108:J116" si="38">(F109+G109)*D109</f>
+        <v>844.8</v>
       </c>
       <c r="K109" s="200">
-        <f t="shared" ref="K108:K115" si="32">H109*D109*(1+I109)</f>
+        <f t="shared" ref="K108:K116" si="39">H109*D109*(1+I109)</f>
         <v>0</v>
       </c>
       <c r="L109" s="200"/>
       <c r="M109" s="200"/>
       <c r="N109" s="200"/>
-      <c r="O109" s="209"/>
-      <c r="P109" s="210"/>
+      <c r="O109" s="208"/>
+      <c r="P109" s="200"/>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="200"/>
       <c r="B110" s="200">
-        <f t="shared" ref="B110:B112" si="33">B109+1</f>
+        <f t="shared" ref="B110:B112" si="40">B109+1</f>
         <v>2</v>
       </c>
       <c r="C110" s="201" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D110" s="200">
         <v>19.52</v>
@@ -7838,27 +7815,27 @@
       <c r="H110" s="200"/>
       <c r="I110" s="200"/>
       <c r="J110" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1912.96</v>
       </c>
       <c r="K110" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L110" s="200"/>
       <c r="M110" s="200"/>
       <c r="N110" s="200"/>
-      <c r="O110" s="209"/>
-      <c r="P110" s="210"/>
+      <c r="O110" s="208"/>
+      <c r="P110" s="200"/>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="200"/>
       <c r="B111" s="200">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="C111" s="201" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D111" s="200">
         <v>0</v>
@@ -7868,34 +7845,34 @@
       </c>
       <c r="F111" s="200"/>
       <c r="G111" s="200"/>
-      <c r="H111" s="205">
+      <c r="H111" s="204">
         <v>0</v>
       </c>
       <c r="I111" s="200"/>
       <c r="J111" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K111" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L111" s="200"/>
       <c r="M111" s="200"/>
       <c r="N111" s="200" t="s">
-        <v>155</v>
-      </c>
-      <c r="O111" s="209"/>
-      <c r="P111" s="210"/>
+        <v>152</v>
+      </c>
+      <c r="O111" s="208"/>
+      <c r="P111" s="200"/>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="200"/>
       <c r="B112" s="200">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="C112" s="201" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D112" s="200">
         <v>0</v>
@@ -7910,19 +7887,19 @@
       <c r="H112" s="200"/>
       <c r="I112" s="200"/>
       <c r="J112" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K112" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L112" s="200"/>
       <c r="M112" s="200"/>
       <c r="N112" s="200"/>
-      <c r="O112" s="209"/>
-      <c r="P112" s="210" t="s">
-        <v>167</v>
+      <c r="O112" s="208"/>
+      <c r="P112" s="200" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7931,7 +7908,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="201" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D113" s="200">
         <v>1</v>
@@ -7941,25 +7918,25 @@
       </c>
       <c r="F113" s="200"/>
       <c r="G113" s="200"/>
-      <c r="H113" s="205">
+      <c r="H113" s="204">
         <v>3500</v>
       </c>
       <c r="I113" s="200"/>
       <c r="J113" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K113" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>3500</v>
       </c>
       <c r="L113" s="200"/>
       <c r="M113" s="200"/>
       <c r="N113" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="O113" s="209"/>
-      <c r="P113" s="210"/>
+        <v>163</v>
+      </c>
+      <c r="O113" s="208"/>
+      <c r="P113" s="200"/>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="200"/>
@@ -7968,7 +7945,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="201" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D114" s="200">
         <v>0</v>
@@ -7978,25 +7955,25 @@
       </c>
       <c r="F114" s="200"/>
       <c r="G114" s="200"/>
-      <c r="H114" s="205">
+      <c r="H114" s="204">
         <v>0</v>
       </c>
       <c r="I114" s="200"/>
       <c r="J114" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K114" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L114" s="200"/>
       <c r="M114" s="200"/>
       <c r="N114" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="O114" s="209"/>
-      <c r="P114" s="210"/>
+        <v>128</v>
+      </c>
+      <c r="O114" s="208"/>
+      <c r="P114" s="200"/>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="200"/>
@@ -8005,7 +7982,7 @@
         <v>7</v>
       </c>
       <c r="C115" s="201" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D115" s="200">
         <v>0</v>
@@ -8015,25 +7992,25 @@
       </c>
       <c r="F115" s="200"/>
       <c r="G115" s="200"/>
-      <c r="H115" s="205">
+      <c r="H115" s="204">
         <v>0</v>
       </c>
       <c r="I115" s="200"/>
       <c r="J115" s="200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K115" s="200">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L115" s="200"/>
       <c r="M115" s="200"/>
       <c r="N115" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="O115" s="209"/>
-      <c r="P115" s="210"/>
+        <v>128</v>
+      </c>
+      <c r="O115" s="208"/>
+      <c r="P115" s="200"/>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="200"/>
@@ -8042,13 +8019,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="201" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D116" s="200">
         <v>1</v>
       </c>
       <c r="E116" s="200" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F116" s="200">
         <v>150</v>
@@ -8057,18 +8034,18 @@
       <c r="H116" s="200"/>
       <c r="I116" s="200"/>
       <c r="J116" s="200">
-        <f>(F116+G116)*D116</f>
+        <f t="shared" si="38"/>
         <v>150</v>
       </c>
       <c r="K116" s="200">
-        <f>H116*D116*(1+I116)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L116" s="200"/>
       <c r="M116" s="200"/>
       <c r="N116" s="200"/>
-      <c r="O116" s="209"/>
-      <c r="P116" s="210"/>
+      <c r="O116" s="208"/>
+      <c r="P116" s="200"/>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="200"/>
@@ -8085,37 +8062,37 @@
       <c r="L117" s="200"/>
       <c r="M117" s="200"/>
       <c r="N117" s="200"/>
-      <c r="O117" s="209"/>
-      <c r="P117" s="210"/>
+      <c r="O117" s="208"/>
+      <c r="P117" s="200"/>
     </row>
     <row r="118" spans="9:16">
       <c r="I118" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J118" s="1">
         <f>SUM(J3:J117)</f>
-        <v>91837.12</v>
+        <v>83870.02</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P118" s="210"/>
+        <v>167</v>
+      </c>
+      <c r="P118" s="200"/>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="200" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B119" s="200">
         <v>1</v>
       </c>
       <c r="C119" s="201" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D119" s="200">
         <v>1</v>
       </c>
       <c r="E119" s="200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F119" s="202">
         <v>8000</v>
@@ -8134,8 +8111,8 @@
       <c r="L119" s="200"/>
       <c r="M119" s="200"/>
       <c r="N119" s="200"/>
-      <c r="O119" s="209"/>
-      <c r="P119" s="210"/>
+      <c r="O119" s="208"/>
+      <c r="P119" s="200"/>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="200"/>
@@ -8144,13 +8121,13 @@
         <v>2</v>
       </c>
       <c r="C120" s="201" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D120" s="200">
         <v>1</v>
       </c>
       <c r="E120" s="200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F120" s="202"/>
       <c r="G120" s="200"/>
@@ -8167,8 +8144,8 @@
       <c r="L120" s="200"/>
       <c r="M120" s="200"/>
       <c r="N120" s="200"/>
-      <c r="O120" s="209"/>
-      <c r="P120" s="210"/>
+      <c r="O120" s="208"/>
+      <c r="P120" s="200"/>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="200"/>
@@ -8177,7 +8154,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="201" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D121" s="200"/>
       <c r="E121" s="200"/>
@@ -8196,8 +8173,8 @@
       <c r="L121" s="200"/>
       <c r="M121" s="200"/>
       <c r="N121" s="200"/>
-      <c r="O121" s="209"/>
-      <c r="P121" s="210"/>
+      <c r="O121" s="208"/>
+      <c r="P121" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8214,8 +8191,8 @@
   <sheetPr/>
   <dimension ref="A1:U160"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -8238,7 +8215,7 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="18" customHeight="1" spans="1:13">
       <c r="A1" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -8268,7 +8245,7 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="S2" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="17.1" customHeight="1" spans="1:19">
@@ -8286,7 +8263,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="S3" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" ht="15" customHeight="1" spans="1:19">
@@ -8304,12 +8281,12 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="S4" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="42" customHeight="1" spans="1:19">
       <c r="A5" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -8324,12 +8301,12 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="S5" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
       <c r="A6" s="23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
@@ -8344,7 +8321,7 @@
       <c r="L6" s="69"/>
       <c r="M6" s="69"/>
       <c r="S6" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
@@ -8352,41 +8329,41 @@
         <v>45</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="J7" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="K7" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="L7" s="72" t="s">
         <v>189</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="K7" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="L7" s="72" t="s">
-        <v>194</v>
       </c>
       <c r="M7" s="73"/>
       <c r="S7" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -8394,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>100</v>
@@ -8426,7 +8403,7 @@
       <c r="L8" s="77"/>
       <c r="M8" s="78"/>
       <c r="S8" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -8434,10 +8411,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -8456,7 +8433,7 @@
       <c r="L9" s="77"/>
       <c r="M9" s="78"/>
       <c r="S9" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -8464,10 +8441,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D10" s="35">
         <v>20</v>
@@ -8490,7 +8467,7 @@
       <c r="L10" s="77"/>
       <c r="M10" s="78"/>
       <c r="S10" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -8498,10 +8475,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -8520,7 +8497,7 @@
       <c r="L11" s="77"/>
       <c r="M11" s="78"/>
       <c r="S11" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -8528,10 +8505,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
@@ -8550,7 +8527,7 @@
       <c r="L12" s="77"/>
       <c r="M12" s="78"/>
       <c r="S12" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -8558,10 +8535,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="36"/>
@@ -8580,7 +8557,7 @@
       <c r="L13" s="81"/>
       <c r="M13" s="82"/>
       <c r="S13" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -8588,10 +8565,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="36"/>
@@ -8610,7 +8587,7 @@
       <c r="L14" s="81"/>
       <c r="M14" s="82"/>
       <c r="S14" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -8618,10 +8595,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
@@ -8641,7 +8618,7 @@
       <c r="M15" s="78"/>
       <c r="P15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -8649,10 +8626,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
@@ -8671,7 +8648,7 @@
       <c r="L16" s="77"/>
       <c r="M16" s="78"/>
       <c r="S16" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
@@ -8679,10 +8656,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D17" s="35">
         <v>9</v>
@@ -8699,17 +8676,17 @@
       <c r="J17" s="75"/>
       <c r="K17" s="76"/>
       <c r="L17" s="77" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M17" s="78"/>
       <c r="S17" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:19">
       <c r="A18" s="43"/>
       <c r="B18" s="44" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="42"/>
@@ -8732,12 +8709,12 @@
       <c r="L18" s="85"/>
       <c r="M18" s="86"/>
       <c r="S18" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
       <c r="A19" s="23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
@@ -8753,7 +8730,7 @@
       <c r="M19" s="87"/>
       <c r="P19" s="1"/>
       <c r="S19" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:19">
@@ -8761,41 +8738,41 @@
         <v>45</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="J20" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="K20" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="L20" s="72" t="s">
         <v>189</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J20" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="K20" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="L20" s="72" t="s">
-        <v>194</v>
       </c>
       <c r="M20" s="73"/>
       <c r="S20" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
@@ -8803,10 +8780,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D21" s="50">
         <v>1</v>
@@ -8836,7 +8813,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>100</v>
@@ -8866,7 +8843,7 @@
         <v>16</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="U22" s="5">
         <f>568*14</f>
@@ -8878,7 +8855,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C23" s="48" t="s">
         <v>100</v>
@@ -8900,7 +8877,7 @@
       <c r="L23" s="88"/>
       <c r="M23" s="89"/>
       <c r="T23" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="U23" s="5">
         <f>4*160</f>
@@ -8912,10 +8889,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D24" s="50">
         <v>2</v>
@@ -8936,11 +8913,11 @@
       </c>
       <c r="K24" s="90"/>
       <c r="L24" s="91" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M24" s="92"/>
       <c r="T24" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="U24" s="5">
         <f>600*4</f>
@@ -8952,7 +8929,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C25" s="48" t="s">
         <v>100</v>
@@ -8978,7 +8955,7 @@
       <c r="L25" s="88"/>
       <c r="M25" s="89"/>
       <c r="T25" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U25" s="5">
         <v>600</v>
@@ -8989,10 +8966,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D26" s="52">
         <v>1</v>
@@ -9020,10 +8997,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D27" s="52">
         <v>1</v>
@@ -9051,7 +9028,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C28" s="54"/>
       <c r="D28" s="52"/>
@@ -9074,7 +9051,7 @@
     <row r="29" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A29" s="55"/>
       <c r="B29" s="56" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="57"/>
@@ -9099,7 +9076,7 @@
     </row>
     <row r="30" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:17">
       <c r="A30" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -9114,7 +9091,7 @@
       <c r="L30" s="87"/>
       <c r="M30" s="87"/>
       <c r="Q30" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:18">
@@ -9122,44 +9099,44 @@
         <v>45</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="J31" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="K31" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="L31" s="72" t="s">
         <v>189</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J31" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="K31" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="L31" s="72" t="s">
-        <v>194</v>
       </c>
       <c r="M31" s="73"/>
       <c r="Q31" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:18">
@@ -9167,10 +9144,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D32" s="59">
         <v>1</v>
@@ -9193,14 +9170,14 @@
       </c>
       <c r="K32" s="47"/>
       <c r="L32" s="94" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M32" s="95"/>
       <c r="Q32" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:18">
@@ -9208,7 +9185,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C33" s="48" t="s">
         <v>100</v>
@@ -9230,10 +9207,10 @@
       <c r="L33" s="94"/>
       <c r="M33" s="95"/>
       <c r="Q33" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:18">
@@ -9241,7 +9218,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C34" s="48" t="s">
         <v>100</v>
@@ -9267,10 +9244,10 @@
       <c r="L34" s="88"/>
       <c r="M34" s="89"/>
       <c r="Q34" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:17">
@@ -9278,7 +9255,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C35" s="48" t="s">
         <v>100</v>
@@ -9308,7 +9285,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>100</v>
@@ -9334,7 +9311,7 @@
       </c>
       <c r="K36" s="83"/>
       <c r="L36" s="96" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M36" s="97"/>
     </row>
@@ -9343,7 +9320,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>100</v>
@@ -9374,7 +9351,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C38" s="48" t="s">
         <v>100</v>
@@ -9405,10 +9382,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="53"/>
@@ -9432,7 +9409,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C40" s="48" t="s">
         <v>100</v>
@@ -9459,7 +9436,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C41" s="48" t="s">
         <v>100</v>
@@ -9486,7 +9463,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>100</v>
@@ -9517,7 +9494,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C43" s="61"/>
       <c r="D43" s="50"/>
@@ -9540,7 +9517,7 @@
     <row r="44" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A44" s="62"/>
       <c r="B44" s="56" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="57"/>
@@ -9565,7 +9542,7 @@
     </row>
     <row r="45" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A45" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -9585,37 +9562,37 @@
         <v>45</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I46" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="J46" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="K46" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="L46" s="72" t="s">
         <v>189</v>
-      </c>
-      <c r="H46" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J46" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="K46" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="L46" s="72" t="s">
-        <v>194</v>
       </c>
       <c r="M46" s="73"/>
     </row>
@@ -9624,10 +9601,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="51"/>
@@ -9651,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C48" s="48" t="s">
         <v>100</v>
@@ -9682,7 +9659,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>100</v>
@@ -9709,7 +9686,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C50" s="48" t="s">
         <v>100</v>
@@ -9740,10 +9717,10 @@
         <v>5</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D51" s="50">
         <v>2</v>
@@ -9771,10 +9748,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D52" s="50"/>
       <c r="E52" s="51"/>
@@ -9798,7 +9775,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C53" s="48" t="s">
         <v>100</v>
@@ -9825,7 +9802,7 @@
         <v>8</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C54" s="48" t="s">
         <v>100</v>
@@ -9852,10 +9829,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D55" s="50">
         <v>1</v>
@@ -9886,7 +9863,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D56" s="50">
         <v>1</v>
@@ -9916,7 +9893,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C57" s="54"/>
       <c r="D57" s="52">
@@ -9938,14 +9915,14 @@
       </c>
       <c r="K57" s="83"/>
       <c r="L57" s="101" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M57" s="102"/>
     </row>
     <row r="58" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A58" s="63"/>
       <c r="B58" s="56" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C58" s="61"/>
       <c r="D58" s="52"/>
@@ -9970,7 +9947,7 @@
     </row>
     <row r="59" s="6" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A59" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
@@ -9990,37 +9967,37 @@
         <v>45</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I60" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="J60" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="K60" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G60" s="32" t="s">
+      <c r="L60" s="72" t="s">
         <v>189</v>
-      </c>
-      <c r="H60" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I60" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J60" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="K60" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="L60" s="72" t="s">
-        <v>194</v>
       </c>
       <c r="M60" s="73"/>
     </row>
@@ -10029,7 +10006,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C61" s="48" t="s">
         <v>100</v>
@@ -10060,7 +10037,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C62" s="48" t="s">
         <v>100</v>
@@ -10091,7 +10068,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C63" s="48" t="s">
         <v>100</v>
@@ -10122,7 +10099,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C64" s="48" t="s">
         <v>100</v>
@@ -10153,7 +10130,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C65" s="48" t="s">
         <v>100</v>
@@ -10184,7 +10161,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C66" s="48" t="s">
         <v>100</v>
@@ -10211,7 +10188,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="60" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C67" s="48" t="s">
         <v>100</v>
@@ -10238,7 +10215,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C68" s="48" t="s">
         <v>100</v>
@@ -10269,7 +10246,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C69" s="48"/>
       <c r="D69" s="50"/>
@@ -10292,7 +10269,7 @@
     <row r="70" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A70" s="43"/>
       <c r="B70" s="44" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="42"/>
@@ -10314,7 +10291,7 @@
     </row>
     <row r="71" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A71" s="103" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B71" s="104"/>
       <c r="C71" s="104"/>
@@ -10334,37 +10311,37 @@
         <v>45</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D72" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I72" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="J72" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F72" s="31" t="s">
+      <c r="K72" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G72" s="32" t="s">
+      <c r="L72" s="72" t="s">
         <v>189</v>
-      </c>
-      <c r="H72" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I72" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J72" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="K72" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="L72" s="72" t="s">
-        <v>194</v>
       </c>
       <c r="M72" s="73"/>
     </row>
@@ -10373,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>100</v>
@@ -10404,7 +10381,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>100</v>
@@ -10431,10 +10408,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="36"/>
@@ -10458,10 +10435,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D76" s="42">
         <v>6</v>
@@ -10489,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D77" s="42"/>
       <c r="E77" s="36"/>
@@ -10516,10 +10493,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D78" s="42">
         <v>1</v>
@@ -10547,10 +10524,10 @@
         <v>7</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="36"/>
@@ -10574,7 +10551,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>100</v>
@@ -10601,10 +10578,10 @@
         <v>9</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="36"/>
@@ -10628,10 +10605,10 @@
         <v>10</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D82" s="42">
         <v>4</v>
@@ -10659,10 +10636,10 @@
         <v>11</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="42">
         <v>6</v>
@@ -10690,7 +10667,7 @@
         <v>12</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C84" s="33">
         <v>1</v>
@@ -10716,14 +10693,14 @@
       </c>
       <c r="K84" s="83"/>
       <c r="L84" s="96" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M84" s="97"/>
     </row>
     <row r="85" s="5" customFormat="1" ht="23.1" customHeight="1" spans="1:13">
       <c r="A85" s="43"/>
       <c r="B85" s="44" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="42"/>
@@ -10748,7 +10725,7 @@
     </row>
     <row r="86" s="5" customFormat="1" ht="30.95" customHeight="1" spans="1:13">
       <c r="A86" s="108" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B86" s="108"/>
       <c r="C86" s="109"/>
@@ -10770,13 +10747,13 @@
       <c r="D87" s="113"/>
       <c r="E87" s="115"/>
       <c r="F87" s="116" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G87" s="117"/>
       <c r="H87" s="117"/>
       <c r="I87" s="117"/>
       <c r="J87" s="143" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K87" s="117"/>
       <c r="L87" s="117"/>
@@ -10808,7 +10785,7 @@
     </row>
     <row r="89" s="5" customFormat="1" ht="51.95" customHeight="1" spans="1:12">
       <c r="A89" s="124" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B89" s="125"/>
       <c r="C89" s="125"/>
@@ -10827,37 +10804,37 @@
         <v>45</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D90" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H90" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I90" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="J90" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F90" s="31" t="s">
+      <c r="K90" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G90" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="H90" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I90" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J90" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="K90" s="71" t="s">
-        <v>193</v>
-      </c>
       <c r="L90" s="149" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M90" s="149"/>
     </row>
@@ -10866,10 +10843,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D91" s="59">
         <v>1</v>
@@ -10897,10 +10874,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D92" s="59">
         <v>1</v>
@@ -10928,10 +10905,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D93" s="59">
         <v>1</v>
@@ -10959,10 +10936,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="60" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D94" s="50">
         <v>1</v>
@@ -10990,10 +10967,10 @@
         <v>5</v>
       </c>
       <c r="B95" s="60" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D95" s="50"/>
       <c r="E95" s="51"/>
@@ -11017,10 +10994,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="60" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D96" s="50"/>
       <c r="E96" s="51"/>
@@ -11044,10 +11021,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="60" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D97" s="50">
         <v>1</v>
@@ -11075,10 +11052,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D98" s="50"/>
       <c r="E98" s="51"/>
@@ -11102,10 +11079,10 @@
         <v>9</v>
       </c>
       <c r="B99" s="60" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D99" s="50">
         <v>2</v>
@@ -11133,10 +11110,10 @@
         <v>10</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D100" s="50">
         <v>1</v>
@@ -11164,10 +11141,10 @@
         <v>11</v>
       </c>
       <c r="B101" s="60" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D101" s="50"/>
       <c r="E101" s="51"/>
@@ -11191,10 +11168,10 @@
         <v>12</v>
       </c>
       <c r="B102" s="60" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D102" s="50">
         <v>2</v>
@@ -11222,10 +11199,10 @@
         <v>13</v>
       </c>
       <c r="B103" s="60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D103" s="50">
         <v>2</v>
@@ -11253,10 +11230,10 @@
         <v>14</v>
       </c>
       <c r="B104" s="60" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D104" s="50"/>
       <c r="E104" s="51"/>
@@ -11280,10 +11257,10 @@
         <v>15</v>
       </c>
       <c r="B105" s="60" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D105" s="50">
         <v>1</v>
@@ -11311,10 +11288,10 @@
         <v>16</v>
       </c>
       <c r="B106" s="60" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D106" s="50"/>
       <c r="E106" s="51"/>
@@ -11338,10 +11315,10 @@
         <v>17</v>
       </c>
       <c r="B107" s="60" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D107" s="50">
         <v>1</v>
@@ -11369,10 +11346,10 @@
         <v>18</v>
       </c>
       <c r="B108" s="60" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D108" s="50">
         <v>1</v>
@@ -11400,10 +11377,10 @@
         <v>19</v>
       </c>
       <c r="B109" s="60" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D109" s="50">
         <v>3</v>
@@ -11431,10 +11408,10 @@
         <v>20</v>
       </c>
       <c r="B110" s="60" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110" s="51"/>
@@ -11458,7 +11435,7 @@
         <v>21</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C111" s="129"/>
       <c r="D111" s="52"/>
@@ -11481,7 +11458,7 @@
     <row r="112" s="5" customFormat="1" ht="27.95" customHeight="1" spans="1:13">
       <c r="A112" s="62"/>
       <c r="B112" s="130" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="55"/>
@@ -11506,7 +11483,7 @@
     </row>
     <row r="113" s="5" customFormat="1" ht="51.95" customHeight="1" spans="1:13">
       <c r="A113" s="133" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B113" s="133"/>
       <c r="C113" s="133"/>
@@ -11523,7 +11500,7 @@
     </row>
     <row r="114" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A114" s="103" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B114" s="104"/>
       <c r="C114" s="104"/>
@@ -11543,37 +11520,37 @@
         <v>45</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C115" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D115" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H115" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I115" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="J115" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F115" s="31" t="s">
+      <c r="K115" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G115" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="H115" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I115" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J115" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="K115" s="71" t="s">
-        <v>193</v>
-      </c>
       <c r="L115" s="149" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M115" s="149"/>
     </row>
@@ -11582,10 +11559,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C116" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D116" s="59">
         <v>1</v>
@@ -11615,10 +11592,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D117" s="59"/>
       <c r="E117" s="51"/>
@@ -11642,10 +11619,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C118" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D118" s="59"/>
       <c r="E118" s="51"/>
@@ -11669,10 +11646,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D119" s="59">
         <v>1</v>
@@ -11700,10 +11677,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D120" s="59"/>
       <c r="E120" s="51"/>
@@ -11727,10 +11704,10 @@
         <v>6</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D121" s="59"/>
       <c r="E121" s="51"/>
@@ -11754,10 +11731,10 @@
         <v>7</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C122" s="43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D122" s="59"/>
       <c r="E122" s="51"/>
@@ -11781,10 +11758,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D123" s="59"/>
       <c r="E123" s="51"/>
@@ -11808,10 +11785,10 @@
         <v>9</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D124" s="59">
         <v>1</v>
@@ -11839,10 +11816,10 @@
         <v>10</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D125" s="59"/>
       <c r="E125" s="51"/>
@@ -11866,10 +11843,10 @@
         <v>11</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D126" s="59"/>
       <c r="E126" s="51"/>
@@ -11893,10 +11870,10 @@
         <v>12</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D127" s="59">
         <v>1</v>
@@ -11924,10 +11901,10 @@
         <v>13</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D128" s="59"/>
       <c r="E128" s="51"/>
@@ -11951,7 +11928,7 @@
         <v>14</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C129" s="43" t="s">
         <v>100</v>
@@ -11978,7 +11955,7 @@
         <v>15</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C130" s="43"/>
       <c r="D130" s="59"/>
@@ -12001,7 +11978,7 @@
     <row r="131" s="5" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A131" s="137"/>
       <c r="B131" s="158" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C131" s="43"/>
       <c r="D131" s="59"/>
@@ -12026,7 +12003,7 @@
     </row>
     <row r="132" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A132" s="160" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B132" s="161"/>
       <c r="C132" s="161"/>
@@ -12046,37 +12023,37 @@
         <v>45</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C133" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E133" s="30" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F133" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G133" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H133" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I133" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="J133" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="K133" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G133" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="H133" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I133" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="J133" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="K133" s="71" t="s">
-        <v>193</v>
-      </c>
       <c r="L133" s="149" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M133" s="149"/>
     </row>
@@ -12085,10 +12062,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="163" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C134" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D134" s="165">
         <v>2</v>
@@ -12116,10 +12093,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="163" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C135" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D135" s="165">
         <v>1</v>
@@ -12147,10 +12124,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="163" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C136" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D136" s="165">
         <v>1</v>
@@ -12178,10 +12155,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="163" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C137" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D137" s="165">
         <v>2</v>
@@ -12204,7 +12181,7 @@
       </c>
       <c r="K137" s="183"/>
       <c r="L137" s="183" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M137" s="183"/>
     </row>
@@ -12213,10 +12190,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="163" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C138" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D138" s="165"/>
       <c r="E138" s="166"/>
@@ -12240,10 +12217,10 @@
         <v>6</v>
       </c>
       <c r="B139" s="163" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C139" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D139" s="165">
         <v>1</v>
@@ -12271,10 +12248,10 @@
         <v>7</v>
       </c>
       <c r="B140" s="163" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C140" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D140" s="165"/>
       <c r="E140" s="166"/>
@@ -12298,10 +12275,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="163" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C141" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D141" s="165"/>
       <c r="E141" s="166"/>
@@ -12325,10 +12302,10 @@
         <v>9</v>
       </c>
       <c r="B142" s="163" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C142" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D142" s="165">
         <v>1</v>
@@ -12356,10 +12333,10 @@
         <v>10</v>
       </c>
       <c r="B143" s="163" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C143" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D143" s="165"/>
       <c r="E143" s="166"/>
@@ -12383,10 +12360,10 @@
         <v>11</v>
       </c>
       <c r="B144" s="163" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C144" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D144" s="165"/>
       <c r="E144" s="166"/>
@@ -12410,10 +12387,10 @@
         <v>12</v>
       </c>
       <c r="B145" s="163" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C145" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D145" s="165">
         <v>1</v>
@@ -12441,10 +12418,10 @@
         <v>13</v>
       </c>
       <c r="B146" s="163" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C146" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D146" s="165"/>
       <c r="E146" s="166"/>
@@ -12468,10 +12445,10 @@
         <v>14</v>
       </c>
       <c r="B147" s="163" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C147" s="164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D147" s="165"/>
       <c r="E147" s="166"/>
@@ -12495,7 +12472,7 @@
         <v>15</v>
       </c>
       <c r="B148" s="163" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C148" s="164"/>
       <c r="D148" s="165"/>
@@ -12518,7 +12495,7 @@
     <row r="149" s="5" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A149" s="137"/>
       <c r="B149" s="158" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C149" s="43"/>
       <c r="D149" s="59"/>
@@ -12543,7 +12520,7 @@
     </row>
     <row r="150" s="5" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
       <c r="A150" s="160" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B150" s="161"/>
       <c r="C150" s="161"/>
@@ -12563,37 +12540,37 @@
         <v>45</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C151" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D151" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E151" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F151" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G151" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H151" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I151" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E151" s="30" t="s">
+      <c r="J151" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F151" s="31" t="s">
+      <c r="K151" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G151" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="H151" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I151" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J151" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="K151" s="71" t="s">
-        <v>193</v>
-      </c>
       <c r="L151" s="72" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M151" s="73"/>
     </row>
@@ -12602,10 +12579,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="60" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C152" s="168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D152" s="50"/>
       <c r="E152" s="51"/>
@@ -12629,10 +12606,10 @@
         <v>2</v>
       </c>
       <c r="B153" s="170" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C153" s="168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D153" s="171"/>
       <c r="E153" s="172"/>
@@ -12656,10 +12633,10 @@
         <v>3</v>
       </c>
       <c r="B154" s="163" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C154" s="168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D154" s="165">
         <v>1</v>
@@ -12687,10 +12664,10 @@
         <v>4</v>
       </c>
       <c r="B155" s="163" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C155" s="168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D155" s="165">
         <v>1</v>
@@ -12718,10 +12695,10 @@
         <v>5</v>
       </c>
       <c r="B156" s="163" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C156" s="168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D156" s="165"/>
       <c r="E156" s="166"/>
@@ -12745,10 +12722,10 @@
         <v>6</v>
       </c>
       <c r="B157" s="163" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C157" s="168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D157" s="165"/>
       <c r="E157" s="166"/>
@@ -12770,7 +12747,7 @@
     <row r="158" s="5" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A158" s="137"/>
       <c r="B158" s="158" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C158" s="43"/>
       <c r="D158" s="59"/>
@@ -12793,7 +12770,7 @@
     <row r="159" s="5" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A159" s="55"/>
       <c r="B159" s="174" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C159" s="55"/>
       <c r="D159" s="55"/>
@@ -12818,7 +12795,7 @@
     </row>
     <row r="160" s="5" customFormat="1" ht="37" customHeight="1" spans="1:13">
       <c r="A160" s="175" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B160" s="176"/>
       <c r="C160" s="177"/>
@@ -13028,26 +13005,26 @@
   <sheetData>
     <row r="4" spans="4:6">
       <c r="D4" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E4" s="1">
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E7" s="2">
         <v>80</v>
@@ -13055,7 +13032,7 @@
     </row>
     <row r="8" spans="4:5">
       <c r="D8" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E8" s="2">
         <v>100</v>
@@ -13063,10 +13040,10 @@
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E11" s="2">
         <v>500</v>
@@ -13074,15 +13051,15 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E13" s="2">
         <v>800</v>
@@ -13093,7 +13070,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F14" s="1">
         <v>10000</v>
@@ -13101,7 +13078,7 @@
     </row>
     <row r="16" ht="31.2" spans="3:6">
       <c r="C16" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -13116,7 +13093,7 @@
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E17" s="2">
         <v>200</v>
@@ -13128,18 +13105,18 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E20" s="2">
         <v>2000</v>
@@ -13147,18 +13124,18 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E23" s="2">
         <v>80</v>
@@ -13166,7 +13143,7 @@
     </row>
     <row r="24" spans="4:5">
       <c r="D24" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E24" s="2">
         <v>200</v>
@@ -13174,21 +13151,21 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E28" s="2">
         <v>50</v>
@@ -13196,7 +13173,7 @@
     </row>
     <row r="29" spans="4:5">
       <c r="D29" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E29" s="2">
         <v>150</v>
@@ -13204,10 +13181,10 @@
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E31" s="2">
         <v>150</v>
@@ -13219,26 +13196,26 @@
     </row>
     <row r="32" spans="4:5">
       <c r="D32" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E36" s="1">
         <v>1000</v>
@@ -13246,10 +13223,10 @@
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E37" s="1">
         <v>800</v>
@@ -13257,10 +13234,10 @@
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E38" s="1">
         <v>700</v>
@@ -13268,10 +13245,10 @@
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1">
         <v>500</v>
@@ -13283,15 +13260,15 @@
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E42" s="2">
         <v>100</v>
@@ -13299,7 +13276,7 @@
     </row>
     <row r="43" spans="4:5">
       <c r="D43" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E43" s="2">
         <v>100</v>
@@ -13307,18 +13284,18 @@
     </row>
     <row r="44" spans="4:5">
       <c r="D44" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E46" s="2">
         <v>300</v>
@@ -13330,7 +13307,7 @@
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E47" s="2">
         <v>700</v>
@@ -13338,10 +13315,10 @@
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E49" s="2">
         <v>300</v>
@@ -13353,10 +13330,10 @@
     </row>
     <row r="50" spans="3:5">
       <c r="C50" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E50" s="2">
         <v>600</v>
@@ -13364,13 +13341,13 @@
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F52" s="1">
         <v>2500</v>
@@ -13378,13 +13355,13 @@
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F54" s="1">
         <v>15000</v>
@@ -13398,10 +13375,10 @@
     </row>
     <row r="58" spans="3:6">
       <c r="C58" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E58" s="2">
         <v>300</v>
@@ -13413,7 +13390,7 @@
     </row>
     <row r="59" spans="4:5">
       <c r="D59" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E59" s="2">
         <v>500</v>
@@ -13421,10 +13398,10 @@
     </row>
     <row r="60" spans="4:5">
       <c r="D60" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -13440,7 +13417,7 @@
   <dimension ref="B1:L49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13454,10 +13431,10 @@
   <sheetData>
     <row r="1" spans="11:12">
       <c r="K1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -13467,411 +13444,411 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" t="s">
         <v>420</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>421</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>422</v>
-      </c>
-      <c r="E4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I4" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" t="s">
         <v>428</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>429</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
         <v>430</v>
-      </c>
-      <c r="E6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F6" t="s">
-        <v>432</v>
-      </c>
-      <c r="G6" t="s">
-        <v>433</v>
-      </c>
-      <c r="I6" t="s">
-        <v>434</v>
-      </c>
-      <c r="J6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F12" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G12" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D13" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E13" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F13" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G13" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E14" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F14" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D16" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D18" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E18" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F18" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D20" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E20" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F20" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D22" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E24" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D27" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F28" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G28" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C30" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D30" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D31" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E31" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D32" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D33" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E33" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C36" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D36" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="C43" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D43" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E45" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F45" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G45" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="C46" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D46" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F48" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D49" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/装修.xlsx
+++ b/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="504">
   <si>
     <t>核心需求</t>
   </si>
@@ -1348,6 +1348,12 @@
     <t>季节性？</t>
   </si>
   <si>
+    <t>收纳</t>
+  </si>
+  <si>
+    <t>物件</t>
+  </si>
+  <si>
     <t>储物间</t>
   </si>
   <si>
@@ -1429,12 +1435,18 @@
     <t>客厅</t>
   </si>
   <si>
+    <t>书柜展示区</t>
+  </si>
+  <si>
+    <t>书</t>
+  </si>
+  <si>
+    <t>桌游</t>
+  </si>
+  <si>
     <t>书柜开放区</t>
   </si>
   <si>
-    <t>书</t>
-  </si>
-  <si>
     <t>路由器</t>
   </si>
   <si>
@@ -1463,9 +1475,6 @@
   </si>
   <si>
     <t>文件</t>
-  </si>
-  <si>
-    <t>桌游</t>
   </si>
   <si>
     <t>书桌</t>
@@ -4022,7 +4031,7 @@
   <sheetPr/>
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -8191,8 +8200,8 @@
   <sheetPr/>
   <dimension ref="A1:U160"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -12988,8 +12997,8 @@
   <sheetPr/>
   <dimension ref="C4:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -13414,10 +13423,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:L49"/>
+  <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13437,139 +13446,136 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>44</v>
       </c>
+      <c r="C3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E11" t="s">
-        <v>444</v>
-      </c>
-      <c r="F11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E12" t="s">
-        <v>448</v>
-      </c>
-      <c r="F12" t="s">
         <v>449</v>
-      </c>
-      <c r="G12" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" t="s">
         <v>451</v>
-      </c>
-      <c r="D13" t="s">
-        <v>443</v>
       </c>
       <c r="E13" t="s">
         <v>452</v>
@@ -13581,7 +13587,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:5">
       <c r="C14" t="s">
         <v>455</v>
       </c>
@@ -13591,264 +13597,275 @@
       <c r="E14" t="s">
         <v>457</v>
       </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>219</v>
       </c>
       <c r="D15" t="s">
         <v>459</v>
       </c>
+      <c r="E15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F15" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
-        <v>460</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
         <v>462</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
         <v>463</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D17" t="s">
         <v>464</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
         <v>465</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C19" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" t="s">
-        <v>129</v>
       </c>
       <c r="D19" t="s">
         <v>467</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>468</v>
       </c>
       <c r="F19" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>469</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
         <v>470</v>
       </c>
       <c r="E20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" t="s">
         <v>471</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
+      <c r="D21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" t="s">
+        <v>474</v>
+      </c>
+      <c r="F21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
         <v>162</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>329</v>
       </c>
-      <c r="D22" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
-      <c r="C24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E24" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:5">
       <c r="C25" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
+        <v>477</v>
+      </c>
+      <c r="E25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
         <v>131</v>
       </c>
-      <c r="C27" t="s">
-        <v>477</v>
-      </c>
-      <c r="D27" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
       <c r="C28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D28" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="D28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E28" t="s">
-        <v>479</v>
-      </c>
-      <c r="F28" t="s">
-        <v>480</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="D29" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
+      <c r="E29" t="s">
         <v>482</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F29" t="s">
         <v>483</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G29" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>485</v>
+      </c>
       <c r="C31" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D31" t="s">
-        <v>486</v>
-      </c>
-      <c r="E31" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:5">
       <c r="C32" t="s">
         <v>488</v>
       </c>
       <c r="D32" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
+        <v>489</v>
+      </c>
+      <c r="E32" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
       <c r="C33" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D33" t="s">
-        <v>490</v>
-      </c>
-      <c r="E33" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" t="s">
         <v>492</v>
       </c>
-      <c r="C36" t="s">
-        <v>483</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D34" t="s">
+        <v>493</v>
+      </c>
+      <c r="E34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>495</v>
+      </c>
+      <c r="C37" t="s">
+        <v>486</v>
+      </c>
+      <c r="D37" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
         <v>140</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
       <c r="C43" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" t="s">
         <v>298</v>
       </c>
-      <c r="D43" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" t="s">
+      <c r="D44" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" t="s">
         <v>147</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>146</v>
       </c>
-      <c r="D45" t="s">
-        <v>495</v>
-      </c>
-      <c r="E45" t="s">
-        <v>496</v>
-      </c>
-      <c r="F45" t="s">
-        <v>497</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="D46" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" t="s">
-        <v>455</v>
-      </c>
-      <c r="D46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" t="s">
+      <c r="E46" t="s">
+        <v>499</v>
+      </c>
+      <c r="F46" t="s">
+        <v>500</v>
+      </c>
+      <c r="G46" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
+        <v>458</v>
+      </c>
+      <c r="D47" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" t="s">
         <v>148</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>146</v>
       </c>
-      <c r="D48" t="s">
-        <v>499</v>
-      </c>
-      <c r="F48" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>502</v>
+      </c>
+      <c r="F49" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" t="s">
         <v>298</v>
       </c>
-      <c r="D49" t="s">
-        <v>445</v>
+      <c r="D50" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
